--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -58,10 +59,13 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -82,43 +86,133 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Place 11</t>
-  </si>
-  <si>
-    <t>Place 12</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>11.8-2.2</t>
+  </si>
+  <si>
+    <t>10.4-3.6</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>4.9-9.1</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>3.5-10.5</t>
+  </si>
+  <si>
+    <t>0.9-13.1</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>1-13</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -127,7 +221,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -579,13 +706,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -599,37 +726,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -643,13 +770,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -658,16 +785,16 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -678,40 +805,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -743,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -769,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -784,13 +911,13 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -807,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -822,19 +949,19 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +969,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -889,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -904,19 +1031,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -933,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -945,16 +1072,16 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -971,13 +1098,13 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -986,16 +1113,16 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1057,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1074,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1099,13 +1226,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1116,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1127,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1141,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1158,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1172,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1183,13 +1310,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1197,13 +1324,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1214,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1225,10 +1352,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1249,16 +1376,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1266,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1283,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1300,16 +1427,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.1666666666666666</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1320,10 +1447,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.3333333333333334</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1334,16 +1461,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666666</v>
+        <v>-0.8333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1368,16 +1495,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.5833333333333333</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1405,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>-0.6666666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1419,16 +1546,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1436,16 +1563,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1453,16 +1580,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1480,66 +1607,66 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63.31</v>
+        <v>59.2</v>
       </c>
       <c r="C2">
-        <v>34.5</v>
+        <v>27.7</v>
       </c>
       <c r="D2">
-        <v>2.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1568,31 +1695,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>27.35</v>
+        <v>3.8</v>
       </c>
       <c r="C3">
-        <v>30.38</v>
+        <v>12.6</v>
       </c>
       <c r="D3">
-        <v>28.1</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>10.98</v>
+        <v>29.1</v>
       </c>
       <c r="F3">
-        <v>2.65</v>
+        <v>21.3</v>
       </c>
       <c r="G3">
-        <v>0.47</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3">
-        <v>0.06999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1607,36 +1734,36 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>7.66</v>
+        <v>22.6</v>
       </c>
       <c r="C4">
-        <v>20.01</v>
+        <v>28.9</v>
       </c>
       <c r="D4">
-        <v>31.35</v>
+        <v>21.3</v>
       </c>
       <c r="E4">
-        <v>23.56</v>
+        <v>14.1</v>
       </c>
       <c r="F4">
-        <v>11.59</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="I4">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1651,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.84</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1659,34 +1786,34 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1.31</v>
+        <v>11.5</v>
       </c>
       <c r="C5">
-        <v>10.01</v>
+        <v>20.5</v>
       </c>
       <c r="D5">
-        <v>21.25</v>
+        <v>25.7</v>
       </c>
       <c r="E5">
-        <v>25.6</v>
+        <v>21.1</v>
       </c>
       <c r="F5">
-        <v>21.52</v>
+        <v>12.8</v>
       </c>
       <c r="G5">
-        <v>13.35</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="I5">
-        <v>1.34</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1695,139 +1822,139 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.28999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.32</v>
+        <v>2.3</v>
       </c>
       <c r="C6">
-        <v>3.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6">
-        <v>10.59</v>
+        <v>14.8</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>24.83</v>
+        <v>29.1</v>
       </c>
       <c r="G6">
-        <v>20.14</v>
+        <v>14.2</v>
       </c>
       <c r="H6">
-        <v>12.33</v>
+        <v>6.5</v>
       </c>
       <c r="I6">
-        <v>5.89</v>
+        <v>2.8</v>
       </c>
       <c r="J6">
-        <v>1.63</v>
+        <v>0.8</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>92.03</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4.93</v>
+        <v>5.4</v>
       </c>
       <c r="E7">
-        <v>12.41</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F7">
-        <v>19.87</v>
+        <v>14.3</v>
       </c>
       <c r="G7">
-        <v>23.74</v>
+        <v>25.3</v>
       </c>
       <c r="H7">
-        <v>19.37</v>
+        <v>17.7</v>
       </c>
       <c r="I7">
-        <v>11.85</v>
+        <v>12.4</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7">
-        <v>1.46</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>0.17</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>81.51000000000001</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>5.38</v>
+        <v>1.7</v>
       </c>
       <c r="F8">
-        <v>12.27</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
-        <v>19.38</v>
+        <v>29.8</v>
       </c>
       <c r="H8">
-        <v>23.4</v>
+        <v>34.9</v>
       </c>
       <c r="I8">
-        <v>20.01</v>
+        <v>16.7</v>
       </c>
       <c r="J8">
-        <v>12.21</v>
+        <v>5.4</v>
       </c>
       <c r="K8">
-        <v>4.92</v>
+        <v>1.2</v>
       </c>
       <c r="L8">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="M8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>61.88000000000001</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1838,45 +1965,45 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>1.66</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>5.55</v>
+        <v>1.7</v>
       </c>
       <c r="G9">
-        <v>12.39</v>
+        <v>7.4</v>
       </c>
       <c r="H9">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="I9">
-        <v>23.92</v>
+        <v>31.5</v>
       </c>
       <c r="J9">
-        <v>20.25</v>
+        <v>23.6</v>
       </c>
       <c r="K9">
-        <v>11.64</v>
+        <v>12.3</v>
       </c>
       <c r="L9">
-        <v>3.68</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>40.25</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1885,42 +2012,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="G10">
-        <v>5.149999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H10">
-        <v>12.96</v>
+        <v>10.1</v>
       </c>
       <c r="I10">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="J10">
-        <v>25.37</v>
+        <v>24.8</v>
       </c>
       <c r="K10">
-        <v>20.79</v>
+        <v>24.8</v>
       </c>
       <c r="L10">
-        <v>10.47</v>
+        <v>14.3</v>
       </c>
       <c r="M10">
-        <v>1.72</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>20.05</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1932,39 +2059,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>4.24</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>12.18</v>
+        <v>11.5</v>
       </c>
       <c r="J11">
-        <v>23.9</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>30.1</v>
+        <v>37.9</v>
       </c>
       <c r="L11">
-        <v>21.35</v>
+        <v>18.1</v>
       </c>
       <c r="M11">
-        <v>6.950000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
-        <v>5.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1976,39 +2103,39 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
-        <v>0.06999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H12">
-        <v>0.5599999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="J12">
-        <v>11.32</v>
+        <v>10.1</v>
       </c>
       <c r="K12">
-        <v>28.72</v>
+        <v>19.4</v>
       </c>
       <c r="L12">
-        <v>29.76</v>
+        <v>51.4</v>
       </c>
       <c r="M12">
-        <v>26.52</v>
+        <v>11.3</v>
       </c>
       <c r="N12">
-        <v>0.6299999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2038,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.92</v>
+        <v>0.4</v>
       </c>
       <c r="L13">
-        <v>33.56</v>
+        <v>11.8</v>
       </c>
       <c r="M13">
-        <v>64.52</v>
+        <v>87.8</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2056,6 +2183,357 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>132.83</v>
+      </c>
+      <c r="E2">
+        <v>265.66</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>132.45</v>
+      </c>
+      <c r="E3">
+        <v>264.9</v>
+      </c>
+      <c r="F3">
+        <v>99.8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>117.69</v>
+      </c>
+      <c r="E4">
+        <v>235.38</v>
+      </c>
+      <c r="F4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>131.39</v>
+      </c>
+      <c r="E5">
+        <v>262.78</v>
+      </c>
+      <c r="F5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>116.76</v>
+      </c>
+      <c r="E6">
+        <v>233.52</v>
+      </c>
+      <c r="F6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>113.24</v>
+      </c>
+      <c r="E7">
+        <v>226.48</v>
+      </c>
+      <c r="F7">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>114.36</v>
+      </c>
+      <c r="E8">
+        <v>228.72</v>
+      </c>
+      <c r="F8">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>104.56</v>
+      </c>
+      <c r="E9">
+        <v>209.12</v>
+      </c>
+      <c r="F9">
+        <v>29.8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>103.04</v>
+      </c>
+      <c r="E10">
+        <v>206.08</v>
+      </c>
+      <c r="F10">
+        <v>16.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>100.7</v>
+      </c>
+      <c r="E11">
+        <v>201.4</v>
+      </c>
+      <c r="F11">
+        <v>5.1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E12">
+        <v>171.2</v>
+      </c>
+      <c r="F12">
+        <v>3.6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>79.18000000000001</v>
+      </c>
+      <c r="E13">
+        <v>158.36</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2065,16 +2543,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2082,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,16 +2577,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,16 +2594,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,16 +2611,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,16 +2628,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,16 +2645,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,16 +2662,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2679,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2218,16 +2696,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2713,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2252,16 +2730,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,169 +2747,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-8</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2441,33 +2766,251 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="98">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -158,19 +158,22 @@
     <t>11.8-2.2</t>
   </si>
   <si>
-    <t>10.4-3.6</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>6.9-7.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
   </si>
   <si>
     <t>5.7-8.3</t>
@@ -179,21 +182,18 @@
     <t>4.9-9.1</t>
   </si>
   <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>3.5-10.5</t>
-  </si>
-  <si>
-    <t>0.9-13.1</t>
+    <t>4.6-9.4</t>
+  </si>
+  <si>
+    <t>3.6-10.4</t>
+  </si>
+  <si>
+    <t>1.0-13.0</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
@@ -206,19 +206,58 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>1-13</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>↑5</t>
@@ -1654,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.2</v>
+        <v>61.8</v>
       </c>
       <c r="C2">
-        <v>27.7</v>
+        <v>25.8</v>
       </c>
       <c r="D2">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F2">
         <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1701,25 +1740,25 @@
         <v>3.8</v>
       </c>
       <c r="C3">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24.9</v>
       </c>
       <c r="E3">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F3">
-        <v>21.3</v>
+        <v>18.9</v>
       </c>
       <c r="G3">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1734,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1742,34 +1781,34 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.6</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>28.9</v>
+        <v>27.1</v>
       </c>
       <c r="D4">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="E4">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="F4">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
         <v>1.2</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1778,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1786,31 +1825,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C5">
         <v>20.5</v>
       </c>
       <c r="D5">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="E5">
-        <v>21.1</v>
+        <v>22.1</v>
       </c>
       <c r="F5">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1822,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>97.59999999999999</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1830,43 +1869,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>19.6</v>
       </c>
       <c r="F6">
-        <v>29.1</v>
+        <v>26.5</v>
       </c>
       <c r="G6">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>89.59999999999999</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1874,43 +1913,43 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E7">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F7">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="G7">
-        <v>25.3</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>17.7</v>
+        <v>19.6</v>
       </c>
       <c r="I7">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="J7">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="L7">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>56.4</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1921,31 +1960,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="F8">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="G8">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="H8">
-        <v>34.9</v>
+        <v>33.5</v>
       </c>
       <c r="I8">
-        <v>16.7</v>
+        <v>14.6</v>
       </c>
       <c r="J8">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="K8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -1954,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>41.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1968,37 +2007,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F9">
         <v>1.7</v>
       </c>
       <c r="G9">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H9">
-        <v>20.1</v>
+        <v>18.3</v>
       </c>
       <c r="I9">
-        <v>31.5</v>
+        <v>32.6</v>
       </c>
       <c r="J9">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="K9">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2012,37 +2051,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H10">
-        <v>10.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="J10">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
       <c r="L10">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="M10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2062,31 +2101,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>13.4</v>
       </c>
       <c r="J11">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="K11">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="L11">
-        <v>18.1</v>
+        <v>15.2</v>
       </c>
       <c r="M11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2109,28 +2148,28 @@
         <v>0.2</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="I12">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J12">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>19.4</v>
+        <v>17.6</v>
       </c>
       <c r="L12">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="M12">
         <v>11.3</v>
       </c>
       <c r="N12">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2165,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L13">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="M13">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2239,12 +2278,12 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -2253,24 +2292,24 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>132.45</v>
+        <v>117.69</v>
       </c>
       <c r="E3">
-        <v>264.9</v>
+        <v>235.38</v>
       </c>
       <c r="F3">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -2279,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>117.69</v>
+        <v>132.45</v>
       </c>
       <c r="E4">
-        <v>235.38</v>
+        <v>264.9</v>
       </c>
       <c r="F4">
         <v>99.59999999999999</v>
@@ -2314,7 +2353,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
@@ -2337,10 +2376,10 @@
         <v>233.52</v>
       </c>
       <c r="F6">
-        <v>96.09999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -2363,10 +2402,10 @@
         <v>226.48</v>
       </c>
       <c r="F7">
-        <v>76.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
@@ -2389,10 +2428,10 @@
         <v>228.72</v>
       </c>
       <c r="F8">
-        <v>74.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
@@ -2415,10 +2454,10 @@
         <v>209.12</v>
       </c>
       <c r="F9">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2441,10 +2480,10 @@
         <v>206.08</v>
       </c>
       <c r="F10">
-        <v>16.2</v>
+        <v>15.1</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>61</v>
@@ -2467,13 +2506,13 @@
         <v>201.4</v>
       </c>
       <c r="F11">
-        <v>5.1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2493,10 +2532,10 @@
         <v>171.2</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
@@ -2522,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
@@ -2535,13 +2574,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2549,214 +2588,253 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
         <v>-3</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
         <v>-3</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
         <v>-8</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
         <v>-12</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
         <v>-13</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2774,13 +2852,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2794,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2808,7 +2886,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2822,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2836,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2850,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2864,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2878,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2892,7 +2970,7 @@
         <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2906,7 +2984,7 @@
         <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2920,7 +2998,7 @@
         <v>-8</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2934,7 +3012,7 @@
         <v>-12</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2948,7 +3026,7 @@
         <v>-13</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2966,25 +3044,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -146,55 +149,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>11.8-2.2</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>12.0-2.0</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>10.5-3.5</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>7.3-6.7</t>
   </si>
   <si>
     <t>6.9-7.1</t>
   </si>
   <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>4.9-9.1</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
-  </si>
-  <si>
-    <t>3.6-10.4</t>
-  </si>
-  <si>
-    <t>1.0-13.0</t>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>3.5-10.5</t>
+  </si>
+  <si>
+    <t>3.8-10.2</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
-    <t>10-4</t>
+    <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
@@ -212,9 +215,6 @@
     <t>3-11</t>
   </si>
   <si>
-    <t>1-13</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -230,30 +230,30 @@
     <t>Jordan Wallach</t>
   </si>
   <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
     <t>Ted Wallach</t>
   </si>
   <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>lawrence wallach</t>
+    <t>Michael Dickert</t>
   </si>
   <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
     <t>Diana Wallach</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
@@ -263,37 +263,37 @@
     <t>↑5</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -730,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -768,19 +768,19 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -789,13 +789,13 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -806,34 +806,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -844,40 +844,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -894,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -935,31 +935,31 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -967,37 +967,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1008,40 +1008,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1058,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1073,16 +1073,16 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1099,28 +1099,28 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1140,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1155,13 +1155,13 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1181,10 +1181,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1199,10 +1199,10 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1223,13 +1223,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1282,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.8333333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1296,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1307,13 +1307,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1321,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1335,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1352,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1363,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1.25</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.583333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1415,16 +1415,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="D2">
         <v>-0.25</v>
@@ -1452,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1466,16 +1466,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666667</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1483,16 +1483,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1.416666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.5833333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1500,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.8333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1517,16 +1517,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333326</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1534,13 +1534,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1551,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1568,16 +1568,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1585,16 +1585,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1602,16 +1602,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0.4166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666667</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1619,16 +1619,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.08333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1646,46 +1646,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1693,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61.8</v>
+        <v>69.7</v>
       </c>
       <c r="C2">
-        <v>25.8</v>
+        <v>22.3</v>
       </c>
       <c r="D2">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1737,28 +1737,28 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="C3">
-        <v>15.5</v>
+        <v>28.9</v>
       </c>
       <c r="D3">
-        <v>24.9</v>
+        <v>35.6</v>
       </c>
       <c r="E3">
-        <v>28.6</v>
+        <v>20.8</v>
       </c>
       <c r="F3">
-        <v>18.9</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1781,34 +1781,34 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C4">
-        <v>27.1</v>
+        <v>36.1</v>
       </c>
       <c r="D4">
-        <v>21.4</v>
+        <v>24.8</v>
       </c>
       <c r="E4">
-        <v>15.9</v>
+        <v>10.8</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H4">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.40000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1825,34 +1825,34 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>11.3</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>20.5</v>
+        <v>10.3</v>
       </c>
       <c r="D5">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="E5">
-        <v>22.1</v>
+        <v>36.2</v>
       </c>
       <c r="F5">
-        <v>12.3</v>
+        <v>16.1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>96.7</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1869,43 +1869,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>4.9</v>
       </c>
       <c r="E6">
-        <v>19.6</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="G6">
-        <v>15.5</v>
+        <v>24.2</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>15.3</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
+        <v>5.2</v>
+      </c>
+      <c r="K6">
+        <v>2.9</v>
+      </c>
+      <c r="L6">
         <v>0.7</v>
       </c>
-      <c r="K6">
-        <v>0.6</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>87.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1913,136 +1913,136 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D7">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="E7">
-        <v>7.1</v>
+        <v>12.1</v>
       </c>
       <c r="F7">
-        <v>15.5</v>
+        <v>24.6</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>19.2</v>
       </c>
       <c r="H7">
-        <v>19.6</v>
+        <v>14.2</v>
       </c>
       <c r="I7">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="J7">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="K7">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="L7">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N7">
-        <v>52.9</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="G8">
-        <v>31.1</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>33.5</v>
+        <v>18.9</v>
       </c>
       <c r="I8">
-        <v>14.6</v>
+        <v>15.9</v>
       </c>
       <c r="J8">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>10.2</v>
       </c>
       <c r="L8">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N8">
-        <v>46</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="G9">
-        <v>6.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9">
-        <v>18.3</v>
+        <v>20.9</v>
       </c>
       <c r="I9">
-        <v>32.6</v>
+        <v>22.6</v>
       </c>
       <c r="J9">
-        <v>22.8</v>
+        <v>15.8</v>
       </c>
       <c r="K9">
-        <v>12.9</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>9.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2051,42 +2051,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>8.800000000000001</v>
+        <v>17.4</v>
       </c>
       <c r="I10">
-        <v>18.5</v>
+        <v>22.8</v>
       </c>
       <c r="J10">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="K10">
-        <v>24.1</v>
+        <v>13.5</v>
       </c>
       <c r="L10">
-        <v>15.5</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="N10">
-        <v>6.3</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2101,31 +2101,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>13.4</v>
+        <v>5.3</v>
       </c>
       <c r="J11">
-        <v>26.9</v>
+        <v>10.7</v>
       </c>
       <c r="K11">
-        <v>37.2</v>
+        <v>20.1</v>
       </c>
       <c r="L11">
-        <v>15.2</v>
+        <v>28.6</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>28.6</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2142,31 +2142,31 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="K12">
-        <v>17.6</v>
+        <v>14.4</v>
       </c>
       <c r="L12">
-        <v>51.3</v>
+        <v>24.7</v>
       </c>
       <c r="M12">
-        <v>11.3</v>
+        <v>39.4</v>
       </c>
       <c r="N12">
         <v>1.9</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2183,37 +2183,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>25.7</v>
       </c>
       <c r="L13">
-        <v>12.1</v>
+        <v>29.1</v>
       </c>
       <c r="M13">
-        <v>87.59999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2231,28 +2231,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2260,25 +2260,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>132.83</v>
+        <v>131.86</v>
       </c>
       <c r="E2">
-        <v>265.66</v>
+        <v>395.5799999999999</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2286,25 +2286,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>117.69</v>
+        <v>120.7333333333333</v>
       </c>
       <c r="E3">
-        <v>235.38</v>
+        <v>362.2</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2312,25 +2312,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>132.45</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="E4">
-        <v>264.9</v>
+        <v>385.7</v>
       </c>
       <c r="F4">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2338,25 +2338,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5">
-        <v>131.39</v>
+        <v>127.4333333333333</v>
       </c>
       <c r="E5">
-        <v>262.78</v>
+        <v>382.3</v>
       </c>
       <c r="F5">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2364,126 +2364,126 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>116.76</v>
+        <v>110.7066666666667</v>
       </c>
       <c r="E6">
-        <v>233.52</v>
+        <v>332.12</v>
       </c>
       <c r="F6">
-        <v>95.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>113.24</v>
+        <v>115.4866666666667</v>
       </c>
       <c r="E7">
-        <v>226.48</v>
+        <v>346.46</v>
       </c>
       <c r="F7">
-        <v>79.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>114.36</v>
+        <v>108.3</v>
       </c>
       <c r="E8">
-        <v>228.72</v>
+        <v>324.9</v>
       </c>
       <c r="F8">
-        <v>72.5</v>
+        <v>50.3</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>104.56</v>
+        <v>112.4866666666667</v>
       </c>
       <c r="E9">
-        <v>209.12</v>
+        <v>337.46</v>
       </c>
       <c r="F9">
-        <v>27.8</v>
+        <v>46.8</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D10">
-        <v>103.04</v>
+        <v>103.1933333333333</v>
       </c>
       <c r="E10">
-        <v>206.08</v>
+        <v>309.58</v>
       </c>
       <c r="F10">
-        <v>15.1</v>
+        <v>32.2</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>61</v>
@@ -2491,28 +2491,28 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>100.7</v>
+        <v>90.27333333333333</v>
       </c>
       <c r="E11">
-        <v>201.4</v>
+        <v>270.82</v>
       </c>
       <c r="F11">
-        <v>7.000000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2520,51 +2520,51 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>85.59999999999999</v>
+        <v>92.40666666666665</v>
       </c>
       <c r="E12">
-        <v>171.2</v>
+        <v>277.22</v>
       </c>
       <c r="F12">
-        <v>4.100000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>79.18000000000001</v>
+        <v>95.61999999999999</v>
       </c>
       <c r="E13">
-        <v>158.36</v>
+        <v>286.86</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
@@ -2591,7 +2591,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>66</v>
@@ -2608,7 +2608,7 @@
         <v>67</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2628,7 +2628,7 @@
         <v>68</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2642,19 +2642,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -2711,10 +2711,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2748,13 +2748,13 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2808,13 +2808,13 @@
         <v>77</v>
       </c>
       <c r="D12">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2828,13 +2828,13 @@
         <v>78</v>
       </c>
       <c r="D13">
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2844,24 +2844,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2871,11 +2874,14 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2885,81 +2891,99 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2969,39 +2993,48 @@
       <c r="C9">
         <v>-3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
+      </c>
+      <c r="C10">
+        <v>-8</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-6</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3011,11 +3044,14 @@
       <c r="C12">
         <v>-12</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>-13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3025,8 +3061,11 @@
       <c r="C13">
         <v>-13</v>
       </c>
-      <c r="D13" t="s">
-        <v>88</v>
+      <c r="D13">
+        <v>-23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3075,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3070,25 +3109,77 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>-13</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="101">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -59,16 +59,19 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -149,67 +152,70 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>12.0-2.0</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>10.5-3.5</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
   </si>
   <si>
     <t>7.3-6.7</t>
   </si>
   <si>
-    <t>6.9-7.1</t>
+    <t>7.0-7.0</t>
   </si>
   <si>
     <t>5.9-8.1</t>
   </si>
   <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
-  </si>
-  <si>
-    <t>3.5-10.5</t>
-  </si>
-  <si>
-    <t>3.8-10.2</t>
-  </si>
-  <si>
-    <t>12-2</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>3.6-10.4</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>3-11</t>
@@ -224,27 +230,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
   </si>
   <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>Michael Dickert</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
     <t>Diana Wallach</t>
   </si>
   <si>
@@ -254,37 +260,37 @@
     <t>Kari Dickert</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑10</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -294,6 +300,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -724,37 +733,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -765,19 +774,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -809,13 +818,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -824,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -847,19 +856,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -874,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -888,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -900,10 +909,10 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -915,10 +924,10 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -929,37 +938,37 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -976,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -997,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1011,34 +1020,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -1058,16 +1067,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1076,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1105,10 +1114,10 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1120,10 +1129,10 @@
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1143,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1164,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1175,22 +1184,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1199,13 +1208,13 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1223,13 +1232,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1237,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,13 +1260,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1265,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1279,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1293,13 +1302,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1310,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1324,10 +1333,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1352,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1366,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.916666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1380,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1394,10 +1403,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1415,16 +1424,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1432,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1449,13 +1458,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1466,16 +1475,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.333333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.6666666666666665</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1483,16 +1492,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>1.333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1500,16 +1509,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.583333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D6">
-        <v>0.5833333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1517,16 +1526,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D7">
-        <v>1.333333333333333</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1534,16 +1543,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1.25</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1551,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D9">
-        <v>0.1666666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1568,16 +1577,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1585,16 +1594,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1602,16 +1611,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5833333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D12">
-        <v>-0.4166666666666666</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1619,16 +1628,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1646,78 +1655,78 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>69.7</v>
+        <v>49.7</v>
       </c>
       <c r="C2">
-        <v>22.3</v>
+        <v>25.5</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>11.7</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1729,42 +1738,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>6.9</v>
+        <v>22.4</v>
       </c>
       <c r="C3">
-        <v>28.9</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>35.6</v>
+        <v>19.8</v>
       </c>
       <c r="E3">
-        <v>20.8</v>
+        <v>13.6</v>
       </c>
       <c r="F3">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1773,139 +1782,139 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>20.8</v>
+        <v>18.3</v>
       </c>
       <c r="C4">
-        <v>36.1</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
       <c r="E4">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="F4">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="G4">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.3</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C5">
-        <v>10.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D5">
-        <v>22.8</v>
+        <v>15.3</v>
       </c>
       <c r="E5">
-        <v>36.2</v>
+        <v>14.7</v>
       </c>
       <c r="F5">
-        <v>16.1</v>
+        <v>17.5</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>95.3</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6.9</v>
+      </c>
+      <c r="D6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E6">
+        <v>14.3</v>
+      </c>
+      <c r="F6">
+        <v>13.2</v>
+      </c>
+      <c r="G6">
+        <v>15.7</v>
+      </c>
+      <c r="H6">
+        <v>13.5</v>
+      </c>
+      <c r="I6">
+        <v>10.9</v>
+      </c>
+      <c r="J6">
+        <v>6.9</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
-      </c>
-      <c r="D6">
-        <v>4.9</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>24.5</v>
-      </c>
-      <c r="G6">
-        <v>24.2</v>
-      </c>
-      <c r="H6">
-        <v>15.3</v>
-      </c>
-      <c r="I6">
-        <v>9.5</v>
-      </c>
-      <c r="J6">
-        <v>5.2</v>
-      </c>
-      <c r="K6">
-        <v>2.9</v>
-      </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>66.3</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1913,87 +1922,87 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="D7">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E7">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F7">
-        <v>24.6</v>
+        <v>14.9</v>
       </c>
       <c r="G7">
-        <v>19.2</v>
+        <v>15.2</v>
       </c>
       <c r="H7">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="J7">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L7">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="N7">
-        <v>61.7</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E8">
-        <v>3.7</v>
+        <v>13.2</v>
       </c>
       <c r="F8">
-        <v>10.9</v>
+        <v>15.4</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H8">
-        <v>18.9</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>15.9</v>
+        <v>12.2</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>7.2</v>
       </c>
       <c r="K8">
-        <v>10.2</v>
+        <v>5.9</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M8">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="N8">
-        <v>31.4</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2001,180 +2010,180 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="E9">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G9">
-        <v>16.8</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>20.9</v>
+        <v>13.9</v>
       </c>
       <c r="I9">
-        <v>22.6</v>
+        <v>15.6</v>
       </c>
       <c r="J9">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="K9">
-        <v>8.5</v>
+        <v>11.6</v>
       </c>
       <c r="L9">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>25.9</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G10">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H10">
-        <v>17.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I10">
-        <v>22.8</v>
+        <v>11.1</v>
       </c>
       <c r="J10">
-        <v>24.2</v>
+        <v>17.3</v>
       </c>
       <c r="K10">
-        <v>13.5</v>
+        <v>17.1</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>16.9</v>
       </c>
       <c r="M10">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="N10">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H11">
-        <v>4.2</v>
+        <v>10.2</v>
       </c>
       <c r="I11">
-        <v>5.3</v>
+        <v>14.6</v>
       </c>
       <c r="J11">
-        <v>10.7</v>
+        <v>20.8</v>
       </c>
       <c r="K11">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="L11">
-        <v>28.6</v>
+        <v>12.9</v>
       </c>
       <c r="M11">
-        <v>28.6</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>2.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="J12">
-        <v>10.6</v>
+        <v>11.7</v>
       </c>
       <c r="K12">
-        <v>14.4</v>
+        <v>22.7</v>
       </c>
       <c r="L12">
-        <v>24.7</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>39.4</v>
+        <v>18.1</v>
       </c>
       <c r="N12">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2183,37 +2192,37 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
       </c>
       <c r="F13">
         <v>0.2</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="I13">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
-        <v>10.1</v>
+        <v>3.3</v>
       </c>
       <c r="K13">
-        <v>25.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L13">
-        <v>29.1</v>
+        <v>24.2</v>
       </c>
       <c r="M13">
-        <v>25.7</v>
+        <v>59.3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2231,158 +2240,158 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>131.86</v>
+        <v>126.38</v>
       </c>
       <c r="E2">
-        <v>395.5799999999999</v>
+        <v>505.52</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>120.7333333333333</v>
+        <v>120.465</v>
       </c>
       <c r="E3">
-        <v>362.2</v>
+        <v>481.8599999999999</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>128.5666666666667</v>
+        <v>125.38</v>
       </c>
       <c r="E4">
-        <v>385.7</v>
+        <v>501.52</v>
       </c>
       <c r="F4">
-        <v>99.8</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>127.4333333333333</v>
+        <v>113.415</v>
       </c>
       <c r="E5">
-        <v>382.3</v>
+        <v>453.66</v>
       </c>
       <c r="F5">
-        <v>98.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>110.7066666666667</v>
+        <v>109.97</v>
       </c>
       <c r="E6">
-        <v>332.12</v>
+        <v>439.88</v>
       </c>
       <c r="F6">
-        <v>81.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2390,51 +2399,51 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>115.4866666666667</v>
+        <v>116.115</v>
       </c>
       <c r="E7">
-        <v>346.46</v>
+        <v>464.46</v>
       </c>
       <c r="F7">
-        <v>75.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>108.3</v>
+        <v>122.335</v>
       </c>
       <c r="E8">
-        <v>324.9</v>
+        <v>489.34</v>
       </c>
       <c r="F8">
-        <v>50.3</v>
+        <v>71.3</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2442,129 +2451,129 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>112.4866666666667</v>
+        <v>118.36</v>
       </c>
       <c r="E9">
-        <v>337.46</v>
+        <v>473.4399999999999</v>
       </c>
       <c r="F9">
-        <v>46.8</v>
+        <v>44.3</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>103.1933333333333</v>
+        <v>105.55</v>
       </c>
       <c r="E10">
-        <v>309.58</v>
+        <v>422.1999999999999</v>
       </c>
       <c r="F10">
-        <v>32.2</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>90.27333333333333</v>
+        <v>108.67</v>
       </c>
       <c r="E11">
-        <v>270.82</v>
+        <v>434.6799999999999</v>
       </c>
       <c r="F11">
-        <v>6.7</v>
+        <v>24.5</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>92.40666666666665</v>
+        <v>100.815</v>
       </c>
       <c r="E12">
-        <v>277.22</v>
+        <v>403.26</v>
       </c>
       <c r="F12">
-        <v>4.8</v>
+        <v>9.1</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>95.61999999999999</v>
+        <v>88.88499999999999</v>
       </c>
       <c r="E13">
-        <v>286.86</v>
+        <v>355.54</v>
       </c>
       <c r="F13">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2582,19 +2591,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2602,19 +2611,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2622,19 +2631,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2642,19 +2651,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2662,19 +2671,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2682,19 +2691,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2702,19 +2711,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2722,19 +2731,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2745,16 +2754,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2765,16 +2774,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2785,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>-11</v>
@@ -2794,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2802,19 +2811,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2822,19 +2831,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2844,146 +2853,170 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="B8">
         <v>4</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2996,11 +3029,14 @@
       <c r="D9">
         <v>-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3013,11 +3049,14 @@
       <c r="D10">
         <v>-10</v>
       </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3030,42 +3069,51 @@
       <c r="D11">
         <v>-11</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-13</v>
+      </c>
+      <c r="D12">
+        <v>-23</v>
+      </c>
+      <c r="E12">
+        <v>-23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-8</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-12</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-13</v>
       </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>-13</v>
-      </c>
-      <c r="D13">
-        <v>-23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
+      <c r="E13">
+        <v>-24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3123,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3083,25 +3131,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3109,25 +3157,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3135,25 +3183,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3161,25 +3209,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>-4</v>
+      </c>
+      <c r="F4">
+        <v>-11</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="102">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -167,37 +167,37 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>3.6-10.4</t>
+    <t>10.3-3.6-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.1-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>3.6-10.4-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>3-11</t>
@@ -1702,34 +1705,34 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>49.7</v>
+        <v>51.2</v>
       </c>
       <c r="C2">
-        <v>25.5</v>
+        <v>22.4</v>
       </c>
       <c r="D2">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="E2">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1738,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1746,34 +1749,34 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="D3">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="E3">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="G3">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1782,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1790,43 +1793,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="D4">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="E4">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F4">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>90.3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1834,43 +1837,43 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D5">
-        <v>15.3</v>
+        <v>12.2</v>
       </c>
       <c r="E5">
-        <v>14.7</v>
+        <v>17.6</v>
       </c>
       <c r="F5">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="H5">
-        <v>12.6</v>
+        <v>10.6</v>
       </c>
       <c r="I5">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="J5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>71.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1878,43 +1881,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C6">
         <v>6.9</v>
       </c>
       <c r="D6">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="E6">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F6">
-        <v>13.2</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="I6">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J6">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>60.3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1925,40 +1928,40 @@
         <v>2.2</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D7">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="E7">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F7">
-        <v>14.9</v>
+        <v>13.8</v>
       </c>
       <c r="G7">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="H7">
-        <v>12.6</v>
+        <v>14.5</v>
       </c>
       <c r="I7">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>59.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1966,43 +1969,43 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="E8">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="F8">
-        <v>15.4</v>
+        <v>11.7</v>
       </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="H8">
         <v>13</v>
       </c>
       <c r="I8">
-        <v>12.2</v>
+        <v>14.3</v>
       </c>
       <c r="J8">
         <v>7.2</v>
       </c>
       <c r="K8">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="M8">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>58.3</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2010,43 +2013,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F9">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
       <c r="H9">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="I9">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>16.6</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="L9">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>30.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2054,40 +2057,40 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="G10">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="H10">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I10">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="J10">
-        <v>17.3</v>
+        <v>16.5</v>
       </c>
       <c r="K10">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="L10">
         <v>16.9</v>
       </c>
       <c r="M10">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>18.3</v>
@@ -2098,43 +2101,43 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="H11">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>20.8</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>20.7</v>
+        <v>17.5</v>
       </c>
       <c r="L11">
-        <v>12.9</v>
+        <v>17.8</v>
       </c>
       <c r="M11">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="N11">
-        <v>14.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2145,40 +2148,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G12">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
-        <v>11.7</v>
+        <v>14.1</v>
       </c>
       <c r="K12">
-        <v>22.7</v>
+        <v>21.1</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>26.4</v>
       </c>
       <c r="M12">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="N12">
-        <v>4.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2195,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>0.2</v>
@@ -2204,25 +2207,25 @@
         <v>0.3</v>
       </c>
       <c r="H13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="K13">
-        <v>8.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="L13">
-        <v>24.2</v>
+        <v>20.4</v>
       </c>
       <c r="M13">
-        <v>59.3</v>
+        <v>60.9</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2284,7 @@
         <v>505.52</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -2307,13 +2310,13 @@
         <v>481.8599999999999</v>
       </c>
       <c r="F3">
-        <v>96.39999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2333,7 +2336,7 @@
         <v>501.52</v>
       </c>
       <c r="F4">
-        <v>94.39999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -2385,13 +2388,13 @@
         <v>439.88</v>
       </c>
       <c r="F6">
-        <v>73.8</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2411,7 +2414,7 @@
         <v>464.46</v>
       </c>
       <c r="F7">
-        <v>72.5</v>
+        <v>71.2</v>
       </c>
       <c r="G7" t="s">
         <v>53</v>
@@ -2437,7 +2440,7 @@
         <v>489.34</v>
       </c>
       <c r="F8">
-        <v>71.3</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
@@ -2463,7 +2466,7 @@
         <v>473.4399999999999</v>
       </c>
       <c r="F9">
-        <v>44.3</v>
+        <v>41.6</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
@@ -2489,7 +2492,7 @@
         <v>422.1999999999999</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
@@ -2515,7 +2518,7 @@
         <v>434.6799999999999</v>
       </c>
       <c r="F11">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -2541,13 +2544,13 @@
         <v>403.26</v>
       </c>
       <c r="F12">
-        <v>9.1</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2567,13 +2570,13 @@
         <v>355.54</v>
       </c>
       <c r="F13">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2594,16 +2597,16 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2614,7 +2617,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -2623,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2634,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -2643,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2654,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -2663,7 +2666,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2674,7 +2677,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -2683,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2694,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -2703,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2714,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2723,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2734,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2743,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2754,7 +2757,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2763,7 +2766,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2774,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>-7</v>
@@ -2783,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2794,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>-11</v>
@@ -2803,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2814,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>-23</v>
@@ -2823,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2834,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>-24</v>
@@ -2843,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2861,19 +2864,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2893,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2913,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2933,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2953,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2973,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2993,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3013,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3033,7 +3036,7 @@
         <v>-4</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3053,7 +3056,7 @@
         <v>-7</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3073,7 +3076,7 @@
         <v>-11</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3093,7 +3096,7 @@
         <v>-23</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3113,7 +3116,7 @@
         <v>-24</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3131,25 +3134,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="106">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -59,19 +59,22 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -152,52 +155,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>10.3-3.6-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>9.7-4.2-0.1</t>
+  </si>
+  <si>
+    <t>9.3-4.7-0.1</t>
+  </si>
+  <si>
+    <t>9.2-4.7-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4-0.1</t>
   </si>
   <si>
     <t>7.2-6.7-0.1</t>
   </si>
   <si>
-    <t>6.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.1-0.1</t>
-  </si>
-  <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>3.6-10.4-0.1</t>
+    <t>6.6-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>5.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>3.3-10.6-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -218,9 +221,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>3-11</t>
   </si>
   <si>
@@ -245,55 +245,64 @@
     <t>Gabe Musty</t>
   </si>
   <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
+    <t>Kari Dickert</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓11</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -306,6 +315,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -736,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -777,37 +789,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -821,31 +833,31 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -856,40 +868,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -900,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -909,16 +921,16 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -930,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -938,40 +950,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -979,37 +991,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1020,40 +1032,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1061,40 +1073,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1102,37 +1114,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1146,37 +1158,37 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1187,28 +1199,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
@@ -1217,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1235,13 +1247,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1252,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1266,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1.25</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1277,13 +1289,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.333333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1294,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1305,13 +1317,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1319,13 +1331,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1336,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1350,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1361,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1378,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1389,13 +1401,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1403,13 +1415,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1427,16 +1439,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1447,10 +1459,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.166666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.8333333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1461,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>-1.083333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1481,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D4">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1495,16 +1507,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1515,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1529,16 +1541,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.166666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>0.1666666666666665</v>
+        <v>-1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1546,16 +1558,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
-        <v>2.083333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1563,16 +1575,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1580,16 +1592,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.583333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1597,16 +1609,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1617,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9166666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333337</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1634,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D13">
-        <v>-0.4166666666666666</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1658,46 +1670,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1705,122 +1717,122 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>51.2</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>22.4</v>
+        <v>24.5</v>
       </c>
       <c r="D2">
-        <v>13.3</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>11.4</v>
       </c>
       <c r="F2">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="G2">
+        <v>2.9</v>
+      </c>
+      <c r="H2">
         <v>1.6</v>
       </c>
-      <c r="H2">
-        <v>0.8</v>
-      </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.2</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>22.6</v>
+        <v>23.8</v>
       </c>
       <c r="C3">
-        <v>26.5</v>
+        <v>21.7</v>
       </c>
       <c r="D3">
         <v>18.5</v>
       </c>
       <c r="E3">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="F3">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="G3">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
       <c r="C4">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="D4">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1829,95 +1841,95 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>90</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7.8</v>
+      </c>
+      <c r="C5">
+        <v>10.8</v>
+      </c>
+      <c r="D5">
+        <v>15.2</v>
+      </c>
+      <c r="E5">
+        <v>18.9</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>12.9</v>
+      </c>
+      <c r="H5">
+        <v>8.6</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2.4</v>
-      </c>
-      <c r="C5">
-        <v>9.6</v>
-      </c>
-      <c r="D5">
-        <v>12.2</v>
-      </c>
-      <c r="E5">
-        <v>17.6</v>
-      </c>
-      <c r="F5">
-        <v>16.5</v>
-      </c>
-      <c r="G5">
-        <v>15.2</v>
-      </c>
-      <c r="H5">
-        <v>10.6</v>
-      </c>
-      <c r="I5">
-        <v>7.8</v>
-      </c>
       <c r="J5">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>73.5</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>12.7</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>13.9</v>
       </c>
       <c r="E6">
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="G6">
-        <v>14.5</v>
+        <v>11.3</v>
       </c>
       <c r="H6">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="I6">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="J6">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>64</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1925,43 +1937,43 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="E7">
-        <v>11.8</v>
+        <v>9.9</v>
       </c>
       <c r="F7">
-        <v>13.8</v>
+        <v>14.7</v>
       </c>
       <c r="G7">
-        <v>14.1</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>13.9</v>
       </c>
       <c r="J7">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="K7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>56.7</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1969,175 +1981,175 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>10.3</v>
+        <v>3.5</v>
       </c>
       <c r="E8">
-        <v>12.7</v>
+        <v>6.9</v>
       </c>
       <c r="F8">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="G8">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="I8">
-        <v>14.3</v>
+        <v>16.9</v>
       </c>
       <c r="J8">
-        <v>7.2</v>
+        <v>12.6</v>
       </c>
       <c r="K8">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
-        <v>55.6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="E9">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="H9">
-        <v>13.7</v>
+        <v>17.5</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="K9">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="L9">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="M9">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>27.9</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="F10">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="G10">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H10">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I10">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="K10">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="L10">
-        <v>16.9</v>
+        <v>17.7</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="N10">
-        <v>18.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="H11">
-        <v>9.9</v>
+        <v>5.6</v>
       </c>
       <c r="I11">
-        <v>14.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="K11">
-        <v>17.5</v>
+        <v>21.9</v>
       </c>
       <c r="L11">
-        <v>17.8</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>6.4</v>
+        <v>16.3</v>
       </c>
       <c r="N11">
-        <v>15.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2148,40 +2160,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
         <v>2.7</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="I12">
-        <v>8.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="J12">
-        <v>14.1</v>
+        <v>19.4</v>
       </c>
       <c r="K12">
-        <v>21.1</v>
+        <v>25.8</v>
       </c>
       <c r="L12">
-        <v>26.4</v>
+        <v>22.4</v>
       </c>
       <c r="M12">
-        <v>17.7</v>
+        <v>6.8</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2198,34 +2210,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
+        <v>0.7</v>
+      </c>
+      <c r="I13">
         <v>1.5</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="K13">
-        <v>10.1</v>
+        <v>7.8</v>
       </c>
       <c r="L13">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="M13">
-        <v>60.9</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="N13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2243,28 +2255,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2272,129 +2284,129 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>126.38</v>
+        <v>126.872</v>
       </c>
       <c r="E2">
-        <v>505.52</v>
+        <v>634.36</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>120.465</v>
+        <v>123.912</v>
       </c>
       <c r="E3">
-        <v>481.8599999999999</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="F3">
-        <v>97.7</v>
+        <v>96.3</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>125.38</v>
+        <v>120.4</v>
       </c>
       <c r="E4">
-        <v>501.52</v>
+        <v>602</v>
       </c>
       <c r="F4">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>113.415</v>
+        <v>112.276</v>
       </c>
       <c r="E5">
-        <v>453.66</v>
+        <v>561.38</v>
       </c>
       <c r="F5">
-        <v>84.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>109.97</v>
+        <v>114.288</v>
       </c>
       <c r="E6">
-        <v>439.88</v>
+        <v>571.4399999999999</v>
       </c>
       <c r="F6">
-        <v>77.10000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2405,149 +2417,149 @@
         <v>45</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>116.115</v>
+        <v>113.152</v>
       </c>
       <c r="E7">
-        <v>464.46</v>
+        <v>565.76</v>
       </c>
       <c r="F7">
-        <v>71.2</v>
+        <v>70.8</v>
       </c>
       <c r="G7" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>122.335</v>
+        <v>113.672</v>
       </c>
       <c r="E8">
-        <v>489.34</v>
+        <v>568.3599999999999</v>
       </c>
       <c r="F8">
-        <v>68.60000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>118.36</v>
+        <v>120.952</v>
       </c>
       <c r="E9">
-        <v>473.4399999999999</v>
+        <v>604.76</v>
       </c>
       <c r="F9">
-        <v>41.6</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>105.55</v>
+        <v>117.052</v>
       </c>
       <c r="E10">
-        <v>422.1999999999999</v>
+        <v>585.26</v>
       </c>
       <c r="F10">
-        <v>26.9</v>
+        <v>21.2</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>108.67</v>
+        <v>101.836</v>
       </c>
       <c r="E11">
-        <v>434.6799999999999</v>
+        <v>509.18</v>
       </c>
       <c r="F11">
-        <v>25.1</v>
+        <v>13.1</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>100.815</v>
+        <v>102.144</v>
       </c>
       <c r="E12">
-        <v>403.26</v>
+        <v>510.7199999999999</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>65</v>
@@ -2558,22 +2570,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>88.88499999999999</v>
+        <v>90.19199999999999</v>
       </c>
       <c r="E13">
-        <v>355.54</v>
+        <v>450.96</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2594,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>67</v>
@@ -2603,7 +2615,7 @@
         <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>69</v>
@@ -2620,7 +2632,7 @@
         <v>70</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2640,10 +2652,10 @@
         <v>71</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -2660,10 +2672,10 @@
         <v>72</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
@@ -2680,10 +2692,10 @@
         <v>73</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>85</v>
@@ -2694,13 +2706,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2714,13 +2726,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2734,16 +2746,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2754,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2774,19 +2786,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2794,19 +2806,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
       <c r="D11">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2820,13 +2832,13 @@
         <v>80</v>
       </c>
       <c r="D12">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2840,13 +2852,13 @@
         <v>81</v>
       </c>
       <c r="D13">
-        <v>-24</v>
+        <v>-31</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2856,30 +2868,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2895,11 +2910,14 @@
       <c r="E2">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2915,11 +2933,14 @@
       <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2935,11 +2956,14 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2955,131 +2979,152 @@
       <c r="E5">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>-3</v>
       </c>
-      <c r="C6">
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
+      <c r="B11">
         <v>-8</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-8</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-10</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-7</v>
       </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="D11">
-        <v>-11</v>
-      </c>
-      <c r="E11">
-        <v>-11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3095,11 +3140,14 @@
       <c r="E12">
         <v>-23</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>-29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3115,8 +3163,11 @@
       <c r="E13">
         <v>-24</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
+      <c r="F13">
+        <v>-31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3177,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3134,25 +3185,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3186,25 +3237,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3212,25 +3263,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3238,25 +3289,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3264,25 +3315,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F6">
+        <v>-29</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3290,24 +3341,128 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="113">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -134,6 +135,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -170,25 +189,28 @@
     <t>0-5</t>
   </si>
   <si>
-    <t>9.7-4.2-0.1</t>
+    <t>9.8-4.1-0.1</t>
   </si>
   <si>
     <t>9.3-4.7-0.1</t>
   </si>
   <si>
-    <t>9.2-4.7-0.1</t>
+    <t>9.3-4.6-0.1</t>
   </si>
   <si>
     <t>8.5-5.4-0.1</t>
   </si>
   <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
     <t>7.2-6.7-0.1</t>
   </si>
   <si>
-    <t>6.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.6-0.1</t>
+    <t>6.7-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
   </si>
   <si>
     <t>5.0-8.9-0.1</t>
@@ -197,10 +219,10 @@
     <t>5.2-8.7-0.1</t>
   </si>
   <si>
-    <t>4.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>3.3-10.6-0.1</t>
+    <t>4.8-9.2-0.1</t>
+  </si>
+  <si>
+    <t>3.3-10.7-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -1717,131 +1739,131 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>38.4</v>
       </c>
       <c r="C2">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E2">
-        <v>11.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F2">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
         <v>1.6</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>23.8</v>
+        <v>19.8</v>
       </c>
       <c r="C3">
-        <v>21.7</v>
+        <v>23.5</v>
       </c>
       <c r="D3">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
       <c r="E3">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="F3">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="G3">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="H3">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>2.2</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92.2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>19.7</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H4">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.3</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1849,43 +1871,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="C5">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="D5">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E5">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J5">
         <v>3.2</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>81.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1893,43 +1915,43 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="C6">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="D6">
         <v>13.9</v>
       </c>
       <c r="E6">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F6">
-        <v>16.5</v>
+        <v>14.2</v>
       </c>
       <c r="G6">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="I6">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>80.2</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1937,131 +1959,131 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="E7">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="F7">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="H7">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="J7">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>55.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="E8">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F8">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="G8">
-        <v>15.5</v>
+        <v>12.7</v>
       </c>
       <c r="H8">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="I8">
-        <v>16.9</v>
+        <v>14.7</v>
       </c>
       <c r="J8">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="K8">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="M8">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.4</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>5.6</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="G9">
-        <v>14.4</v>
+        <v>12.7</v>
       </c>
       <c r="H9">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="I9">
-        <v>16.1</v>
+        <v>18.3</v>
       </c>
       <c r="J9">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="L9">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M9">
         <v>1.3</v>
       </c>
       <c r="N9">
-        <v>38.5</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2072,128 +2094,128 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G10">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="J10">
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="K10">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="L10">
-        <v>17.7</v>
+        <v>18.1</v>
       </c>
       <c r="M10">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N10">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F11">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H11">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I11">
-        <v>8.699999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="J11">
-        <v>13.5</v>
+        <v>18.2</v>
       </c>
       <c r="K11">
-        <v>21.9</v>
+        <v>25.7</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>22.1</v>
       </c>
       <c r="M11">
-        <v>16.3</v>
+        <v>7.4</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G12">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="I12">
-        <v>12.5</v>
+        <v>10.3</v>
       </c>
       <c r="J12">
-        <v>19.4</v>
+        <v>16</v>
       </c>
       <c r="K12">
-        <v>25.8</v>
+        <v>19.7</v>
       </c>
       <c r="L12">
-        <v>22.4</v>
+        <v>25.2</v>
       </c>
       <c r="M12">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2210,34 +2232,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0.3</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J13">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K13">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L13">
         <v>20.5</v>
       </c>
       <c r="M13">
-        <v>65.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2246,6 +2268,315 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>93.2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="G3">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="C4">
+        <v>98.3</v>
+      </c>
+      <c r="D4">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E4">
+        <v>93.8</v>
+      </c>
+      <c r="F4">
+        <v>94.8</v>
+      </c>
+      <c r="G4">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>57.4</v>
+      </c>
+      <c r="C5">
+        <v>25.2</v>
+      </c>
+      <c r="D5">
+        <v>39.6</v>
+      </c>
+      <c r="E5">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F5">
+        <v>87.8</v>
+      </c>
+      <c r="G5">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>99.5</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>97.7</v>
+      </c>
+      <c r="F6">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G6">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5.5</v>
+      </c>
+      <c r="C7">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D7">
+        <v>71.8</v>
+      </c>
+      <c r="E7">
+        <v>71.8</v>
+      </c>
+      <c r="F7">
+        <v>72.3</v>
+      </c>
+      <c r="G7">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="C8">
+        <v>12.2</v>
+      </c>
+      <c r="D8">
+        <v>52.3</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="G8">
+        <v>55.50000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>73.3</v>
+      </c>
+      <c r="C9">
+        <v>99.7</v>
+      </c>
+      <c r="D9">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="E9">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F9">
+        <v>54.2</v>
+      </c>
+      <c r="G9">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>70.7</v>
+      </c>
+      <c r="C10">
+        <v>79.3</v>
+      </c>
+      <c r="D10">
+        <v>52.7</v>
+      </c>
+      <c r="E10">
+        <v>39.3</v>
+      </c>
+      <c r="F10">
+        <v>23.4</v>
+      </c>
+      <c r="G10">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>40.1</v>
+      </c>
+      <c r="C11">
+        <v>6.9</v>
+      </c>
+      <c r="D11">
+        <v>2.8</v>
+      </c>
+      <c r="E11">
+        <v>10.5</v>
+      </c>
+      <c r="F11">
+        <v>16.2</v>
+      </c>
+      <c r="G11">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3.7</v>
+      </c>
+      <c r="D12">
+        <v>4.7</v>
+      </c>
+      <c r="E12">
+        <v>26.8</v>
+      </c>
+      <c r="F12">
+        <v>13.1</v>
+      </c>
+      <c r="G12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2.3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5.7</v>
+      </c>
+      <c r="E13">
+        <v>1.6</v>
+      </c>
+      <c r="F13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2258,25 +2589,25 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2284,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -2296,65 +2627,65 @@
         <v>634.36</v>
       </c>
       <c r="F2">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
       <c r="D3">
-        <v>123.912</v>
+        <v>120.4</v>
       </c>
       <c r="E3">
-        <v>619.5599999999999</v>
+        <v>602</v>
       </c>
       <c r="F3">
-        <v>96.3</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0.8</v>
       </c>
       <c r="D4">
-        <v>120.4</v>
+        <v>123.912</v>
       </c>
       <c r="E4">
-        <v>602</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="F4">
-        <v>95.5</v>
+        <v>96.2</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2362,7 +2693,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -2374,13 +2705,13 @@
         <v>561.38</v>
       </c>
       <c r="F5">
-        <v>90.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2388,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -2400,13 +2731,13 @@
         <v>571.4399999999999</v>
       </c>
       <c r="F6">
-        <v>89.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2414,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -2426,13 +2757,13 @@
         <v>565.76</v>
       </c>
       <c r="F7">
-        <v>70.8</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2440,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2452,13 +2783,13 @@
         <v>568.3599999999999</v>
       </c>
       <c r="F8">
-        <v>56.00000000000001</v>
+        <v>57.4</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2466,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -2478,13 +2809,13 @@
         <v>604.76</v>
       </c>
       <c r="F9">
-        <v>55.50000000000001</v>
+        <v>53.7</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2492,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2504,13 +2835,13 @@
         <v>585.26</v>
       </c>
       <c r="F10">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2518,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -2530,13 +2861,13 @@
         <v>509.18</v>
       </c>
       <c r="F11">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2544,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -2556,13 +2887,13 @@
         <v>510.7199999999999</v>
       </c>
       <c r="F12">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2570,7 +2901,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -2582,13 +2913,13 @@
         <v>450.96</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2609,16 +2940,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2629,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -2638,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2649,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -2658,7 +2989,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2669,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -2678,7 +3009,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2689,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -2698,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2709,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2718,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2729,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2738,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2749,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2758,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2769,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2778,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2789,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>-8</v>
@@ -2798,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2809,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>-15</v>
@@ -2818,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2829,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>-29</v>
@@ -2838,7 +3169,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2849,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>-31</v>
@@ -2858,7 +3189,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2876,22 +3207,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2914,7 +3245,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2937,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2960,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2983,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3006,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3029,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3052,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3075,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3098,7 +3429,7 @@
         <v>-8</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3121,7 +3452,7 @@
         <v>-15</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3144,7 +3475,7 @@
         <v>-29</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3167,7 +3498,7 @@
         <v>-31</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -3185,25 +3516,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="112">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -60,22 +60,25 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +156,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -174,55 +180,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>9.3-4.7-0.1</t>
-  </si>
-  <si>
-    <t>9.3-4.6-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.2-0.1</t>
-  </si>
-  <si>
-    <t>3.3-10.7-0.1</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>9.7-4.2-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.0-6.0-0.1</t>
+  </si>
+  <si>
+    <t>7.6-6.3-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>4.2-9.7-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -243,7 +246,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -264,15 +267,15 @@
     <t>Ted Wallach</t>
   </si>
   <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
@@ -285,48 +288,39 @@
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -340,6 +334,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -820,19 +817,19 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -855,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -870,19 +867,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -902,28 +899,28 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -943,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -975,37 +972,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1037,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1057,37 +1054,37 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1095,40 +1092,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1148,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1160,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1169,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1189,28 +1186,28 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1221,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1230,28 +1227,28 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1269,13 +1266,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1286,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1297,13 +1294,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1311,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1.833333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1325,13 +1322,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.916666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1342,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1356,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1370,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2.833333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1398,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1409,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1423,13 +1420,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3.333333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1437,13 +1434,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1461,16 +1458,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1478,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333348</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1495,13 +1492,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1515,13 +1512,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3.083333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D4">
-        <v>2.083333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1529,16 +1526,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1546,16 +1543,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2.916666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.083333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1563,13 +1560,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1583,13 +1580,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1597,16 +1594,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1617,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2.416666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D10">
-        <v>0.4166666666666665</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1634,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.583333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.5833333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1648,13 +1645,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.6666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1665,16 +1662,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1692,81 +1689,81 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>38.4</v>
+        <v>33.7</v>
       </c>
       <c r="C2">
-        <v>24.7</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="E2">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="I2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1775,86 +1772,86 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>19.8</v>
+        <v>25.4</v>
       </c>
       <c r="C3">
-        <v>23.5</v>
+        <v>21.1</v>
       </c>
       <c r="D3">
-        <v>17.7</v>
+        <v>21.2</v>
       </c>
       <c r="E3">
         <v>13.7</v>
       </c>
       <c r="F3">
-        <v>10.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G3">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>21.6</v>
       </c>
       <c r="C4">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="D4">
-        <v>19.8</v>
+        <v>15.9</v>
       </c>
       <c r="E4">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="F4">
-        <v>7.7</v>
+        <v>11.9</v>
       </c>
       <c r="G4">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>0.2</v>
@@ -1863,227 +1860,227 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.8</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>6.5</v>
+        <v>11.2</v>
       </c>
       <c r="C5">
-        <v>10.6</v>
+        <v>13.5</v>
       </c>
       <c r="D5">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>16.2</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="G5">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="J5">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>80.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="C6">
-        <v>13.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6">
-        <v>13.9</v>
+        <v>11.6</v>
       </c>
       <c r="E6">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="F6">
-        <v>14.2</v>
+        <v>17.2</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>15.8</v>
       </c>
       <c r="H6">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="I6">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
         <v>0.4</v>
       </c>
-      <c r="M6">
-        <v>0.2</v>
-      </c>
       <c r="N6">
-        <v>78.40000000000001</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E7">
-        <v>10.4</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="G7">
-        <v>17.6</v>
+        <v>14.4</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="I7">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>56.4</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="E8">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>11.8</v>
+        <v>10.7</v>
       </c>
       <c r="G8">
-        <v>12.7</v>
+        <v>15.9</v>
       </c>
       <c r="H8">
-        <v>16.9</v>
+        <v>14.9</v>
       </c>
       <c r="I8">
-        <v>14.7</v>
+        <v>16.1</v>
       </c>
       <c r="J8">
-        <v>13.5</v>
+        <v>10.6</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="L8">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N8">
-        <v>40.5</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>11.4</v>
+        <v>6.5</v>
       </c>
       <c r="G9">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>17.9</v>
+        <v>14.8</v>
       </c>
       <c r="I9">
-        <v>18.3</v>
+        <v>17.5</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K9">
-        <v>9.6</v>
+        <v>13.3</v>
       </c>
       <c r="L9">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
-        <v>35.8</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2091,48 +2088,48 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
         <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="G10">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>18.6</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
         <v>6.8</v>
       </c>
-      <c r="H10">
-        <v>10.3</v>
-      </c>
-      <c r="I10">
-        <v>13.6</v>
-      </c>
-      <c r="J10">
-        <v>19.2</v>
-      </c>
-      <c r="K10">
-        <v>18.4</v>
-      </c>
-      <c r="L10">
-        <v>18.1</v>
-      </c>
-      <c r="M10">
-        <v>8.699999999999999</v>
-      </c>
       <c r="N10">
-        <v>11.7</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2141,37 +2138,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="G11">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>12.8</v>
+        <v>7.7</v>
       </c>
       <c r="J11">
-        <v>18.2</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>25.7</v>
+        <v>19.2</v>
       </c>
       <c r="L11">
-        <v>22.1</v>
+        <v>23.6</v>
       </c>
       <c r="M11">
-        <v>7.4</v>
+        <v>28.3</v>
       </c>
       <c r="N11">
-        <v>7.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2185,42 +2182,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="I12">
-        <v>10.3</v>
+        <v>5.6</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>10.1</v>
       </c>
       <c r="K12">
-        <v>19.7</v>
+        <v>16.6</v>
       </c>
       <c r="L12">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>36.1</v>
       </c>
       <c r="N12">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2229,37 +2226,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="I13">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="K13">
-        <v>8.699999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="L13">
-        <v>20.5</v>
+        <v>26.4</v>
       </c>
       <c r="M13">
-        <v>64.3</v>
+        <v>22.5</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2269,306 +2266,345 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="C2">
+        <v>99.8</v>
+      </c>
+      <c r="D2">
+        <v>99.8</v>
+      </c>
+      <c r="E2">
+        <v>85.2</v>
+      </c>
+      <c r="F2">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="C3">
+        <v>24.5</v>
+      </c>
+      <c r="D3">
+        <v>36.2</v>
+      </c>
+      <c r="E3">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>86.5</v>
+      </c>
+      <c r="G3">
+        <v>97.7</v>
+      </c>
+      <c r="H3">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C4">
+        <v>99.8</v>
+      </c>
+      <c r="D4">
+        <v>99.5</v>
+      </c>
+      <c r="E4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F4">
+        <v>98.7</v>
+      </c>
+      <c r="G4">
+        <v>95.8</v>
+      </c>
+      <c r="H4">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="C5">
+        <v>97.7</v>
+      </c>
+      <c r="D5">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="E5">
+        <v>92.5</v>
+      </c>
+      <c r="F5">
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>89.3</v>
+      </c>
+      <c r="H5">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>74.8</v>
+      </c>
+      <c r="D6">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="E6">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="F6">
+        <v>72.7</v>
+      </c>
+      <c r="G6">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="H6">
+        <v>79.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>99.8</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F7">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G7">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="H7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C8">
         <v>99.59999999999999</v>
       </c>
-      <c r="D2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-      <c r="G2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>93.2</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="G3">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="C4">
-        <v>98.3</v>
-      </c>
-      <c r="D4">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E4">
-        <v>93.8</v>
-      </c>
-      <c r="F4">
-        <v>94.8</v>
-      </c>
-      <c r="G4">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>57.4</v>
-      </c>
-      <c r="C5">
-        <v>25.2</v>
-      </c>
-      <c r="D5">
-        <v>39.6</v>
-      </c>
-      <c r="E5">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F5">
-        <v>87.8</v>
-      </c>
-      <c r="G5">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>99.5</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>97.7</v>
-      </c>
-      <c r="F6">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>87.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>5.5</v>
-      </c>
-      <c r="C7">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D7">
-        <v>71.8</v>
-      </c>
-      <c r="E7">
-        <v>71.8</v>
-      </c>
-      <c r="F7">
-        <v>72.3</v>
-      </c>
-      <c r="G7">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="D8">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E8">
+        <v>75.5</v>
+      </c>
+      <c r="F8">
+        <v>54.8</v>
+      </c>
+      <c r="G8">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="H8">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>12.2</v>
-      </c>
-      <c r="D8">
-        <v>52.3</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="G8">
-        <v>55.50000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B9">
-        <v>73.3</v>
+        <v>58.5</v>
       </c>
       <c r="C9">
-        <v>99.7</v>
+        <v>13.4</v>
       </c>
       <c r="D9">
-        <v>94.69999999999999</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>73.90000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="F9">
-        <v>54.2</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G9">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>41.7</v>
+      </c>
+      <c r="H9">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>70.7</v>
+        <v>70.5</v>
       </c>
       <c r="C10">
         <v>79.3</v>
       </c>
       <c r="D10">
-        <v>52.7</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="F10">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="G10">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>31.2</v>
+      </c>
+      <c r="H10">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>40.1</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="D11">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E11">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F11">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="G11">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>7.3</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.6</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>8.9</v>
+      </c>
+      <c r="H12">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>3.7</v>
-      </c>
-      <c r="D12">
-        <v>4.7</v>
-      </c>
-      <c r="E12">
-        <v>26.8</v>
-      </c>
-      <c r="F12">
-        <v>13.1</v>
-      </c>
-      <c r="G12">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>2.3</v>
-      </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="E13">
-        <v>1.6</v>
+        <v>25.1</v>
       </c>
       <c r="F13">
-        <v>0.8999999999999999</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>6.2</v>
+      </c>
+      <c r="H13">
+        <v>6.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2586,181 +2622,181 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>126.872</v>
+        <v>121.2</v>
       </c>
       <c r="E2">
-        <v>634.36</v>
+        <v>727.2</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>120.4</v>
+        <v>117.2866666666667</v>
       </c>
       <c r="E3">
-        <v>602</v>
+        <v>703.72</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>123.912</v>
+        <v>123.6733333333333</v>
       </c>
       <c r="E4">
-        <v>619.5599999999999</v>
+        <v>742.04</v>
       </c>
       <c r="F4">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>112.276</v>
+        <v>118.8</v>
       </c>
       <c r="E5">
-        <v>561.38</v>
+        <v>712.8</v>
       </c>
       <c r="F5">
-        <v>89.09999999999999</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>114.288</v>
+        <v>112.9633333333333</v>
       </c>
       <c r="E6">
-        <v>571.4399999999999</v>
+        <v>677.78</v>
       </c>
       <c r="F6">
-        <v>88.5</v>
+        <v>86.5</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>113.152</v>
+        <v>108.3066666666667</v>
       </c>
       <c r="E7">
-        <v>565.76</v>
+        <v>649.84</v>
       </c>
       <c r="F7">
-        <v>70.39999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
         <v>70</v>
@@ -2768,54 +2804,54 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>113.672</v>
+        <v>121.65</v>
       </c>
       <c r="E8">
-        <v>568.3599999999999</v>
+        <v>729.9</v>
       </c>
       <c r="F8">
-        <v>57.4</v>
+        <v>60.6</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>120.952</v>
+        <v>113.54</v>
       </c>
       <c r="E9">
-        <v>604.76</v>
+        <v>681.24</v>
       </c>
       <c r="F9">
-        <v>53.7</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2823,22 +2859,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D10">
-        <v>117.052</v>
+        <v>117.01</v>
       </c>
       <c r="E10">
-        <v>585.26</v>
+        <v>702.0599999999999</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>32.6</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -2846,80 +2882,80 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>101.836</v>
+        <v>97.12666666666667</v>
       </c>
       <c r="E11">
-        <v>509.18</v>
+        <v>582.76</v>
       </c>
       <c r="F11">
-        <v>13.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>102.144</v>
+        <v>101.0266666666667</v>
       </c>
       <c r="E12">
-        <v>510.7199999999999</v>
+        <v>606.16</v>
       </c>
       <c r="F12">
-        <v>11.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13">
-        <v>90.19199999999999</v>
+        <v>101.6466666666666</v>
       </c>
       <c r="E13">
-        <v>450.96</v>
+        <v>609.88</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2937,19 +2973,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2960,16 +2996,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2980,16 +3016,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3000,16 +3036,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3017,19 +3053,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3037,19 +3073,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3057,19 +3093,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3080,16 +3116,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3100,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3120,16 +3156,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3140,16 +3176,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>-15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3157,19 +3193,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>-29</v>
+        <v>-25</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3177,19 +3213,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>-31</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3199,33 +3235,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3244,11 +3283,14 @@
       <c r="F2">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3267,11 +3309,14 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3290,80 +3335,92 @@
       <c r="F4">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3382,11 +3439,14 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3405,11 +3465,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3428,11 +3491,14 @@
       <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3451,54 +3517,63 @@
       <c r="F11">
         <v>-15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>-15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <v>-24</v>
+      </c>
+      <c r="F12">
+        <v>-31</v>
+      </c>
+      <c r="G12">
+        <v>-25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-13</v>
+      </c>
+      <c r="D13">
+        <v>-23</v>
+      </c>
+      <c r="E13">
+        <v>-23</v>
+      </c>
+      <c r="F13">
+        <v>-29</v>
+      </c>
+      <c r="G13">
+        <v>-31</v>
+      </c>
+      <c r="H13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-13</v>
-      </c>
-      <c r="D12">
-        <v>-23</v>
-      </c>
-      <c r="E12">
-        <v>-23</v>
-      </c>
-      <c r="F12">
-        <v>-29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-8</v>
-      </c>
-      <c r="C13">
-        <v>-12</v>
-      </c>
-      <c r="D13">
-        <v>-13</v>
-      </c>
-      <c r="E13">
-        <v>-24</v>
-      </c>
-      <c r="F13">
-        <v>-31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3508,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3516,25 +3591,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3542,25 +3617,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3568,25 +3643,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3597,22 +3672,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3620,25 +3695,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-13</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3646,25 +3721,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-15</v>
-      </c>
       <c r="F6">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3698,25 +3773,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3724,25 +3799,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3750,25 +3825,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3776,25 +3851,103 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C13" t="s">
         <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>-2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="116">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -60,25 +60,28 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +162,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -180,52 +186,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>9.7-4.2-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.0-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.6-6.3-0.1</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>9.8-4.2-0.1</t>
+  </si>
+  <si>
+    <t>9.4-4.6-0.1</t>
+  </si>
+  <si>
+    <t>9.0-4.9-0.1</t>
+  </si>
+  <si>
+    <t>8.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.5-0.1</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>5.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7-0.1</t>
+    <t>5.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.4-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.5-0.1</t>
+  </si>
+  <si>
+    <t>3.7-10.2</t>
   </si>
   <si>
     <t>10-4</t>
@@ -234,21 +246,18 @@
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -264,13 +273,16 @@
     <t>Zach Wallach</t>
   </si>
   <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
     <t>Ted Wallach</t>
   </si>
   <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
+    <t>Noah Wallach</t>
   </si>
   <si>
     <t>Gabe Musty</t>
@@ -279,46 +291,43 @@
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -337,6 +346,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -770,34 +782,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -811,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -823,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -835,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -890,37 +902,37 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -934,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -946,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -958,10 +970,10 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -975,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -987,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -999,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -1016,10 +1028,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1028,22 +1040,22 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1081,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -1098,34 +1110,34 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1133,40 +1145,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1180,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1192,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1204,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1221,34 +1233,34 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1266,13 +1278,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1280,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1.916666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1297,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1308,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1322,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1336,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1353,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1364,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1378,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1395,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1406,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1420,10 +1432,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1437,10 +1449,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1458,16 +1470,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1475,13 +1487,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D2">
-        <v>-0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1492,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1509,16 +1521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D4">
-        <v>1.833333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1529,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1543,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.166666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D6">
-        <v>2.166666666666667</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1563,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1577,16 +1589,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1594,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1611,13 +1623,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.9166666666666665</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1628,16 +1640,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.8333333333333333</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1645,16 +1657,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.3333333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1662,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1689,81 +1701,81 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>33.7</v>
+        <v>31.5</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>24.7</v>
       </c>
       <c r="D2">
-        <v>16.9</v>
+        <v>19.4</v>
       </c>
       <c r="E2">
-        <v>8.699999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="F2">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1772,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1780,31 +1792,31 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>25.4</v>
+        <v>31.4</v>
       </c>
       <c r="C3">
-        <v>21.1</v>
+        <v>25.7</v>
       </c>
       <c r="D3">
-        <v>21.2</v>
+        <v>17.5</v>
       </c>
       <c r="E3">
-        <v>13.7</v>
+        <v>11.1</v>
       </c>
       <c r="F3">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="G3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>0.1</v>
@@ -1816,51 +1828,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>21.6</v>
+        <v>15.6</v>
       </c>
       <c r="C4">
-        <v>19.7</v>
+        <v>22.1</v>
       </c>
       <c r="D4">
-        <v>15.9</v>
+        <v>22.1</v>
       </c>
       <c r="E4">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="F4">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
         <v>0.1</v>
-      </c>
-      <c r="L4">
-        <v>0.2</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1868,43 +1880,43 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>11.2</v>
+        <v>16.2</v>
       </c>
       <c r="C5">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="D5">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E5">
-        <v>16.2</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>14.7</v>
+        <v>12.5</v>
       </c>
       <c r="G5">
-        <v>12.2</v>
+        <v>8.5</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="J5">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>82.59999999999999</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1912,131 +1924,131 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
-        <v>11.6</v>
+        <v>6.9</v>
       </c>
       <c r="E6">
+        <v>12.2</v>
+      </c>
+      <c r="F6">
+        <v>18.3</v>
+      </c>
+      <c r="G6">
+        <v>17.8</v>
+      </c>
+      <c r="H6">
         <v>16.1</v>
       </c>
-      <c r="F6">
-        <v>17.2</v>
-      </c>
-      <c r="G6">
-        <v>15.8</v>
-      </c>
-      <c r="H6">
-        <v>12.6</v>
-      </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>10.9</v>
       </c>
       <c r="J6">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>73.90000000000001</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>13.6</v>
+        <v>16.1</v>
       </c>
       <c r="G7">
-        <v>14.4</v>
+        <v>17.5</v>
       </c>
       <c r="H7">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>10.5</v>
+        <v>13.1</v>
       </c>
       <c r="J7">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="D8">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="H8">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
       <c r="I8">
-        <v>16.1</v>
+        <v>12.3</v>
       </c>
       <c r="J8">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="L8">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="N8">
-        <v>45.7</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2047,40 +2059,40 @@
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E9">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="F9">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>15.1</v>
       </c>
       <c r="H9">
-        <v>14.8</v>
+        <v>16.4</v>
       </c>
       <c r="I9">
-        <v>17.5</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="K9">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="N9">
-        <v>22.2</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2091,45 +2103,45 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="G10">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>18.6</v>
+        <v>20.5</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>16.6</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="M10">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>19.6</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2138,42 +2150,42 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.2</v>
       </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
       <c r="F11">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>4.2</v>
-      </c>
       <c r="I11">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>19.2</v>
+        <v>24.9</v>
       </c>
       <c r="L11">
-        <v>23.6</v>
+        <v>32.2</v>
       </c>
       <c r="M11">
-        <v>28.3</v>
+        <v>18.5</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2182,42 +2194,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H12">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="J12">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="K12">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="L12">
-        <v>24.5</v>
+        <v>28.7</v>
       </c>
       <c r="M12">
-        <v>36.1</v>
+        <v>31</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2226,37 +2238,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
         <v>0.9</v>
       </c>
-      <c r="G13">
-        <v>1.4</v>
-      </c>
       <c r="H13">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="J13">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="K13">
-        <v>21.9</v>
+        <v>18</v>
       </c>
       <c r="L13">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="M13">
-        <v>22.5</v>
+        <v>45.4</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2266,322 +2278,358 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>57.9</v>
+      </c>
+      <c r="C2">
+        <v>23.9</v>
+      </c>
+      <c r="D2">
+        <v>37.8</v>
+      </c>
+      <c r="E2">
+        <v>77.2</v>
+      </c>
+      <c r="F2">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>97.2</v>
+      </c>
+      <c r="H2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>99.8</v>
+      </c>
+      <c r="D3">
+        <v>99.3</v>
+      </c>
+      <c r="E3">
+        <v>99.5</v>
+      </c>
+      <c r="F3">
+        <v>98.3</v>
+      </c>
+      <c r="G3">
+        <v>95.3</v>
+      </c>
+      <c r="H3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="C2">
-        <v>99.8</v>
-      </c>
-      <c r="D2">
-        <v>99.8</v>
-      </c>
-      <c r="E2">
-        <v>85.2</v>
-      </c>
-      <c r="F2">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="G2">
+      <c r="B4">
+        <v>93.5</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>99.7</v>
+      </c>
+      <c r="E4">
+        <v>84.8</v>
+      </c>
+      <c r="F4">
+        <v>95.7</v>
+      </c>
+      <c r="G4">
         <v>98.59999999999999</v>
       </c>
-      <c r="H2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>57.49999999999999</v>
-      </c>
-      <c r="C3">
-        <v>24.5</v>
-      </c>
-      <c r="D3">
-        <v>36.2</v>
-      </c>
-      <c r="E3">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>86.5</v>
-      </c>
-      <c r="G3">
-        <v>97.7</v>
-      </c>
-      <c r="H3">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>99.8</v>
-      </c>
-      <c r="D4">
-        <v>99.5</v>
-      </c>
-      <c r="E4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F4">
-        <v>98.7</v>
-      </c>
-      <c r="G4">
-        <v>95.8</v>
-      </c>
       <c r="H4">
-        <v>97.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>95.89999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C5">
-        <v>97.7</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>78.10000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E5">
-        <v>92.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G5">
-        <v>89.3</v>
+        <v>88.7</v>
       </c>
       <c r="H5">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="I5">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.399999999999999</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C6">
-        <v>74.8</v>
+        <v>73.7</v>
       </c>
       <c r="D6">
-        <v>71.39999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E6">
-        <v>73.59999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="F6">
+        <v>72.8</v>
+      </c>
+      <c r="G6">
+        <v>84</v>
+      </c>
+      <c r="H6">
+        <v>73.7</v>
+      </c>
+      <c r="I6">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>72.7</v>
       </c>
-      <c r="G6">
-        <v>83.39999999999999</v>
-      </c>
-      <c r="H6">
-        <v>79.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="C7">
+        <v>99.5</v>
+      </c>
+      <c r="D7">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="E7">
+        <v>72.3</v>
+      </c>
+      <c r="F7">
+        <v>53.8</v>
+      </c>
+      <c r="G7">
+        <v>68.7</v>
+      </c>
+      <c r="H7">
+        <v>75.3</v>
+      </c>
+      <c r="I7">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>99.8</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F7">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="G7">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="H7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D8">
-        <v>97.09999999999999</v>
-      </c>
       <c r="E8">
-        <v>75.5</v>
+        <v>95.7</v>
       </c>
       <c r="F8">
-        <v>54.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G8">
-        <v>67.80000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="H8">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>61.3</v>
+      </c>
+      <c r="I8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>58.5</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="E9">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="F9">
-        <v>54.40000000000001</v>
+        <v>54.3</v>
       </c>
       <c r="G9">
-        <v>41.7</v>
+        <v>43.9</v>
       </c>
       <c r="H9">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="I9">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>70.5</v>
+        <v>71.8</v>
       </c>
       <c r="C10">
-        <v>79.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D10">
         <v>54</v>
       </c>
       <c r="E10">
-        <v>39.7</v>
+        <v>37.8</v>
       </c>
       <c r="F10">
-        <v>22.9</v>
+        <v>26.3</v>
       </c>
       <c r="G10">
-        <v>31.2</v>
+        <v>29.4</v>
       </c>
       <c r="H10">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>35.5</v>
+      </c>
+      <c r="I10">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>40.8</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="D11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E11">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="F11">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="G11">
-        <v>7.3</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="F12">
         <v>0.6</v>
       </c>
       <c r="G12">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="H12">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2.6</v>
+      </c>
+      <c r="I12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2589,22 +2637,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D13">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="E13">
-        <v>25.1</v>
+        <v>30.3</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>11.1</v>
       </c>
       <c r="G13">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H13">
-        <v>6.600000000000001</v>
+        <v>2.7</v>
+      </c>
+      <c r="I13">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -2622,106 +2673,106 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>121.2</v>
+        <v>117.8257142857143</v>
       </c>
       <c r="E2">
-        <v>727.2</v>
+        <v>824.78</v>
       </c>
       <c r="F2">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>117.2866666666667</v>
+        <v>125.5485714285714</v>
       </c>
       <c r="E3">
-        <v>703.72</v>
+        <v>878.8399999999999</v>
       </c>
       <c r="F3">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>123.6733333333333</v>
+        <v>119.2057142857143</v>
       </c>
       <c r="E4">
-        <v>742.04</v>
+        <v>834.4400000000001</v>
       </c>
       <c r="F4">
         <v>96.7</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2729,25 +2780,25 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>118.8</v>
+        <v>118.9342857142857</v>
       </c>
       <c r="E5">
-        <v>712.8</v>
+        <v>832.54</v>
       </c>
       <c r="F5">
-        <v>90.10000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2755,77 +2806,77 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>112.9633333333333</v>
+        <v>113.7885714285714</v>
       </c>
       <c r="E6">
-        <v>677.78</v>
+        <v>796.52</v>
       </c>
       <c r="F6">
-        <v>86.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>108.3066666666667</v>
+        <v>122.0114285714286</v>
       </c>
       <c r="E7">
-        <v>649.84</v>
+        <v>854.0799999999999</v>
       </c>
       <c r="F7">
-        <v>74.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8">
-        <v>121.65</v>
+        <v>110.3514285714286</v>
       </c>
       <c r="E8">
-        <v>729.9</v>
+        <v>772.4599999999999</v>
       </c>
       <c r="F8">
-        <v>60.6</v>
+        <v>69.5</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2833,25 +2884,25 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>113.54</v>
+        <v>115.5657142857143</v>
       </c>
       <c r="E9">
-        <v>681.24</v>
+        <v>808.9599999999999</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>50.3</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2859,77 +2910,77 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>117.01</v>
+        <v>114.8114285714286</v>
       </c>
       <c r="E10">
-        <v>702.0599999999999</v>
+        <v>803.6799999999999</v>
       </c>
       <c r="F10">
-        <v>32.6</v>
+        <v>29.7</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>97.12666666666667</v>
+        <v>102.7</v>
       </c>
       <c r="E11">
-        <v>582.76</v>
+        <v>718.9</v>
       </c>
       <c r="F11">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>101.0266666666667</v>
+        <v>97.48571428571428</v>
       </c>
       <c r="E12">
-        <v>606.16</v>
+        <v>682.4</v>
       </c>
       <c r="F12">
-        <v>8.699999999999999</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2937,25 +2988,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D13">
-        <v>101.6466666666666</v>
+        <v>100.5628571428571</v>
       </c>
       <c r="E13">
-        <v>609.88</v>
+        <v>703.9399999999998</v>
       </c>
       <c r="F13">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2973,19 +3024,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2996,16 +3047,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3016,16 +3067,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3033,19 +3084,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3053,19 +3104,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3073,19 +3124,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3093,19 +3144,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3113,19 +3164,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3133,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3145,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3156,16 +3207,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3176,16 +3227,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3193,19 +3244,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>-25</v>
+        <v>-29</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3213,19 +3264,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3286,394 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
+      <c r="H11">
+        <v>-25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-13</v>
+      </c>
+      <c r="D12">
+        <v>-23</v>
+      </c>
+      <c r="E12">
+        <v>-23</v>
+      </c>
+      <c r="F12">
+        <v>-29</v>
+      </c>
+      <c r="G12">
+        <v>-31</v>
+      </c>
+      <c r="H12">
+        <v>-29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <v>-12</v>
+      </c>
+      <c r="D13">
+        <v>-13</v>
+      </c>
+      <c r="E13">
+        <v>-24</v>
+      </c>
+      <c r="F13">
+        <v>-31</v>
+      </c>
+      <c r="G13">
+        <v>-25</v>
+      </c>
+      <c r="H13">
+        <v>-30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3243,373 +3681,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-11</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>-15</v>
-      </c>
-      <c r="G11">
-        <v>-15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-8</v>
-      </c>
-      <c r="C12">
-        <v>-12</v>
-      </c>
-      <c r="D12">
-        <v>-13</v>
-      </c>
-      <c r="E12">
-        <v>-24</v>
-      </c>
-      <c r="F12">
-        <v>-31</v>
-      </c>
-      <c r="G12">
-        <v>-25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>-13</v>
-      </c>
-      <c r="D13">
-        <v>-23</v>
-      </c>
-      <c r="E13">
-        <v>-23</v>
-      </c>
-      <c r="F13">
-        <v>-29</v>
-      </c>
-      <c r="G13">
-        <v>-31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3896,58 +3986,6 @@
       </c>
       <c r="H12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>-2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -180,6 +180,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -192,37 +195,34 @@
     <t>5-2</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
     <t>4-3</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
     <t>1-6</t>
   </si>
   <si>
-    <t>9.8-4.2-0.1</t>
-  </si>
-  <si>
-    <t>9.4-4.6-0.1</t>
-  </si>
-  <si>
-    <t>9.0-4.9-0.1</t>
-  </si>
-  <si>
-    <t>8.6-5.3-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.5-0.1</t>
+    <t>9.8-4.1-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.5-0.1</t>
+  </si>
+  <si>
+    <t>9.1-4.8-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.3-0.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
@@ -231,13 +231,13 @@
     <t>5.7-8.2-0.1</t>
   </si>
   <si>
-    <t>4.5-9.4-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.5-0.1</t>
-  </si>
-  <si>
-    <t>3.7-10.2</t>
+    <t>4.6-9.3-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.6-0.1</t>
+  </si>
+  <si>
+    <t>3.8-10.2-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -252,10 +252,10 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
-  </si>
-  <si>
-    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1745,31 +1745,31 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>31.5</v>
       </c>
       <c r="C2">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D2">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E2">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F2">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
         <v>0.3</v>
@@ -1784,39 +1784,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>31.4</v>
+        <v>34.4</v>
       </c>
       <c r="C3">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="D3">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="E3">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F3">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H3">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="I3">
         <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0.1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1836,37 +1836,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>15.6</v>
+        <v>17.7</v>
       </c>
       <c r="C4">
-        <v>22.1</v>
+        <v>20.8</v>
       </c>
       <c r="D4">
-        <v>22.1</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>14.7</v>
+        <v>17.1</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="G4">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
         <v>0.2</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1880,131 +1880,131 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>12.9</v>
+      </c>
+      <c r="C5">
         <v>16.2</v>
       </c>
-      <c r="C5">
-        <v>13.8</v>
-      </c>
       <c r="D5">
-        <v>14.6</v>
+        <v>18.7</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="F5">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="I5">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="J5">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>83.59999999999999</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="D6">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>15.2</v>
       </c>
       <c r="G6">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="H6">
-        <v>16.1</v>
+        <v>16.7</v>
       </c>
       <c r="I6">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="J6">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
-        <v>61.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>10.6</v>
       </c>
       <c r="F7">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="G7">
-        <v>17.5</v>
+        <v>19.2</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="I7">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="J7">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>59.4</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2012,43 +2012,43 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="E8">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>14.9</v>
       </c>
       <c r="G8">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="H8">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="I8">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="K8">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M8">
         <v>0.5</v>
       </c>
       <c r="N8">
-        <v>53.4</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2056,43 +2056,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="E9">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="F9">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="H9">
-        <v>16.4</v>
+        <v>18.4</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="J9">
-        <v>16.8</v>
+        <v>18.4</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L9">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="N9">
-        <v>33.9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2100,43 +2100,43 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
         <v>0.4</v>
       </c>
       <c r="E10">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="F10">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I10">
-        <v>20.5</v>
+        <v>18.1</v>
       </c>
       <c r="J10">
-        <v>23</v>
+        <v>21.8</v>
       </c>
       <c r="K10">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N10">
-        <v>15.9</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2150,37 +2150,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="K11">
-        <v>24.9</v>
+        <v>28.2</v>
       </c>
       <c r="L11">
-        <v>32.2</v>
+        <v>30.5</v>
       </c>
       <c r="M11">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2194,37 +2194,37 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="I12">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="J12">
-        <v>12.3</v>
+        <v>10.4</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="L12">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>33.9</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2238,34 +2238,34 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="K13">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="L13">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="M13">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="N13">
         <v>1.1</v>
@@ -2315,28 +2315,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>57.9</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="C2">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="E2">
-        <v>77.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F2">
-        <v>88.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>97.2</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>98.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2347,25 +2347,25 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D3">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="E3">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="F3">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="H3">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I3">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2373,28 +2373,28 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D4">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="E4">
-        <v>84.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F4">
-        <v>95.7</v>
+        <v>95</v>
       </c>
       <c r="G4">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="I4">
         <v>96.09999999999999</v>
-      </c>
-      <c r="I4">
-        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2402,28 +2402,28 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>97.2</v>
+      </c>
+      <c r="C5">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="D5">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="F5">
         <v>96.3</v>
       </c>
-      <c r="C5">
-        <v>97</v>
-      </c>
-      <c r="D5">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="E5">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="F5">
-        <v>95.59999999999999</v>
-      </c>
       <c r="G5">
-        <v>88.7</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="H5">
-        <v>94.19999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="I5">
-        <v>94.3</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2431,28 +2431,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.399999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="C6">
-        <v>73.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D6">
-        <v>70.8</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="E6">
-        <v>70.89999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F6">
-        <v>72.8</v>
+        <v>73.2</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>81.8</v>
       </c>
       <c r="H6">
-        <v>73.7</v>
+        <v>72.7</v>
       </c>
       <c r="I6">
-        <v>75.8</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2460,28 +2460,28 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>72.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C7">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="D7">
-        <v>97.39999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E7">
-        <v>72.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F7">
-        <v>53.8</v>
+        <v>56.7</v>
       </c>
       <c r="G7">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="H7">
-        <v>75.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I7">
-        <v>75.8</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2498,19 +2498,19 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>95.7</v>
+        <v>97.3</v>
       </c>
       <c r="F8">
-        <v>86.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G8">
-        <v>72.2</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="H8">
-        <v>61.3</v>
+        <v>63.3</v>
       </c>
       <c r="I8">
-        <v>69</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2518,28 +2518,28 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>62.6</v>
       </c>
       <c r="C9">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="D9">
+        <v>52.3</v>
+      </c>
+      <c r="E9">
+        <v>25.6</v>
+      </c>
+      <c r="F9">
+        <v>49.9</v>
+      </c>
+      <c r="G9">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>56.10000000000001</v>
+      </c>
+      <c r="I9">
         <v>52.40000000000001</v>
-      </c>
-      <c r="E9">
-        <v>26.1</v>
-      </c>
-      <c r="F9">
-        <v>54.3</v>
-      </c>
-      <c r="G9">
-        <v>43.9</v>
-      </c>
-      <c r="H9">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="I9">
-        <v>48.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2547,28 +2547,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>71.8</v>
+        <v>68.7</v>
       </c>
       <c r="C10">
-        <v>82.09999999999999</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="F10">
-        <v>26.3</v>
+        <v>21.2</v>
       </c>
       <c r="G10">
-        <v>29.4</v>
+        <v>31.9</v>
       </c>
       <c r="H10">
-        <v>35.5</v>
+        <v>33.6</v>
       </c>
       <c r="I10">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2576,28 +2576,28 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="C11">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="D11">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="E11">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="F11">
-        <v>16.2</v>
+        <v>17.6</v>
       </c>
       <c r="G11">
-        <v>7.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="H11">
-        <v>5.600000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2605,28 +2605,28 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.899999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="F12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>8.1</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2634,25 +2634,25 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>4.8</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D13">
-        <v>6.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E13">
-        <v>30.3</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>11.1</v>
+        <v>14.2</v>
       </c>
       <c r="G13">
-        <v>6.5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H13">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
         <v>2.4</v>
@@ -2665,13 +2665,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2696,13 +2696,16 @@
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -2714,21 +2717,24 @@
         <v>824.78</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
+        <v>99.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -2740,21 +2746,24 @@
         <v>878.8399999999999</v>
       </c>
       <c r="F3">
-        <v>98.8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -2766,21 +2775,24 @@
         <v>834.4400000000001</v>
       </c>
       <c r="F4">
-        <v>96.7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
+        <v>96.8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -2792,73 +2804,82 @@
         <v>832.54</v>
       </c>
       <c r="F5">
-        <v>91.7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
+        <v>93.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D6">
+        <v>122.0114285714286</v>
+      </c>
+      <c r="E6">
+        <v>854.0799999999999</v>
+      </c>
+      <c r="F6">
+        <v>76.7</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>113.7885714285714</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>796.52</v>
       </c>
-      <c r="F6">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F7">
+        <v>72.2</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D7">
-        <v>122.0114285714286</v>
-      </c>
-      <c r="E7">
-        <v>854.0799999999999</v>
-      </c>
-      <c r="F7">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -2870,16 +2891,19 @@
         <v>772.4599999999999</v>
       </c>
       <c r="F8">
-        <v>69.5</v>
-      </c>
-      <c r="G8" t="s">
+        <v>67.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2896,21 +2920,24 @@
         <v>808.9599999999999</v>
       </c>
       <c r="F9">
-        <v>50.3</v>
-      </c>
-      <c r="G9" t="s">
+        <v>51.4</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -2922,21 +2949,24 @@
         <v>803.6799999999999</v>
       </c>
       <c r="F10">
-        <v>29.7</v>
-      </c>
-      <c r="G10" t="s">
+        <v>32.1</v>
+      </c>
+      <c r="G10">
+        <v>3.9</v>
+      </c>
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2948,21 +2978,24 @@
         <v>718.9</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>0.2857142857142857</v>
@@ -2974,21 +3007,24 @@
         <v>682.4</v>
       </c>
       <c r="F12">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="G12" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="G12">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>0.1428571428571428</v>
@@ -3000,12 +3036,15 @@
         <v>703.9399999999998</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
-      </c>
-      <c r="G13" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <v>44.2</v>
+      </c>
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>77</v>
       </c>
     </row>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="119">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -60,28 +60,28 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,55 +192,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.5-0.1</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>9.7-4.2-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4</t>
   </si>
   <si>
     <t>9.1-4.8-0.1</t>
   </si>
   <si>
-    <t>8.7-5.3-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.3-0.1</t>
+    <t>7.3-6.7-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
   </si>
   <si>
     <t>4.3-9.6-0.1</t>
   </si>
   <si>
-    <t>3.8-10.2-0.1</t>
+    <t>3.4-10.6</t>
   </si>
   <si>
     <t>10-4</t>
@@ -249,6 +252,9 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -258,6 +264,9 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -285,12 +294,12 @@
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
@@ -303,33 +312,30 @@
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>↑9</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -779,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -788,28 +797,28 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -823,13 +832,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -841,16 +850,16 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -861,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -879,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -905,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -914,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -940,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -952,19 +961,19 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -973,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -981,34 +990,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -1022,31 +1031,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1055,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1063,40 +1072,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1104,31 +1113,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1145,40 +1154,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1186,40 +1195,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1227,40 +1236,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1295,10 +1304,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1306,13 +1315,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1320,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.833333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1334,13 +1343,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1348,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1362,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1376,13 +1385,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1390,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1404,13 +1413,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1418,13 +1427,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1432,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1446,13 +1455,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>4.583333333333333</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1499,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1504,16 +1513,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.666666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
-        <v>1.666666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1521,16 +1530,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1538,16 +1547,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D5">
-        <v>-1.833333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1555,16 +1564,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D6">
-        <v>0.8333333333333335</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1575,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333335</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1589,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-1.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1609,13 +1618,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.5833333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1623,16 +1632,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.416666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D10">
-        <v>1.416666666666667</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1640,16 +1649,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.1666666666666667</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1660,13 +1669,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.833333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D12">
-        <v>0.8333333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1674,13 +1683,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1745,34 +1754,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>31.5</v>
+        <v>43.9</v>
       </c>
       <c r="C2">
-        <v>25.2</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
       <c r="F2">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1784,39 +1793,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C3">
-        <v>24.7</v>
+        <v>28.6</v>
       </c>
       <c r="D3">
-        <v>17.9</v>
+        <v>16.2</v>
       </c>
       <c r="E3">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="G3">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H3">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
         <v>0.1</v>
@@ -1828,39 +1837,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>17.7</v>
+        <v>11.4</v>
       </c>
       <c r="C4">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>28.3</v>
       </c>
       <c r="E4">
-        <v>17.1</v>
+        <v>16.1</v>
       </c>
       <c r="F4">
-        <v>11.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G4">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0.2</v>
@@ -1872,227 +1881,227 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>12.9</v>
+        <v>2.7</v>
       </c>
       <c r="C5">
-        <v>16.2</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>18.7</v>
+        <v>10.8</v>
       </c>
       <c r="E5">
-        <v>17.1</v>
+        <v>15.2</v>
       </c>
       <c r="F5">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="G5">
-        <v>10.2</v>
+        <v>15.3</v>
       </c>
       <c r="H5">
-        <v>5.9</v>
+        <v>13.6</v>
       </c>
       <c r="I5">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="J5">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
         <v>0.1</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>88</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="D6">
-        <v>8.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>14.5</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="G6">
-        <v>18.1</v>
+        <v>12.8</v>
       </c>
       <c r="H6">
-        <v>16.7</v>
+        <v>12.4</v>
       </c>
       <c r="I6">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="J6">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>60</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5.2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>15.7</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>13.6</v>
+      </c>
+      <c r="H7">
+        <v>12.9</v>
+      </c>
+      <c r="I7">
+        <v>11.2</v>
+      </c>
+      <c r="J7">
+        <v>8.5</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1.3</v>
-      </c>
-      <c r="C7">
-        <v>4.5</v>
-      </c>
-      <c r="D7">
-        <v>6.4</v>
-      </c>
-      <c r="E7">
-        <v>10.6</v>
-      </c>
-      <c r="F7">
-        <v>15.4</v>
-      </c>
-      <c r="G7">
-        <v>19.2</v>
-      </c>
-      <c r="H7">
-        <v>14.8</v>
-      </c>
-      <c r="I7">
-        <v>12.4</v>
-      </c>
-      <c r="J7">
-        <v>9.5</v>
-      </c>
-      <c r="K7">
-        <v>4.3</v>
-      </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>57.4</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="E8">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F8">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="G8">
-        <v>15.1</v>
+        <v>16.6</v>
       </c>
       <c r="H8">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="I8">
-        <v>14.5</v>
+        <v>15.9</v>
       </c>
       <c r="J8">
-        <v>10.6</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>51.3</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E9">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="G9">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="H9">
-        <v>18.4</v>
+        <v>15.4</v>
       </c>
       <c r="I9">
-        <v>20.4</v>
+        <v>17.9</v>
       </c>
       <c r="J9">
-        <v>18.4</v>
+        <v>16.6</v>
       </c>
       <c r="K9">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N9">
-        <v>33</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2103,89 +2112,89 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="F10">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>12.3</v>
       </c>
       <c r="H10">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="I10">
         <v>18.1</v>
       </c>
       <c r="J10">
-        <v>21.8</v>
+        <v>18.7</v>
       </c>
       <c r="K10">
-        <v>16</v>
+        <v>12.9</v>
       </c>
       <c r="L10">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>17.3</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="G11">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>12.9</v>
+        <v>16.7</v>
       </c>
       <c r="K11">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="L11">
-        <v>30.5</v>
+        <v>22.2</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>12.2</v>
       </c>
       <c r="N11">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2194,37 +2203,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I12">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K12">
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
       <c r="L12">
-        <v>28.5</v>
+        <v>42.7</v>
       </c>
       <c r="M12">
-        <v>33.9</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2244,31 +2253,31 @@
         <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H13">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
-        <v>17.2</v>
+        <v>10.4</v>
       </c>
       <c r="L13">
-        <v>25.8</v>
+        <v>23.7</v>
       </c>
       <c r="M13">
-        <v>44.2</v>
+        <v>60.8</v>
       </c>
       <c r="N13">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2278,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2309,353 +2318,392 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>99.5</v>
+      </c>
+      <c r="D2">
+        <v>99.8</v>
+      </c>
+      <c r="E2">
+        <v>99.2</v>
+      </c>
+      <c r="F2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="H2">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I2">
+        <v>99.3</v>
+      </c>
+      <c r="J2">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>93.7</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>85.8</v>
+      </c>
+      <c r="F3">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J3">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="C2">
-        <v>24.6</v>
-      </c>
-      <c r="D2">
-        <v>37.6</v>
-      </c>
-      <c r="E2">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="F2">
-        <v>89</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
-      <c r="H2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>99.7</v>
-      </c>
-      <c r="D3">
-        <v>99.5</v>
-      </c>
-      <c r="E3">
-        <v>99.7</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>95.7</v>
-      </c>
-      <c r="H3">
+      <c r="B4">
+        <v>57.8</v>
+      </c>
+      <c r="C4">
+        <v>25.9</v>
+      </c>
+      <c r="D4">
+        <v>36.2</v>
+      </c>
+      <c r="E4">
+        <v>74.3</v>
+      </c>
+      <c r="F4">
+        <v>87.7</v>
+      </c>
+      <c r="G4">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="H4">
         <v>98.8</v>
       </c>
-      <c r="I3">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>93.7</v>
-      </c>
-      <c r="C4">
-        <v>99.7</v>
-      </c>
-      <c r="D4">
-        <v>99.8</v>
-      </c>
-      <c r="E4">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="F4">
-        <v>95</v>
-      </c>
-      <c r="G4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="H4">
-        <v>94.89999999999999</v>
-      </c>
       <c r="I4">
-        <v>96.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>97.3</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>97.2</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="C5">
-        <v>97.39999999999999</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>76.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="E5">
-        <v>95.39999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F5">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="G5">
-        <v>90.60000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="H5">
         <v>94.3</v>
       </c>
       <c r="I5">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>76.8</v>
+      </c>
+      <c r="J5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>61.7</v>
+      </c>
+      <c r="C6">
+        <v>12.5</v>
+      </c>
+      <c r="D6">
+        <v>51.5</v>
+      </c>
+      <c r="E6">
+        <v>26.1</v>
+      </c>
+      <c r="F6">
+        <v>54.2</v>
+      </c>
+      <c r="G6">
+        <v>45.6</v>
+      </c>
+      <c r="H6">
+        <v>56.2</v>
+      </c>
+      <c r="I6">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J6">
+        <v>78.10000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>99.5</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="F7">
+        <v>86.2</v>
+      </c>
+      <c r="G7">
+        <v>70.8</v>
+      </c>
+      <c r="H7">
+        <v>60.6</v>
+      </c>
+      <c r="I7">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="J7">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>5.3</v>
-      </c>
-      <c r="C6">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D6">
-        <v>71.89999999999999</v>
-      </c>
-      <c r="E6">
-        <v>72.2</v>
-      </c>
-      <c r="F6">
-        <v>73.2</v>
-      </c>
-      <c r="G6">
-        <v>81.8</v>
-      </c>
-      <c r="H6">
-        <v>72.7</v>
-      </c>
-      <c r="I6">
-        <v>74.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="C8">
+        <v>76.5</v>
+      </c>
+      <c r="D8">
+        <v>69.69999999999999</v>
+      </c>
+      <c r="E8">
+        <v>72.5</v>
+      </c>
+      <c r="F8">
+        <v>74.5</v>
+      </c>
+      <c r="G8">
+        <v>83.3</v>
+      </c>
+      <c r="H8">
+        <v>71.7</v>
+      </c>
+      <c r="I8">
+        <v>60.7</v>
+      </c>
+      <c r="J8">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="C9">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="D9">
+        <v>53.2</v>
+      </c>
+      <c r="E9">
+        <v>38.6</v>
+      </c>
+      <c r="F9">
+        <v>23.6</v>
+      </c>
+      <c r="G9">
+        <v>30.6</v>
+      </c>
+      <c r="H9">
+        <v>35.5</v>
+      </c>
+      <c r="I9">
+        <v>45.8</v>
+      </c>
+      <c r="J9">
+        <v>46.40000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="C7">
-        <v>99.7</v>
-      </c>
-      <c r="D7">
-        <v>96.3</v>
-      </c>
-      <c r="E7">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="F7">
-        <v>56.7</v>
-      </c>
-      <c r="G7">
-        <v>69.3</v>
-      </c>
-      <c r="H7">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="I7">
-        <v>74.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B10">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C10">
+        <v>99.3</v>
+      </c>
+      <c r="D10">
+        <v>96.8</v>
+      </c>
+      <c r="E10">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>53.5</v>
+      </c>
+      <c r="G10">
+        <v>67.5</v>
+      </c>
+      <c r="H10">
+        <v>77.8</v>
+      </c>
+      <c r="I10">
+        <v>50.1</v>
+      </c>
+      <c r="J10">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2.8</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>99.7</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>97.3</v>
-      </c>
-      <c r="F8">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="G8">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="H8">
-        <v>63.3</v>
-      </c>
-      <c r="I8">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="D11">
+        <v>6.4</v>
+      </c>
+      <c r="E11">
+        <v>1.6</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>7.3</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>62.6</v>
-      </c>
-      <c r="C9">
-        <v>13.1</v>
-      </c>
-      <c r="D9">
-        <v>52.3</v>
-      </c>
-      <c r="E9">
-        <v>25.6</v>
-      </c>
-      <c r="F9">
-        <v>49.9</v>
-      </c>
-      <c r="G9">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="H9">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="I9">
-        <v>52.40000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>68.7</v>
-      </c>
-      <c r="C10">
-        <v>81.10000000000001</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>39.6</v>
-      </c>
-      <c r="F10">
-        <v>21.2</v>
-      </c>
-      <c r="G10">
-        <v>31.9</v>
-      </c>
-      <c r="H10">
-        <v>33.6</v>
-      </c>
-      <c r="I10">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="I11">
+        <v>12.4</v>
+      </c>
+      <c r="J11">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>39.8</v>
-      </c>
-      <c r="C11">
-        <v>5.2</v>
-      </c>
-      <c r="D11">
-        <v>3.7</v>
-      </c>
-      <c r="E11">
-        <v>8.5</v>
-      </c>
-      <c r="F11">
-        <v>17.6</v>
-      </c>
-      <c r="G11">
-        <v>7.9</v>
-      </c>
-      <c r="H11">
+      <c r="B12">
+        <v>40.6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4.8</v>
+      </c>
+      <c r="E12">
+        <v>9.4</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>8.4</v>
+      </c>
+      <c r="H12">
         <v>6.3</v>
       </c>
-      <c r="I11">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>2.2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5.7</v>
-      </c>
-      <c r="E12">
-        <v>1.8</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
       <c r="I12">
+        <v>1.9</v>
+      </c>
+      <c r="J12">
         <v>2.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D13">
-        <v>6.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28.8</v>
       </c>
       <c r="F13">
-        <v>14.2</v>
+        <v>11.7</v>
       </c>
       <c r="G13">
-        <v>7.000000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2.4</v>
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2676,260 +2724,260 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>117.8257142857143</v>
+        <v>124.9025</v>
       </c>
       <c r="E2">
-        <v>824.78</v>
+        <v>999.2199999999999</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>125.5485714285714</v>
+        <v>122.1775</v>
       </c>
       <c r="E3">
-        <v>878.8399999999999</v>
+        <v>977.4200000000001</v>
       </c>
       <c r="F3">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>119.2057142857143</v>
+        <v>114.8625</v>
       </c>
       <c r="E4">
-        <v>834.4400000000001</v>
+        <v>918.9</v>
       </c>
       <c r="F4">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>118.9342857142857</v>
+        <v>119.6425</v>
       </c>
       <c r="E5">
-        <v>832.54</v>
+        <v>957.1399999999999</v>
       </c>
       <c r="F5">
-        <v>93.89999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.625</v>
       </c>
       <c r="D6">
-        <v>122.0114285714286</v>
+        <v>110.2425</v>
       </c>
       <c r="E6">
-        <v>854.0799999999999</v>
+        <v>881.9399999999999</v>
       </c>
       <c r="F6">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D7">
-        <v>113.7885714285714</v>
+        <v>110.035</v>
       </c>
       <c r="E7">
-        <v>796.52</v>
+        <v>880.28</v>
       </c>
       <c r="F7">
-        <v>72.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>110.3514285714286</v>
+        <v>113.2725</v>
       </c>
       <c r="E8">
-        <v>772.4599999999999</v>
+        <v>906.1799999999999</v>
       </c>
       <c r="F8">
-        <v>67.5</v>
+        <v>62.8</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>115.5657142857143</v>
+        <v>118.145</v>
       </c>
       <c r="E9">
-        <v>808.9599999999999</v>
+        <v>945.16</v>
       </c>
       <c r="F9">
-        <v>51.4</v>
+        <v>49.3</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2940,83 +2988,83 @@
         <v>59</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>114.8114285714286</v>
+        <v>115.21</v>
       </c>
       <c r="E10">
-        <v>803.6799999999999</v>
+        <v>921.6799999999999</v>
       </c>
       <c r="F10">
-        <v>32.1</v>
+        <v>46.1</v>
       </c>
       <c r="G10">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>102.7</v>
+        <v>101.99</v>
       </c>
       <c r="E11">
-        <v>718.9</v>
+        <v>815.92</v>
       </c>
       <c r="F11">
-        <v>5.5</v>
+        <v>11.2</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>12.2</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>97.48571428571428</v>
+        <v>101.6325</v>
       </c>
       <c r="E12">
-        <v>682.4</v>
+        <v>813.0599999999999</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G12">
-        <v>33.90000000000001</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3024,28 +3072,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="D13">
-        <v>100.5628571428571</v>
+        <v>101.0675</v>
       </c>
       <c r="E13">
-        <v>703.9399999999998</v>
+        <v>808.5399999999998</v>
       </c>
       <c r="F13">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
-        <v>44.2</v>
+        <v>60.8</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3114,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3086,16 +3134,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3106,16 +3154,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3126,16 +3174,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3146,16 +3194,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3166,16 +3214,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3186,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3203,19 +3251,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3223,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3235,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3246,16 +3294,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3266,16 +3314,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3286,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3306,16 +3354,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3325,39 +3373,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3382,11 +3433,14 @@
       <c r="H2">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3411,11 +3465,14 @@
       <c r="H3">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3440,11 +3497,14 @@
       <c r="H4">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3469,11 +3529,14 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3498,11 +3561,14 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3527,69 +3593,78 @@
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3614,11 +3689,14 @@
       <c r="H10">
         <v>-5</v>
       </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3643,11 +3721,14 @@
       <c r="H11">
         <v>-25</v>
       </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3672,11 +3753,14 @@
       <c r="H12">
         <v>-29</v>
       </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3701,8 +3785,11 @@
       <c r="H13">
         <v>-30</v>
       </c>
-      <c r="I13" t="s">
-        <v>101</v>
+      <c r="I13">
+        <v>-29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3799,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3720,25 +3807,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3798,25 +3885,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>-29</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3827,22 +3914,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3850,25 +3937,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
-      </c>
-      <c r="F6">
-        <v>-13</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3876,25 +3963,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
       <c r="F7">
-        <v>6</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3905,22 +3992,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3928,25 +4015,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>-29</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3954,77 +4041,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
       <c r="F10">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="122">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Rizzly Bears</t>
   </si>
   <si>
-    <t>SIGMAS</t>
+    <t>67 Big Backs</t>
   </si>
   <si>
     <t>Hormones For You</t>
@@ -60,28 +60,31 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,55 +198,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>9.7-4.2-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4</t>
-  </si>
-  <si>
-    <t>9.1-4.8-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.7-0.1</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>10.1-3.8</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.6-5.4-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
   </si>
   <si>
     <t>7.8-6.1</t>
   </si>
   <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.3-9.6-0.1</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>3.9-10.0</t>
+  </si>
+  <si>
+    <t>4.0-9.9</t>
   </si>
   <si>
     <t>10-4</t>
@@ -249,12 +255,12 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -264,9 +270,6 @@
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -288,54 +291,57 @@
     <t>Diana Wallach</t>
   </si>
   <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
     <t>Ted Wallach</t>
   </si>
   <si>
-    <t>Noah Wallach</t>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
   </si>
   <si>
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Matt Wallach</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓4</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -788,37 +797,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -832,13 +841,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -847,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -870,19 +879,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -891,16 +900,16 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -908,40 +917,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -949,31 +958,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -982,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -990,40 +999,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1031,40 +1040,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1075,34 +1084,34 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -1113,40 +1122,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1157,37 +1166,37 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1195,40 +1204,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1236,40 +1245,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1287,13 +1296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1304,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1318,10 +1327,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1329,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1346,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1357,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1371,13 +1380,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1385,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3.833333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1402,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1413,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1427,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1444,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1455,13 +1464,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1479,16 +1488,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1499,13 +1508,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1516,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1533,13 +1542,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D4">
-        <v>0.833333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1550,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4.75</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D5">
-        <v>1.75</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1567,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.666666666666667</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1581,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.833333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1598,16 +1607,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D8">
-        <v>1.083333333333333</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1615,16 +1624,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>-1.75</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1632,16 +1641,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3.583333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.416666666666667</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1652,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2.583333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D11">
-        <v>-0.4166666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1669,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D12">
-        <v>1.166666666666667</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1686,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.083333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333348</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1710,46 +1719,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1757,31 +1766,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>43.9</v>
+        <v>67.7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>19.2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="E2">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1793,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1801,34 +1810,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>34.1</v>
+        <v>15.3</v>
       </c>
       <c r="C3">
-        <v>28.6</v>
+        <v>32.6</v>
       </c>
       <c r="D3">
-        <v>16.2</v>
+        <v>21.3</v>
       </c>
       <c r="E3">
-        <v>9.800000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="F3">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1837,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.59999999999999</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1845,31 +1854,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>22.1</v>
+        <v>13.7</v>
       </c>
       <c r="D4">
-        <v>28.3</v>
+        <v>24.3</v>
       </c>
       <c r="E4">
-        <v>16.1</v>
+        <v>18.2</v>
       </c>
       <c r="F4">
-        <v>9.300000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="G4">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
       <c r="H4">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.2</v>
@@ -1881,95 +1890,95 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>93.7</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>12.8</v>
       </c>
       <c r="D5">
-        <v>10.8</v>
+        <v>15.1</v>
       </c>
       <c r="E5">
-        <v>15.2</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
       <c r="H5">
-        <v>13.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="J5">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>64.8</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>14.9</v>
       </c>
       <c r="D6">
-        <v>11.4</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>14.1</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="H6">
-        <v>12.4</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>10.7</v>
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="K6">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>64.8</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1977,175 +1986,175 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>15.7</v>
+        <v>8.9</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>13.3</v>
       </c>
       <c r="G7">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="H7">
-        <v>12.9</v>
+        <v>17.9</v>
       </c>
       <c r="I7">
-        <v>11.2</v>
+        <v>16.6</v>
       </c>
       <c r="J7">
-        <v>8.5</v>
+        <v>11.9</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>62.5</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="E8">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F8">
-        <v>14.4</v>
+        <v>10.9</v>
       </c>
       <c r="G8">
-        <v>16.6</v>
+        <v>19.3</v>
       </c>
       <c r="H8">
-        <v>15.3</v>
+        <v>17.9</v>
       </c>
       <c r="I8">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="J8">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="K8">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>47.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E9">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="F9">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="H9">
-        <v>15.4</v>
+        <v>20.2</v>
       </c>
       <c r="I9">
-        <v>17.9</v>
+        <v>19.7</v>
       </c>
       <c r="J9">
-        <v>16.6</v>
+        <v>14.2</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>6.4</v>
       </c>
       <c r="L9">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="M9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>33.9</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E10">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="G10">
-        <v>12.3</v>
+        <v>8.1</v>
       </c>
       <c r="H10">
-        <v>16.8</v>
+        <v>12.4</v>
       </c>
       <c r="I10">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="J10">
-        <v>18.7</v>
+        <v>25.1</v>
       </c>
       <c r="K10">
-        <v>12.9</v>
+        <v>16.7</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2156,45 +2165,45 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
         <v>1.7</v>
       </c>
-      <c r="G11">
-        <v>3.1</v>
-      </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="K11">
-        <v>29.5</v>
+        <v>31.1</v>
       </c>
       <c r="L11">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="M11">
-        <v>12.2</v>
+        <v>17.7</v>
       </c>
       <c r="N11">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2206,39 +2215,39 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
         <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I12">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J12">
-        <v>9.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="K12">
-        <v>18.4</v>
+        <v>17.7</v>
       </c>
       <c r="L12">
-        <v>42.7</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>40.3</v>
       </c>
       <c r="N12">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2250,34 +2259,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
         <v>1.5</v>
       </c>
       <c r="J13">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="K13">
-        <v>10.4</v>
+        <v>16.3</v>
       </c>
       <c r="L13">
-        <v>23.7</v>
+        <v>36.8</v>
       </c>
       <c r="M13">
-        <v>60.8</v>
+        <v>39.5</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2287,42 +2296,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2330,164 +2342,179 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="D2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E2">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F2">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
-        <v>96.39999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="H2">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I2">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J2">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93.7</v>
+        <v>94.3</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E3">
-        <v>85.8</v>
+        <v>83.5</v>
       </c>
       <c r="F3">
-        <v>96.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H3">
-        <v>94.69999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I3">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>96.8</v>
+      </c>
+      <c r="K3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>57.8</v>
+        <v>56.8</v>
       </c>
       <c r="C4">
-        <v>25.9</v>
+        <v>24.6</v>
       </c>
       <c r="D4">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="E4">
-        <v>74.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F4">
-        <v>87.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G4">
-        <v>96.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="H4">
-        <v>98.8</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="I4">
+        <v>96.8</v>
+      </c>
+      <c r="J4">
+        <v>94.3</v>
+      </c>
+      <c r="K4">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>12.7</v>
+      </c>
+      <c r="D5">
+        <v>51.2</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>50.6</v>
+      </c>
+      <c r="G5">
+        <v>45.6</v>
+      </c>
+      <c r="H5">
+        <v>58.7</v>
+      </c>
+      <c r="I5">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="J5">
+        <v>90.2</v>
+      </c>
+      <c r="K5">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>96.2</v>
+      </c>
+      <c r="C6">
         <v>97.3</v>
       </c>
-      <c r="J4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="C5">
-        <v>97</v>
-      </c>
-      <c r="D5">
-        <v>75.2</v>
-      </c>
-      <c r="E5">
-        <v>93.8</v>
-      </c>
-      <c r="F5">
-        <v>96.8</v>
-      </c>
-      <c r="G5">
-        <v>88.5</v>
-      </c>
-      <c r="H5">
-        <v>94.3</v>
-      </c>
-      <c r="I5">
-        <v>76.8</v>
-      </c>
-      <c r="J5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>61.7</v>
-      </c>
-      <c r="C6">
-        <v>12.5</v>
-      </c>
       <c r="D6">
-        <v>51.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E6">
-        <v>26.1</v>
+        <v>92.7</v>
       </c>
       <c r="F6">
-        <v>54.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G6">
-        <v>45.6</v>
+        <v>88</v>
       </c>
       <c r="H6">
-        <v>56.2</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="I6">
-        <v>79.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="J6">
-        <v>78.10000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>88.2</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -2496,138 +2523,150 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>96.89999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F7">
-        <v>86.2</v>
+        <v>84.3</v>
       </c>
       <c r="G7">
-        <v>70.8</v>
+        <v>72</v>
       </c>
       <c r="H7">
-        <v>60.6</v>
+        <v>64.8</v>
       </c>
       <c r="I7">
-        <v>77.10000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="J7">
-        <v>76.59999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>62.7</v>
+      </c>
+      <c r="K7">
+        <v>68.89999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>5.800000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C8">
-        <v>76.5</v>
+        <v>99.7</v>
       </c>
       <c r="D8">
-        <v>69.69999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E8">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="F8">
+        <v>56.2</v>
+      </c>
+      <c r="G8">
+        <v>69.8</v>
+      </c>
+      <c r="H8">
         <v>74.5</v>
       </c>
-      <c r="G8">
-        <v>83.3</v>
-      </c>
-      <c r="H8">
-        <v>71.7</v>
-      </c>
       <c r="I8">
-        <v>60.7</v>
+        <v>48</v>
       </c>
       <c r="J8">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="K8">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>66.10000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="C9">
-        <v>80.10000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D9">
-        <v>53.2</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>38.6</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="G9">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>35.5</v>
+        <v>32.2</v>
       </c>
       <c r="I9">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>46.40000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>62.8</v>
+      </c>
+      <c r="K9">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>75.09999999999999</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>99.3</v>
+        <v>77.7</v>
       </c>
       <c r="D10">
-        <v>96.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E10">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F10">
-        <v>53.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G10">
-        <v>67.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H10">
-        <v>77.8</v>
+        <v>71.7</v>
       </c>
       <c r="I10">
-        <v>50.1</v>
+        <v>62.8</v>
       </c>
       <c r="J10">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="G11">
         <v>7.3</v>
@@ -2636,73 +2675,82 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="J11">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+      <c r="D12">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="E12">
+        <v>29.2</v>
+      </c>
+      <c r="F12">
+        <v>13.8</v>
+      </c>
+      <c r="G12">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.8</v>
+      </c>
+      <c r="I12">
+        <v>1.4</v>
+      </c>
+      <c r="J12">
+        <v>1.9</v>
+      </c>
+      <c r="K12">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>40.6</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>4.8</v>
-      </c>
-      <c r="E12">
-        <v>9.4</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>8.4</v>
-      </c>
-      <c r="H12">
-        <v>6.3</v>
-      </c>
-      <c r="I12">
-        <v>1.9</v>
-      </c>
-      <c r="J12">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B13">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="D13">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="E13">
-        <v>28.8</v>
+        <v>7.1</v>
       </c>
       <c r="F13">
-        <v>11.7</v>
+        <v>16.7</v>
       </c>
       <c r="G13">
+        <v>7.6</v>
+      </c>
+      <c r="H13">
         <v>6.7</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
         <v>0.6</v>
       </c>
     </row>
@@ -2721,31 +2769,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2753,28 +2801,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>124.9025</v>
+        <v>127.88</v>
       </c>
       <c r="E2">
-        <v>999.2199999999999</v>
+        <v>1150.92</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2782,28 +2830,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>122.1775</v>
+        <v>121.0155555555555</v>
       </c>
       <c r="E3">
-        <v>977.4200000000001</v>
+        <v>1089.14</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2811,86 +2859,86 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>114.8625</v>
+        <v>114.6666666666667</v>
       </c>
       <c r="E4">
-        <v>918.9</v>
+        <v>1032</v>
       </c>
       <c r="F4">
-        <v>97.5</v>
+        <v>94.8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>119.6425</v>
+        <v>111.2622222222222</v>
       </c>
       <c r="E5">
-        <v>957.1399999999999</v>
+        <v>1001.36</v>
       </c>
       <c r="F5">
-        <v>78.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>110.2425</v>
+        <v>122.9466666666667</v>
       </c>
       <c r="E6">
-        <v>881.9399999999999</v>
+        <v>1106.52</v>
       </c>
       <c r="F6">
-        <v>77.2</v>
+        <v>88.8</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2898,115 +2946,115 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7">
-        <v>110.035</v>
+        <v>109.8933333333333</v>
       </c>
       <c r="E7">
-        <v>880.28</v>
+        <v>989.04</v>
       </c>
       <c r="F7">
-        <v>75.40000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>113.2725</v>
+        <v>118.7466666666667</v>
       </c>
       <c r="E8">
-        <v>906.1799999999999</v>
+        <v>1068.72</v>
       </c>
       <c r="F8">
-        <v>62.8</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>118.145</v>
+        <v>115.8977777777778</v>
       </c>
       <c r="E9">
-        <v>945.16</v>
+        <v>1043.08</v>
       </c>
       <c r="F9">
-        <v>49.3</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G9">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>115.21</v>
+        <v>107.0577777777778</v>
       </c>
       <c r="E10">
-        <v>921.6799999999999</v>
+        <v>963.52</v>
       </c>
       <c r="F10">
-        <v>46.1</v>
+        <v>31.2</v>
       </c>
       <c r="G10">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3014,86 +3062,86 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>101.99</v>
+        <v>102.5466666666667</v>
       </c>
       <c r="E11">
-        <v>815.92</v>
+        <v>922.92</v>
       </c>
       <c r="F11">
-        <v>11.2</v>
+        <v>6.5</v>
       </c>
       <c r="G11">
-        <v>12.2</v>
+        <v>17.7</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D12">
-        <v>101.6325</v>
+        <v>102.3844444444444</v>
       </c>
       <c r="E12">
-        <v>813.0599999999999</v>
+        <v>921.4599999999998</v>
       </c>
       <c r="F12">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>40.3</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D13">
-        <v>101.0675</v>
+        <v>100.2844444444444</v>
       </c>
       <c r="E13">
-        <v>808.5399999999998</v>
+        <v>902.5599999999999</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>60.8</v>
+        <v>39.5</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3111,19 +3159,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3134,16 +3182,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3154,16 +3202,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3174,16 +3222,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3194,16 +3242,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3211,16 +3259,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -3231,16 +3279,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -3251,19 +3299,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3271,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3291,10 +3339,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <v>-6</v>
@@ -3303,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3311,19 +3359,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>-28</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3334,16 +3382,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>-28</v>
+        <v>-31</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3351,19 +3399,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3373,42 +3421,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3436,11 +3487,14 @@
       <c r="I2">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3468,11 +3522,14 @@
       <c r="I3">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3500,11 +3557,14 @@
       <c r="I4">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3532,203 +3592,224 @@
       <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
       <c r="F6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>-11</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>-7</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>-6</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>-3</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-11</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10">
-        <v>-6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B11">
         <v>-8</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>-24</v>
       </c>
       <c r="F11">
-        <v>-15</v>
+        <v>-31</v>
       </c>
       <c r="G11">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="H11">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="I11">
+        <v>-29</v>
+      </c>
+      <c r="J11">
         <v>-28</v>
       </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3756,40 +3837,46 @@
       <c r="I12">
         <v>-28</v>
       </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>-8</v>
       </c>
       <c r="C13">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="D13">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E13">
-        <v>-24</v>
+        <v>-7</v>
       </c>
       <c r="F13">
-        <v>-31</v>
+        <v>-15</v>
       </c>
       <c r="G13">
+        <v>-15</v>
+      </c>
+      <c r="H13">
         <v>-25</v>
       </c>
-      <c r="H13">
-        <v>-30</v>
-      </c>
       <c r="I13">
-        <v>-29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
+        <v>-28</v>
+      </c>
+      <c r="J13">
+        <v>-33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3807,25 +3894,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3859,22 +3946,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>-6</v>
       </c>
       <c r="F3">
-        <v>-7</v>
+        <v>-33</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -3885,25 +3972,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="G4">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3911,25 +3998,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="F5">
-        <v>-8</v>
+        <v>-29</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3940,22 +4027,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3963,25 +4050,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-13</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3989,25 +4076,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
       <c r="F8">
-        <v>6</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4018,22 +4105,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4041,24 +4128,50 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-15</v>
+      </c>
+      <c r="F10">
+        <v>-29</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="128">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -60,31 +60,31 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +174,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,40 +201,40 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>10.1-3.8</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.6-5.4-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>10.5-3.5</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
   </si>
   <si>
     <t>7.8-6.1</t>
   </si>
   <si>
-    <t>7.3-6.6</t>
+    <t>7.2-6.8</t>
   </si>
   <si>
     <t>6.7-7.3</t>
@@ -240,18 +243,24 @@
     <t>6.2-7.8</t>
   </si>
   <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>3.9-10.0</t>
-  </si>
-  <si>
-    <t>4.0-9.9</t>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -291,57 +300,63 @@
     <t>Diana Wallach</t>
   </si>
   <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -367,6 +382,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -797,37 +815,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -841,31 +859,31 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -876,10 +894,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -888,28 +906,28 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -920,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -932,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -958,40 +976,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -999,40 +1017,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
       <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1040,40 +1058,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1084,37 +1102,37 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1122,40 +1140,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1166,37 +1184,37 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1204,40 +1222,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
         <v>15</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1245,40 +1263,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
         <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1310,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1324,13 +1342,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1338,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1352,13 +1370,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1366,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.166666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1383,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1397,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1408,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1422,13 +1440,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1439,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1453,10 +1471,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1467,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5.416666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1508,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1525,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.166666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1539,13 +1557,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1556,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D5">
-        <v>1.583333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1576,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.166666666666667</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1593,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.833333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1607,16 +1625,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D8">
-        <v>-0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1624,16 +1642,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1641,16 +1659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.08333333333333348</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1658,16 +1676,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1675,13 +1693,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.666666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1695,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D13">
-        <v>0.1666666666666665</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1763,31 +1781,31 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>67.7</v>
+        <v>13.4</v>
       </c>
       <c r="C2">
-        <v>19.2</v>
+        <v>48.4</v>
       </c>
       <c r="D2">
-        <v>6.8</v>
+        <v>22.9</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1802,39 +1820,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>15.3</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C3">
-        <v>32.6</v>
+        <v>14.1</v>
       </c>
       <c r="D3">
-        <v>21.3</v>
+        <v>5.4</v>
       </c>
       <c r="E3">
-        <v>13.3</v>
+        <v>2.4</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1846,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1854,34 +1872,34 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="C4">
-        <v>13.7</v>
+        <v>22.3</v>
       </c>
       <c r="D4">
-        <v>24.3</v>
+        <v>37.3</v>
       </c>
       <c r="E4">
-        <v>18.2</v>
+        <v>16.5</v>
       </c>
       <c r="F4">
-        <v>14.9</v>
+        <v>9.6</v>
       </c>
       <c r="G4">
-        <v>11.1</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1890,183 +1908,183 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>94.8</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="D5">
-        <v>15.1</v>
+        <v>12.3</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>21.9</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>20.8</v>
       </c>
       <c r="G5">
-        <v>12.1</v>
+        <v>17.6</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I5">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
         <v>0.7</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>90.5</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>14.9</v>
+        <v>4.6</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>10.6</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>21.4</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>19.3</v>
       </c>
       <c r="G6">
-        <v>11.7</v>
+        <v>16.6</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="L6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>88.8</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.4</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E7">
-        <v>8.9</v>
+        <v>17.8</v>
       </c>
       <c r="F7">
-        <v>13.3</v>
+        <v>23.4</v>
       </c>
       <c r="G7">
-        <v>14.3</v>
+        <v>18.8</v>
       </c>
       <c r="H7">
-        <v>17.9</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>16.6</v>
+        <v>9.5</v>
       </c>
       <c r="J7">
-        <v>11.9</v>
+        <v>3.8</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>65.7</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>10.9</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>19.3</v>
+        <v>13.6</v>
       </c>
       <c r="H8">
-        <v>17.9</v>
+        <v>20.5</v>
       </c>
       <c r="I8">
-        <v>15.4</v>
+        <v>19.4</v>
       </c>
       <c r="J8">
-        <v>12.7</v>
+        <v>19.2</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="L8">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N8">
-        <v>64</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2077,40 +2095,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="H9">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="I9">
-        <v>19.7</v>
+        <v>22.8</v>
       </c>
       <c r="J9">
-        <v>14.2</v>
+        <v>16.7</v>
       </c>
       <c r="K9">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="L9">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>58.6</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2121,45 +2139,45 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="I10">
-        <v>18.3</v>
+        <v>23.3</v>
       </c>
       <c r="J10">
-        <v>25.1</v>
+        <v>22.9</v>
       </c>
       <c r="K10">
-        <v>16.7</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="N10">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2168,42 +2186,42 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
-        <v>16.8</v>
+        <v>12.3</v>
       </c>
       <c r="K11">
-        <v>31.1</v>
+        <v>27.1</v>
       </c>
       <c r="L11">
-        <v>21.5</v>
+        <v>28.9</v>
       </c>
       <c r="M11">
-        <v>17.7</v>
+        <v>24.1</v>
       </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2215,39 +2233,39 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="I12">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K12">
-        <v>17.7</v>
+        <v>20.4</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>27.7</v>
       </c>
       <c r="M12">
-        <v>40.3</v>
+        <v>37.1</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2262,31 +2280,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0.3</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="L13">
-        <v>36.8</v>
+        <v>29.6</v>
       </c>
       <c r="M13">
-        <v>39.5</v>
+        <v>36.1</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2296,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2333,425 +2351,464 @@
       <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>82.3</v>
+      </c>
+      <c r="F2">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>98.7</v>
+      </c>
+      <c r="H2">
+        <v>95.5</v>
+      </c>
+      <c r="I2">
+        <v>98.7</v>
+      </c>
+      <c r="J2">
+        <v>97.5</v>
+      </c>
+      <c r="K2">
+        <v>99.5</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C2">
-        <v>99.8</v>
-      </c>
-      <c r="D2">
+      <c r="C3">
+        <v>99.5</v>
+      </c>
+      <c r="D3">
         <v>99.7</v>
       </c>
-      <c r="E2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F2">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G2">
-        <v>96.2</v>
-      </c>
-      <c r="H2">
-        <v>98.7</v>
-      </c>
-      <c r="I2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J2">
+      <c r="E3">
+        <v>99.2</v>
+      </c>
+      <c r="F3">
+        <v>99.2</v>
+      </c>
+      <c r="G3">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>98</v>
+      </c>
+      <c r="I3">
+        <v>99.2</v>
+      </c>
+      <c r="J3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>94.3</v>
-      </c>
-      <c r="C3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>99.8</v>
-      </c>
-      <c r="E3">
-        <v>83.5</v>
-      </c>
-      <c r="F3">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="G3">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="H3">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="I3">
-        <v>99</v>
-      </c>
-      <c r="J3">
-        <v>96.8</v>
-      </c>
-      <c r="K3">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>23.4</v>
+      </c>
+      <c r="D4">
+        <v>40.8</v>
+      </c>
+      <c r="E4">
+        <v>74.7</v>
+      </c>
+      <c r="F4">
+        <v>88.3</v>
+      </c>
+      <c r="G4">
+        <v>96.7</v>
+      </c>
+      <c r="H4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I4">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J4">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="K4">
+        <v>98.8</v>
+      </c>
+      <c r="L4">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.5</v>
+      </c>
+      <c r="D5">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="E5">
+        <v>74.3</v>
+      </c>
+      <c r="F5">
         <v>56.8</v>
       </c>
-      <c r="C4">
-        <v>24.6</v>
-      </c>
-      <c r="D4">
-        <v>36.1</v>
-      </c>
-      <c r="E4">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F4">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="G4">
-        <v>97.3</v>
-      </c>
-      <c r="H4">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="I4">
-        <v>96.8</v>
-      </c>
-      <c r="J4">
-        <v>94.3</v>
-      </c>
-      <c r="K4">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>12.7</v>
-      </c>
-      <c r="D5">
-        <v>51.2</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>50.6</v>
-      </c>
       <c r="G5">
-        <v>45.6</v>
+        <v>68.7</v>
       </c>
       <c r="H5">
-        <v>58.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I5">
-        <v>75.40000000000001</v>
+        <v>51.8</v>
       </c>
       <c r="J5">
-        <v>90.2</v>
+        <v>65</v>
       </c>
       <c r="K5">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>90.5</v>
+      </c>
+      <c r="L5">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C6">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D6">
-        <v>77.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>92.7</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="F6">
-        <v>96.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>89.8</v>
       </c>
       <c r="H6">
-        <v>94.39999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="I6">
+        <v>76.8</v>
+      </c>
+      <c r="J6">
+        <v>88.5</v>
+      </c>
+      <c r="K6">
+        <v>83.7</v>
+      </c>
+      <c r="L6">
+        <v>87.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="C7">
+        <v>14.1</v>
+      </c>
+      <c r="D7">
+        <v>52.8</v>
+      </c>
+      <c r="E7">
+        <v>25.8</v>
+      </c>
+      <c r="F7">
+        <v>50.8</v>
+      </c>
+      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="I7">
+        <v>78.5</v>
+      </c>
+      <c r="J7">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="K7">
+        <v>85.5</v>
+      </c>
+      <c r="L7">
+        <v>84.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="F8">
+        <v>86.2</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>63</v>
+      </c>
+      <c r="I8">
         <v>77.8</v>
       </c>
-      <c r="J6">
-        <v>88.2</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>99.7</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>97.5</v>
-      </c>
-      <c r="F7">
-        <v>84.3</v>
-      </c>
-      <c r="G7">
-        <v>72</v>
-      </c>
-      <c r="H7">
-        <v>64.8</v>
-      </c>
-      <c r="I7">
-        <v>77.2</v>
-      </c>
-      <c r="J7">
-        <v>62.7</v>
-      </c>
-      <c r="K7">
-        <v>68.89999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C8">
-        <v>99.7</v>
-      </c>
-      <c r="D8">
-        <v>97.5</v>
-      </c>
-      <c r="E8">
-        <v>73.7</v>
-      </c>
-      <c r="F8">
-        <v>56.2</v>
-      </c>
-      <c r="G8">
-        <v>69.8</v>
-      </c>
-      <c r="H8">
-        <v>74.5</v>
-      </c>
-      <c r="I8">
-        <v>48</v>
-      </c>
       <c r="J8">
-        <v>64.60000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="K8">
-        <v>65.90000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>52.8</v>
+      </c>
+      <c r="L8">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="C9">
-        <v>77.7</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>49.8</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>39.2</v>
       </c>
       <c r="F9">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>31.8</v>
       </c>
       <c r="H9">
-        <v>32.2</v>
+        <v>36.2</v>
       </c>
       <c r="I9">
-        <v>46</v>
+        <v>44.6</v>
       </c>
       <c r="J9">
-        <v>62.8</v>
+        <v>62.5</v>
       </c>
       <c r="K9">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>46.7</v>
+      </c>
+      <c r="L9">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="C10">
-        <v>77.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D10">
-        <v>71.09999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="E10">
-        <v>73.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F10">
         <v>74.90000000000001</v>
       </c>
       <c r="G10">
-        <v>80.90000000000001</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="H10">
-        <v>71.7</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="I10">
-        <v>62.8</v>
+        <v>60.2</v>
       </c>
       <c r="J10">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="K10">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="L10">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>38.7</v>
+      </c>
+      <c r="C11">
+        <v>8.1</v>
+      </c>
+      <c r="D11">
+        <v>3.6</v>
+      </c>
+      <c r="E11">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="F11">
+        <v>15.5</v>
+      </c>
+      <c r="G11">
+        <v>7.6</v>
+      </c>
+      <c r="H11">
+        <v>5.1</v>
+      </c>
+      <c r="I11">
+        <v>2.1</v>
+      </c>
+      <c r="J11">
+        <v>1.2</v>
+      </c>
+      <c r="K11">
+        <v>2.8</v>
+      </c>
+      <c r="L11">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
+        <v>2.4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6.3</v>
+      </c>
+      <c r="E12">
+        <v>2.2</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+      <c r="G12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.9</v>
+      </c>
+      <c r="I12">
+        <v>12.8</v>
+      </c>
+      <c r="J12">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.9</v>
+      </c>
+      <c r="D13">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="E13">
+        <v>27.4</v>
+      </c>
+      <c r="F13">
+        <v>12.4</v>
+      </c>
+      <c r="G13">
+        <v>7.8</v>
+      </c>
+      <c r="H13">
+        <v>2.4</v>
+      </c>
+      <c r="I13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K13">
         <v>2.5</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>1.9</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <v>7.3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>12.5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3.8</v>
-      </c>
-      <c r="D12">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="E12">
-        <v>29.2</v>
-      </c>
-      <c r="F12">
-        <v>13.8</v>
-      </c>
-      <c r="G12">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="H12">
-        <v>2.8</v>
-      </c>
-      <c r="I12">
-        <v>1.4</v>
-      </c>
-      <c r="J12">
-        <v>1.9</v>
-      </c>
-      <c r="K12">
-        <v>0.7000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>39.3</v>
-      </c>
-      <c r="C13">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D13">
-        <v>4.6</v>
-      </c>
-      <c r="E13">
-        <v>7.1</v>
-      </c>
-      <c r="F13">
-        <v>16.7</v>
-      </c>
-      <c r="G13">
-        <v>7.6</v>
-      </c>
-      <c r="H13">
-        <v>6.7</v>
-      </c>
-      <c r="I13">
-        <v>3.7</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>0.6</v>
+      <c r="L13">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -2772,86 +2829,86 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>127.88</v>
+        <v>120.448</v>
       </c>
       <c r="E2">
-        <v>1150.92</v>
+        <v>1204.48</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>121.0155555555555</v>
+        <v>127.762</v>
       </c>
       <c r="E3">
-        <v>1089.14</v>
+        <v>1277.62</v>
       </c>
       <c r="F3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2862,141 +2919,141 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>114.6666666666667</v>
+        <v>115.262</v>
       </c>
       <c r="E4">
-        <v>1032</v>
+        <v>1152.62</v>
       </c>
       <c r="F4">
-        <v>94.8</v>
+        <v>99.8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>111.2622222222222</v>
+        <v>125.314</v>
       </c>
       <c r="E5">
-        <v>1001.36</v>
+        <v>1253.14</v>
       </c>
       <c r="F5">
-        <v>90.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>122.9466666666667</v>
+        <v>108.206</v>
       </c>
       <c r="E6">
-        <v>1106.52</v>
+        <v>1082.06</v>
       </c>
       <c r="F6">
-        <v>88.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>109.8933333333333</v>
+        <v>120.312</v>
       </c>
       <c r="E7">
-        <v>989.04</v>
+        <v>1203.12</v>
       </c>
       <c r="F7">
-        <v>65.7</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>118.7466666666667</v>
+        <v>106.818</v>
       </c>
       <c r="E8">
-        <v>1068.72</v>
+        <v>1068.18</v>
       </c>
       <c r="F8">
-        <v>64</v>
+        <v>50.2</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3004,28 +3061,28 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>115.8977777777778</v>
+        <v>115.18</v>
       </c>
       <c r="E9">
-        <v>1043.08</v>
+        <v>1151.8</v>
       </c>
       <c r="F9">
-        <v>58.59999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3033,115 +3090,115 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>107.0577777777778</v>
+        <v>110.244</v>
       </c>
       <c r="E10">
-        <v>963.52</v>
+        <v>1102.44</v>
       </c>
       <c r="F10">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>102.5466666666667</v>
+        <v>100.658</v>
       </c>
       <c r="E11">
-        <v>922.92</v>
+        <v>1006.58</v>
       </c>
       <c r="F11">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>17.7</v>
+        <v>24.1</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>102.3844444444444</v>
+        <v>99.11200000000001</v>
       </c>
       <c r="E12">
-        <v>921.4599999999998</v>
+        <v>991.12</v>
       </c>
       <c r="F12">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
-        <v>40.3</v>
+        <v>37.1</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>100.2844444444444</v>
+        <v>100.38</v>
       </c>
       <c r="E13">
-        <v>902.5599999999999</v>
+        <v>1003.8</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G13">
-        <v>39.5</v>
+        <v>36.1</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3162,16 +3219,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3182,16 +3239,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3202,16 +3259,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3222,16 +3279,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3242,16 +3299,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3259,16 +3316,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -3279,19 +3336,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3302,16 +3359,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3319,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3339,19 +3396,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3359,19 +3416,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3379,19 +3436,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>-31</v>
+        <v>-37</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3402,16 +3459,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3421,45 +3478,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3490,11 +3550,14 @@
       <c r="J2">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3525,11 +3588,14 @@
       <c r="J3">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3558,13 +3624,16 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3593,83 +3662,92 @@
         <v>11</v>
       </c>
       <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-7</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3700,151 +3778,166 @@
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-3</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-7</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-5</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-6</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-5</v>
       </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
+      <c r="K10">
         <v>-3</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="B11">
         <v>-6</v>
       </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11">
+        <v>-23</v>
+      </c>
+      <c r="E11">
+        <v>-23</v>
+      </c>
+      <c r="F11">
+        <v>-29</v>
+      </c>
+      <c r="G11">
+        <v>-31</v>
+      </c>
+      <c r="H11">
+        <v>-29</v>
+      </c>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11">
+        <v>-31</v>
+      </c>
+      <c r="K11">
+        <v>-35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-12</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-13</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-24</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-31</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-25</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-30</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-29</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-28</v>
       </c>
-      <c r="K11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-13</v>
-      </c>
-      <c r="D12">
-        <v>-23</v>
-      </c>
-      <c r="E12">
-        <v>-23</v>
-      </c>
-      <c r="F12">
-        <v>-29</v>
-      </c>
-      <c r="G12">
-        <v>-31</v>
-      </c>
-      <c r="H12">
-        <v>-29</v>
-      </c>
-      <c r="I12">
-        <v>-28</v>
-      </c>
-      <c r="J12">
-        <v>-31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3873,10 +3966,13 @@
         <v>-28</v>
       </c>
       <c r="J13">
-        <v>-33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>105</v>
+        <v>-34</v>
+      </c>
+      <c r="K13">
+        <v>-41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3894,25 +3990,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3946,25 +4042,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3972,22 +4068,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="F4">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -3998,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="G5">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4024,25 +4120,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>-8</v>
+        <v>-29</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4050,25 +4146,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4076,25 +4172,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4105,22 +4201,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4128,25 +4224,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-15</v>
-      </c>
       <c r="F10">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4154,25 +4250,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="129">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -60,31 +60,34 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -177,6 +180,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -201,75 +207,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>10.5-3.5</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>7.8-6.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
   </si>
   <si>
     <t>6.2-7.8</t>
   </si>
   <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -303,60 +306,57 @@
     <t>Ted Wallach</t>
   </si>
   <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
+    <t>Matt Wallach</t>
   </si>
   <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -815,25 +818,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -856,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -865,13 +868,13 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -897,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -941,34 +944,34 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -985,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -997,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1006,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -1023,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1035,16 +1038,16 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1061,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1070,10 +1073,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1082,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1091,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1102,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1111,13 +1114,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1149,31 +1152,31 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1184,34 +1187,34 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
         <v>16</v>
@@ -1234,19 +1237,19 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -1255,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1284,10 +1287,10 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -1296,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1317,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1331,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1359,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1373,10 +1376,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1384,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1398,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1412,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1429,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1440,10 +1443,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5.583333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1454,13 +1457,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1468,13 +1471,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5.833333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1485,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1506,16 +1509,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1526,13 +1529,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>7.833333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.166666666666667</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1540,16 +1543,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6.583333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.416666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1557,16 +1560,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6.583333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D4">
-        <v>1.583333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1577,13 +1580,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.083333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D5">
-        <v>1.083333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1594,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.416666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1611,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5.333333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D7">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1625,16 +1628,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.75</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1645,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1659,16 +1662,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D10">
-        <v>-1.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1676,13 +1679,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.08333333333333348</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1693,13 +1696,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1713,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.666666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.3333333333333335</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1737,46 +1740,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1784,25 +1787,25 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>13.4</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>48.4</v>
+        <v>63.1</v>
       </c>
       <c r="D2">
-        <v>22.9</v>
+        <v>9.9</v>
       </c>
       <c r="E2">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1825,28 +1828,28 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>77.90000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>14.1</v>
+        <v>5.8</v>
       </c>
       <c r="D3">
-        <v>5.4</v>
+        <v>38.8</v>
       </c>
       <c r="E3">
-        <v>2.4</v>
+        <v>24.6</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>19.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1869,31 +1872,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>7.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C4">
-        <v>22.3</v>
+        <v>18.3</v>
       </c>
       <c r="D4">
-        <v>37.3</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
-        <v>16.5</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1908,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1916,180 +1919,180 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>12.3</v>
+        <v>22.2</v>
       </c>
       <c r="E5">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="F5">
-        <v>20.8</v>
+        <v>24.6</v>
       </c>
       <c r="G5">
-        <v>17.6</v>
+        <v>20.2</v>
       </c>
       <c r="H5">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="I5">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>90.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>21.4</v>
+        <v>25.6</v>
       </c>
       <c r="F6">
-        <v>19.3</v>
+        <v>27.5</v>
       </c>
       <c r="G6">
-        <v>16.6</v>
+        <v>23.4</v>
       </c>
       <c r="H6">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J6">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>86.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>8.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="E7">
-        <v>17.8</v>
+        <v>21.4</v>
       </c>
       <c r="F7">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="G7">
-        <v>18.8</v>
+        <v>25.3</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>9.4</v>
       </c>
       <c r="I7">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="J7">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>85.40000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="D8">
-        <v>2.1</v>
-      </c>
-      <c r="E8">
-        <v>4.5</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
       <c r="G8">
-        <v>13.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H8">
-        <v>20.5</v>
+        <v>37.2</v>
       </c>
       <c r="I8">
-        <v>19.4</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>19.2</v>
+        <v>14.2</v>
       </c>
       <c r="K8">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M8">
         <v>0.5</v>
       </c>
       <c r="N8">
-        <v>50.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2098,37 +2101,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="G9">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="H9">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="I9">
-        <v>22.8</v>
+        <v>31.5</v>
       </c>
       <c r="J9">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="K9">
-        <v>7.8</v>
+        <v>11.7</v>
       </c>
       <c r="L9">
         <v>2.9</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
-        <v>48.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2142,37 +2145,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="G10">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>23.3</v>
+        <v>21.5</v>
       </c>
       <c r="J10">
-        <v>22.9</v>
+        <v>25.8</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>22.6</v>
       </c>
       <c r="L10">
-        <v>6.8</v>
+        <v>10.6</v>
       </c>
       <c r="M10">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>31.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2192,31 +2195,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>11.7</v>
       </c>
       <c r="J11">
-        <v>12.3</v>
+        <v>28.5</v>
       </c>
       <c r="K11">
-        <v>27.1</v>
+        <v>28.3</v>
       </c>
       <c r="L11">
-        <v>28.9</v>
+        <v>20.5</v>
       </c>
       <c r="M11">
-        <v>24.1</v>
+        <v>7.3</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2239,28 +2242,28 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J12">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K12">
-        <v>20.4</v>
+        <v>17.5</v>
       </c>
       <c r="L12">
-        <v>27.7</v>
+        <v>30.4</v>
       </c>
       <c r="M12">
-        <v>37.1</v>
+        <v>40.8</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2280,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="K13">
-        <v>20.5</v>
+        <v>11.1</v>
       </c>
       <c r="L13">
-        <v>29.6</v>
+        <v>33.1</v>
       </c>
       <c r="M13">
-        <v>36.1</v>
+        <v>48.6</v>
       </c>
       <c r="N13">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2314,53 +2317,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="C2">
         <v>99.90000000000001</v>
@@ -2369,162 +2375,174 @@
         <v>99.59999999999999</v>
       </c>
       <c r="E2">
-        <v>82.3</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="F2">
-        <v>95.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="G2">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H2">
         <v>95.5</v>
       </c>
       <c r="I2">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J2">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>60.3</v>
+      </c>
+      <c r="C3">
+        <v>24.1</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>96.7</v>
+      </c>
+      <c r="H3">
+        <v>99.5</v>
+      </c>
+      <c r="I3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="J3">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="K3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>99.5</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>99.7</v>
       </c>
-      <c r="E3">
-        <v>99.2</v>
-      </c>
-      <c r="F3">
-        <v>99.2</v>
-      </c>
-      <c r="G3">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="H3">
-        <v>98</v>
-      </c>
-      <c r="I3">
-        <v>99.2</v>
-      </c>
-      <c r="J3">
+      <c r="F4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="H4">
+        <v>99.5</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
         <v>99.90000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>55.40000000000001</v>
-      </c>
-      <c r="C4">
-        <v>23.4</v>
-      </c>
-      <c r="D4">
-        <v>40.8</v>
-      </c>
-      <c r="E4">
-        <v>74.7</v>
-      </c>
-      <c r="F4">
-        <v>88.3</v>
-      </c>
-      <c r="G4">
-        <v>96.7</v>
-      </c>
-      <c r="H4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="I4">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="K4">
-        <v>98.8</v>
-      </c>
-      <c r="L4">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>78.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C5">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>96.39999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E5">
-        <v>74.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F5">
-        <v>56.8</v>
+        <v>52.2</v>
       </c>
       <c r="G5">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H5">
-        <v>75.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="I5">
-        <v>51.8</v>
+        <v>51.5</v>
       </c>
       <c r="J5">
-        <v>65</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="K5">
-        <v>90.5</v>
+        <v>89.2</v>
       </c>
       <c r="L5">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>98.5</v>
+      </c>
+      <c r="M5">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C6">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>75.3</v>
       </c>
       <c r="E6">
-        <v>94.39999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="F6">
-        <v>95.7</v>
+        <v>96.2</v>
       </c>
       <c r="G6">
         <v>89.8</v>
@@ -2533,214 +2551,232 @@
         <v>93.30000000000001</v>
       </c>
       <c r="I6">
-        <v>76.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J6">
-        <v>88.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K6">
-        <v>83.7</v>
+        <v>85.8</v>
       </c>
       <c r="L6">
-        <v>87.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>96.5</v>
+      </c>
+      <c r="M6">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>58.09999999999999</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="D7">
-        <v>52.8</v>
+        <v>50.7</v>
       </c>
       <c r="E7">
-        <v>25.8</v>
+        <v>23.7</v>
       </c>
       <c r="F7">
-        <v>50.8</v>
+        <v>51.4</v>
       </c>
       <c r="G7">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="H7">
-        <v>57.49999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="I7">
-        <v>78.5</v>
+        <v>77</v>
       </c>
       <c r="J7">
         <v>90.10000000000001</v>
       </c>
       <c r="K7">
-        <v>85.5</v>
+        <v>84.8</v>
       </c>
       <c r="L7">
-        <v>84.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C8">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="D8">
+        <v>50.5</v>
+      </c>
+      <c r="E8">
+        <v>44.2</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>32.8</v>
+      </c>
+      <c r="H8">
+        <v>36.8</v>
+      </c>
+      <c r="I8">
+        <v>44.2</v>
+      </c>
+      <c r="J8">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="K8">
+        <v>46.7</v>
+      </c>
+      <c r="L8">
+        <v>41.7</v>
+      </c>
+      <c r="M8">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>99.59999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="F8">
-        <v>86.2</v>
-      </c>
-      <c r="G8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <v>77.8</v>
-      </c>
-      <c r="J8">
-        <v>62.4</v>
-      </c>
-      <c r="K8">
-        <v>52.8</v>
-      </c>
-      <c r="L8">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>70.7</v>
-      </c>
-      <c r="C9">
-        <v>79.10000000000001</v>
-      </c>
-      <c r="D9">
-        <v>49.8</v>
-      </c>
       <c r="E9">
-        <v>39.2</v>
+        <v>96.7</v>
       </c>
       <c r="F9">
-        <v>24.7</v>
+        <v>84.7</v>
       </c>
       <c r="G9">
-        <v>31.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H9">
-        <v>36.2</v>
+        <v>63.2</v>
       </c>
       <c r="I9">
-        <v>44.6</v>
+        <v>76</v>
       </c>
       <c r="J9">
-        <v>62.5</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="K9">
-        <v>46.7</v>
+        <v>52.5</v>
       </c>
       <c r="L9">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.5</v>
+      </c>
+      <c r="M9">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="C10">
-        <v>75.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D10">
-        <v>70.19999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E10">
-        <v>74.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="F10">
-        <v>74.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G10">
-        <v>79.60000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H10">
-        <v>71.89999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="I10">
-        <v>60.2</v>
+        <v>64.5</v>
       </c>
       <c r="J10">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="K10">
-        <v>33.90000000000001</v>
+        <v>34</v>
       </c>
       <c r="L10">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>21.5</v>
+      </c>
+      <c r="M10">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>38.7</v>
+        <v>41.5</v>
       </c>
       <c r="C11">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="E11">
-        <v>8.200000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F11">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="G11">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2749,31 +2785,34 @@
         <v>6.3</v>
       </c>
       <c r="E12">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G12">
-        <v>8.699999999999999</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I12">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="J12">
-        <v>5.899999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="K12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L12">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2781,34 +2820,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D13">
-        <v>6.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="E13">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="F13">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="G13">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J13">
+        <v>1.3</v>
+      </c>
+      <c r="K13">
+        <v>1.8</v>
+      </c>
+      <c r="L13">
         <v>0.7000000000000001</v>
       </c>
-      <c r="K13">
-        <v>2.5</v>
-      </c>
-      <c r="L13">
-        <v>1.8</v>
+      <c r="M13">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2826,31 +2868,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2858,16 +2900,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>120.448</v>
+        <v>124.1781818181818</v>
       </c>
       <c r="E2">
-        <v>1204.48</v>
+        <v>1365.96</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2876,27 +2918,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>127.762</v>
+        <v>114.0490909090909</v>
       </c>
       <c r="E3">
-        <v>1277.62</v>
+        <v>1254.54</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -2905,39 +2947,39 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D4">
-        <v>115.262</v>
+        <v>128.0145454545455</v>
       </c>
       <c r="E4">
-        <v>1152.62</v>
+        <v>1408.16</v>
       </c>
       <c r="F4">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2945,144 +2987,144 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5">
-        <v>125.314</v>
+        <v>128.6381818181818</v>
       </c>
       <c r="E5">
-        <v>1253.14</v>
+        <v>1415.02</v>
       </c>
       <c r="F5">
-        <v>90.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>108.206</v>
+        <v>121.6218181818182</v>
       </c>
       <c r="E6">
-        <v>1082.06</v>
+        <v>1337.84</v>
       </c>
       <c r="F6">
-        <v>86.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D7">
-        <v>120.312</v>
+        <v>106.0436363636364</v>
       </c>
       <c r="E7">
-        <v>1203.12</v>
+        <v>1166.48</v>
       </c>
       <c r="F7">
-        <v>85.39999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>106.818</v>
+        <v>114.06</v>
       </c>
       <c r="E8">
-        <v>1068.18</v>
+        <v>1254.66</v>
       </c>
       <c r="F8">
-        <v>50.2</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>115.18</v>
+        <v>104.6636363636364</v>
       </c>
       <c r="E9">
-        <v>1151.8</v>
+        <v>1151.3</v>
       </c>
       <c r="F9">
-        <v>48.8</v>
+        <v>36.5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3090,28 +3132,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>110.244</v>
+        <v>106.2672727272727</v>
       </c>
       <c r="E10">
-        <v>1102.44</v>
+        <v>1168.94</v>
       </c>
       <c r="F10">
-        <v>31.8</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3119,28 +3161,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>100.658</v>
+        <v>99.0381818181818</v>
       </c>
       <c r="E11">
-        <v>1006.58</v>
+        <v>1089.42</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>24.1</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3148,28 +3190,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D12">
+        <v>97.73454545454547</v>
+      </c>
+      <c r="E12">
+        <v>1075.08</v>
+      </c>
+      <c r="F12">
         <v>0.3</v>
       </c>
-      <c r="D12">
-        <v>99.11200000000001</v>
-      </c>
-      <c r="E12">
-        <v>991.12</v>
-      </c>
-      <c r="F12">
-        <v>2.5</v>
-      </c>
       <c r="G12">
-        <v>37.1</v>
+        <v>40.8</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3177,28 +3219,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D13">
-        <v>100.38</v>
+        <v>98.40363636363637</v>
       </c>
       <c r="E13">
-        <v>1003.8</v>
+        <v>1082.44</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>36.1</v>
+        <v>48.6</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3216,19 +3258,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3239,16 +3281,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3259,16 +3301,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3279,16 +3321,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3299,16 +3341,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3319,16 +3361,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3336,19 +3378,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3356,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3376,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3396,19 +3438,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3416,19 +3458,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3436,16 +3478,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>-37</v>
+        <v>-43</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>109</v>
@@ -3459,10 +3501,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>-41</v>
+        <v>-47</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -3478,13 +3520,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
@@ -3516,10 +3558,13 @@
         <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3553,11 +3598,14 @@
       <c r="K2">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3591,11 +3639,14 @@
       <c r="K3">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3629,11 +3680,14 @@
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3667,11 +3721,14 @@
       <c r="K5">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3705,239 +3762,260 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-11</v>
+      </c>
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-3</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>-7</v>
       </c>
-      <c r="K7">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L10">
+        <v>-8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-12</v>
+      </c>
+      <c r="D11">
+        <v>-13</v>
+      </c>
+      <c r="E11">
+        <v>-24</v>
+      </c>
+      <c r="F11">
+        <v>-31</v>
+      </c>
+      <c r="G11">
+        <v>-25</v>
+      </c>
+      <c r="H11">
+        <v>-30</v>
+      </c>
+      <c r="I11">
+        <v>-29</v>
+      </c>
+      <c r="J11">
+        <v>-28</v>
+      </c>
+      <c r="K11">
+        <v>-37</v>
+      </c>
+      <c r="L11">
+        <v>-34</v>
+      </c>
+      <c r="M11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="B12">
         <v>-6</v>
       </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-11</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10">
-        <v>-6</v>
-      </c>
-      <c r="J10">
-        <v>-5</v>
-      </c>
-      <c r="K10">
-        <v>-3</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
+      <c r="C12">
         <v>-13</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-23</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-23</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-29</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-31</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-29</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-28</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-31</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-35</v>
       </c>
-      <c r="L11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-8</v>
-      </c>
-      <c r="C12">
-        <v>-12</v>
-      </c>
-      <c r="D12">
-        <v>-13</v>
-      </c>
-      <c r="E12">
-        <v>-24</v>
-      </c>
-      <c r="F12">
-        <v>-31</v>
-      </c>
-      <c r="G12">
-        <v>-25</v>
-      </c>
-      <c r="H12">
-        <v>-30</v>
-      </c>
-      <c r="I12">
-        <v>-29</v>
-      </c>
-      <c r="J12">
-        <v>-28</v>
-      </c>
-      <c r="K12">
-        <v>-37</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>-43</v>
+      </c>
+      <c r="M12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3971,7 +4049,10 @@
       <c r="K13">
         <v>-41</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>-47</v>
+      </c>
+      <c r="M13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3990,25 +4071,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4042,22 +4123,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="F3">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -4068,25 +4149,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4094,22 +4175,22 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="F5">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -4120,25 +4201,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="G6">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4146,25 +4227,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="F7">
-        <v>-3</v>
+        <v>-29</v>
       </c>
       <c r="G7">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4172,22 +4253,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -4201,22 +4282,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4224,25 +4305,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>5</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4250,25 +4331,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
       <c r="F11">
-        <v>6</v>
+        <v>-13</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="137">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -183,6 +184,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -237,16 +295,19 @@
     <t>10.8-3.2</t>
   </si>
   <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
     <t>7.8-6.2</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
+    <t>5.8-8.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7</t>
   </si>
   <si>
     <t>5.3-8.7</t>
@@ -258,7 +319,7 @@
     <t>4.1-9.9</t>
   </si>
   <si>
-    <t>3.9-10.1</t>
+    <t>3.8-10.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -289,42 +350,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Zach Wallach</t>
-  </si>
-  <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
   </si>
   <si>
     <t>↑4</t>
@@ -1307,6 +1332,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>-25</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>-43</v>
+      </c>
+      <c r="F3">
+        <v>-8</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-35</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>-34</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-29</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1787,22 +2108,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="C2">
         <v>63.1</v>
       </c>
       <c r="D2">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1831,25 +2152,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="D3">
-        <v>38.8</v>
+        <v>39.5</v>
       </c>
       <c r="E3">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F3">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="G3">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="H3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1875,16 +2196,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>78.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C4">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1922,28 +2243,28 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D5">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="E5">
-        <v>21.8</v>
+        <v>22.4</v>
       </c>
       <c r="F5">
-        <v>24.6</v>
+        <v>19.9</v>
       </c>
       <c r="G5">
-        <v>20.2</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1955,39 +2276,39 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="E6">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="F6">
-        <v>27.5</v>
+        <v>24.9</v>
       </c>
       <c r="G6">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1999,36 +2320,36 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="E7">
-        <v>21.4</v>
+        <v>23.1</v>
       </c>
       <c r="F7">
-        <v>22.5</v>
+        <v>30.3</v>
       </c>
       <c r="G7">
-        <v>25.3</v>
+        <v>22.9</v>
       </c>
       <c r="H7">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="I7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2043,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2063,31 +2384,31 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G8">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H8">
-        <v>37.2</v>
+        <v>36.3</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="J8">
-        <v>14.2</v>
+        <v>17.3</v>
       </c>
       <c r="K8">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L8">
         <v>2.5</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>46</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2101,37 +2422,37 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>4.1</v>
+      </c>
+      <c r="G9">
+        <v>8.6</v>
+      </c>
+      <c r="H9">
+        <v>25.9</v>
+      </c>
+      <c r="I9">
+        <v>30.9</v>
+      </c>
+      <c r="J9">
+        <v>17.5</v>
+      </c>
+      <c r="K9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>2.4</v>
+      </c>
+      <c r="M9">
         <v>0.1</v>
       </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>3.1</v>
-      </c>
-      <c r="G9">
-        <v>9.4</v>
-      </c>
-      <c r="H9">
-        <v>22.4</v>
-      </c>
-      <c r="I9">
-        <v>31.5</v>
-      </c>
-      <c r="J9">
-        <v>17.1</v>
-      </c>
-      <c r="K9">
-        <v>11.7</v>
-      </c>
-      <c r="L9">
-        <v>2.9</v>
-      </c>
-      <c r="M9">
-        <v>0.3</v>
-      </c>
       <c r="N9">
-        <v>36.5</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2151,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="I10">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>25.8</v>
+        <v>27.2</v>
       </c>
       <c r="K10">
-        <v>22.6</v>
+        <v>26.1</v>
       </c>
       <c r="L10">
-        <v>10.6</v>
+        <v>8.9</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N10">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2198,28 +2519,28 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H11">
         <v>3.2</v>
       </c>
       <c r="I11">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="J11">
-        <v>28.5</v>
+        <v>25.1</v>
       </c>
       <c r="K11">
-        <v>28.3</v>
+        <v>30.9</v>
       </c>
       <c r="L11">
-        <v>20.5</v>
+        <v>18.9</v>
       </c>
       <c r="M11">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="N11">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2245,25 +2566,25 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="J12">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K12">
-        <v>17.5</v>
+        <v>14.9</v>
       </c>
       <c r="L12">
-        <v>30.4</v>
+        <v>33.3</v>
       </c>
       <c r="M12">
-        <v>40.8</v>
+        <v>39.9</v>
       </c>
       <c r="N12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2292,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="J13">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="K13">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="L13">
-        <v>33.1</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>48.6</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2366,34 +2687,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>92.30000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>83.39999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="F2">
-        <v>96.7</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G2">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="H2">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="I2">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J2">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2404,40 +2725,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>60.3</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>24.1</v>
+        <v>99.8</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E3">
-        <v>75.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F3">
-        <v>88.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="G3">
-        <v>96.7</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="H3">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I3">
-        <v>97.39999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="J3">
-        <v>93.30000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K3">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2445,43 +2766,43 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="C4">
-        <v>99.5</v>
+        <v>22.8</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>38.6</v>
       </c>
       <c r="E4">
-        <v>99.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F4">
-        <v>98.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>95.39999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H4">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>96.2</v>
       </c>
       <c r="J4">
+        <v>93.7</v>
+      </c>
+      <c r="K4">
+        <v>98.5</v>
+      </c>
+      <c r="L4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="M4">
         <v>99.90000000000001</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2489,78 +2810,78 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D5">
-        <v>97.5</v>
+        <v>96.7</v>
       </c>
       <c r="E5">
-        <v>74.59999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="F5">
-        <v>52.2</v>
+        <v>54.7</v>
       </c>
       <c r="G5">
-        <v>68.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="H5">
-        <v>74.2</v>
+        <v>76.5</v>
       </c>
       <c r="I5">
-        <v>51.5</v>
+        <v>49</v>
       </c>
       <c r="J5">
-        <v>68.10000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K5">
-        <v>89.2</v>
+        <v>90.5</v>
       </c>
       <c r="L5">
         <v>98.5</v>
       </c>
       <c r="M5">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>96.7</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>98.2</v>
+        <v>15.6</v>
       </c>
       <c r="D6">
-        <v>75.3</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>94.19999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="F6">
-        <v>96.2</v>
+        <v>51.2</v>
       </c>
       <c r="G6">
-        <v>89.8</v>
+        <v>43.7</v>
       </c>
       <c r="H6">
-        <v>93.30000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="I6">
-        <v>76.09999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="J6">
-        <v>86.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="K6">
-        <v>85.8</v>
+        <v>85</v>
       </c>
       <c r="L6">
-        <v>96.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M6">
         <v>98.8</v>
@@ -2568,40 +2889,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>96.2</v>
       </c>
       <c r="C7">
-        <v>12.3</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>50.7</v>
+        <v>76.7</v>
       </c>
       <c r="E7">
-        <v>23.7</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>51.4</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="G7">
-        <v>42.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H7">
-        <v>57.7</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="I7">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="J7">
-        <v>90.10000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="K7">
-        <v>84.8</v>
+        <v>84.2</v>
       </c>
       <c r="L7">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="M7">
         <v>98</v>
@@ -2612,40 +2933,40 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>70.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C8">
-        <v>79.80000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="D8">
-        <v>50.5</v>
+        <v>53.8</v>
       </c>
       <c r="E8">
-        <v>44.2</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G8">
-        <v>32.8</v>
+        <v>34.9</v>
       </c>
       <c r="H8">
-        <v>36.8</v>
+        <v>34</v>
       </c>
       <c r="I8">
-        <v>44.2</v>
+        <v>45.5</v>
       </c>
       <c r="J8">
-        <v>66.10000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="K8">
-        <v>46.7</v>
+        <v>50.2</v>
       </c>
       <c r="L8">
-        <v>41.7</v>
+        <v>39.7</v>
       </c>
       <c r="M8">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2653,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2662,31 +2983,31 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>96.7</v>
+        <v>97.2</v>
       </c>
       <c r="F9">
-        <v>84.7</v>
+        <v>87.8</v>
       </c>
       <c r="G9">
-        <v>72.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H9">
-        <v>63.2</v>
+        <v>61.5</v>
       </c>
       <c r="I9">
-        <v>76</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="J9">
-        <v>59.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>52.5</v>
+        <v>51.8</v>
       </c>
       <c r="L9">
-        <v>35.5</v>
+        <v>38.9</v>
       </c>
       <c r="M9">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2694,40 +3015,40 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="C10">
-        <v>75.5</v>
+        <v>74.8</v>
       </c>
       <c r="D10">
-        <v>76.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E10">
-        <v>69.3</v>
+        <v>73.5</v>
       </c>
       <c r="F10">
-        <v>75.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="G10">
-        <v>82.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="H10">
-        <v>69.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I10">
-        <v>64.5</v>
+        <v>62.5</v>
       </c>
       <c r="J10">
-        <v>32.4</v>
+        <v>34.5</v>
       </c>
       <c r="K10">
-        <v>34</v>
+        <v>30.4</v>
       </c>
       <c r="L10">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2735,40 +3056,40 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>41.5</v>
+        <v>42.1</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="D11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H11">
-        <v>5.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
         <v>2.5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K11">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L11">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2776,40 +3097,40 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.3</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="F12">
         <v>0.7000000000000001</v>
       </c>
       <c r="G12">
-        <v>7.399999999999999</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H12">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
-        <v>11.7</v>
+        <v>14.6</v>
       </c>
       <c r="J12">
-        <v>5.600000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="K12">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2820,37 +3141,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D13">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="E13">
-        <v>28.5</v>
+        <v>30.1</v>
       </c>
       <c r="F13">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="G13">
-        <v>7.9</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J13">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L13">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2867,380 +3188,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.273</v>
+      </c>
+      <c r="F2">
+        <v>121.23</v>
+      </c>
+      <c r="G2">
+        <v>0.667</v>
+      </c>
+      <c r="H2">
+        <v>23.3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>128.64</v>
+      </c>
+      <c r="E3">
+        <v>0.545</v>
+      </c>
+      <c r="F3">
+        <v>116.04</v>
+      </c>
+      <c r="G3">
+        <v>0.697</v>
+      </c>
+      <c r="H3">
+        <v>13.7</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>106.27</v>
+      </c>
+      <c r="E4">
+        <v>0.364</v>
+      </c>
+      <c r="F4">
+        <v>114.3</v>
+      </c>
+      <c r="G4">
+        <v>0.515</v>
+      </c>
+      <c r="H4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>104.66</v>
+      </c>
+      <c r="E5">
+        <v>0.455</v>
+      </c>
+      <c r="F5">
+        <v>113.98</v>
+      </c>
+      <c r="G5">
+        <v>0.424</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>128.01</v>
+      </c>
+      <c r="E6">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F6">
+        <v>116.22</v>
+      </c>
+      <c r="G6">
+        <v>0.455</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>124.1781818181818</v>
-      </c>
-      <c r="E2">
-        <v>1365.96</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>106.04</v>
+      </c>
+      <c r="E7">
+        <v>0.636</v>
+      </c>
+      <c r="F7">
+        <v>117.28</v>
+      </c>
+      <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7">
+        <v>4.3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>121.62</v>
+      </c>
+      <c r="E8">
+        <v>0.545</v>
+      </c>
+      <c r="F8">
+        <v>110.36</v>
+      </c>
+      <c r="G8">
+        <v>0.515</v>
+      </c>
+      <c r="H8">
+        <v>-0.7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>97.73</v>
+      </c>
+      <c r="E9">
+        <v>0.273</v>
+      </c>
+      <c r="F9">
+        <v>112.43</v>
+      </c>
+      <c r="G9">
+        <v>0.485</v>
+      </c>
+      <c r="H9">
+        <v>-4.7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D10">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.364</v>
+      </c>
+      <c r="F10">
+        <v>105.94</v>
+      </c>
+      <c r="G10">
+        <v>0.515</v>
+      </c>
+      <c r="H10">
+        <v>-12.7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>114.06</v>
+      </c>
+      <c r="E11">
+        <v>0.364</v>
+      </c>
+      <c r="F11">
+        <v>102.89</v>
+      </c>
+      <c r="G11">
+        <v>0.364</v>
+      </c>
+      <c r="H11">
+        <v>-14</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>124.18</v>
+      </c>
+      <c r="E12">
+        <v>0.727</v>
+      </c>
+      <c r="F12">
+        <v>103.35</v>
+      </c>
+      <c r="G12">
+        <v>0.424</v>
+      </c>
+      <c r="H12">
+        <v>-15</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D3">
-        <v>114.0490909090909</v>
-      </c>
-      <c r="E3">
-        <v>1254.54</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D4">
-        <v>128.0145454545455</v>
-      </c>
-      <c r="E4">
-        <v>1408.16</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D5">
-        <v>128.6381818181818</v>
-      </c>
-      <c r="E5">
-        <v>1415.02</v>
-      </c>
-      <c r="F5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="D13">
+        <v>114.05</v>
+      </c>
+      <c r="E13">
+        <v>0.636</v>
+      </c>
+      <c r="F13">
+        <v>108.69</v>
+      </c>
+      <c r="G13">
+        <v>0.394</v>
+      </c>
+      <c r="H13">
+        <v>-18</v>
+      </c>
+      <c r="I13">
         <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>121.6218181818182</v>
-      </c>
-      <c r="E6">
-        <v>1337.84</v>
-      </c>
-      <c r="F6">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D7">
-        <v>106.0436363636364</v>
-      </c>
-      <c r="E7">
-        <v>1166.48</v>
-      </c>
-      <c r="F7">
-        <v>98.5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D8">
-        <v>114.06</v>
-      </c>
-      <c r="E8">
-        <v>1254.66</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>104.6636363636364</v>
-      </c>
-      <c r="E9">
-        <v>1151.3</v>
-      </c>
-      <c r="F9">
-        <v>36.5</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>106.2672727272727</v>
-      </c>
-      <c r="E10">
-        <v>1168.94</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>2.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D11">
-        <v>99.0381818181818</v>
-      </c>
-      <c r="E11">
-        <v>1089.42</v>
-      </c>
-      <c r="F11">
-        <v>3.7</v>
-      </c>
-      <c r="G11">
-        <v>7.3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D12">
-        <v>97.73454545454547</v>
-      </c>
-      <c r="E12">
-        <v>1075.08</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>40.8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D13">
-        <v>98.40363636363637</v>
-      </c>
-      <c r="E13">
-        <v>1082.44</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>48.6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3249,6 +3567,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>124.1781818181818</v>
+      </c>
+      <c r="E2">
+        <v>1365.96</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D3">
+        <v>114.0490909090909</v>
+      </c>
+      <c r="E3">
+        <v>1254.54</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D4">
+        <v>128.0145454545455</v>
+      </c>
+      <c r="E4">
+        <v>1408.16</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D5">
+        <v>128.6381818181818</v>
+      </c>
+      <c r="E5">
+        <v>1415.02</v>
+      </c>
+      <c r="F5">
+        <v>99.2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D6">
+        <v>106.0436363636364</v>
+      </c>
+      <c r="E6">
+        <v>1166.48</v>
+      </c>
+      <c r="F6">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>121.6218181818182</v>
+      </c>
+      <c r="E7">
+        <v>1337.84</v>
+      </c>
+      <c r="F7">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>114.06</v>
+      </c>
+      <c r="E8">
+        <v>1254.66</v>
+      </c>
+      <c r="F8">
+        <v>44.2</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>104.6636363636364</v>
+      </c>
+      <c r="E9">
+        <v>1151.3</v>
+      </c>
+      <c r="F9">
+        <v>39.3</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D10">
+        <v>106.2672727272727</v>
+      </c>
+      <c r="E10">
+        <v>1168.94</v>
+      </c>
+      <c r="F10">
+        <v>15.5</v>
+      </c>
+      <c r="G10">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>99.0381818181818</v>
+      </c>
+      <c r="E11">
+        <v>1089.42</v>
+      </c>
+      <c r="F11">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="G11">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D12">
+        <v>97.73454545454547</v>
+      </c>
+      <c r="E12">
+        <v>1075.08</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>98.40363636363637</v>
+      </c>
+      <c r="E13">
+        <v>1082.44</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3261,16 +3969,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3281,7 +3989,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>45</v>
@@ -3290,7 +3998,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3301,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>36</v>
@@ -3310,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3321,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -3330,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3341,7 +4049,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -3350,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3361,7 +4069,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -3370,7 +4078,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3381,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3390,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3401,7 +4109,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3410,7 +4118,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3421,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>-3</v>
@@ -3430,7 +4138,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3441,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>-8</v>
@@ -3450,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3461,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>-34</v>
@@ -3470,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3481,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-43</v>
@@ -3490,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3501,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>-47</v>
@@ -3510,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +4226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3528,40 +4236,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3602,7 +4310,7 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3643,7 +4351,7 @@
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3684,7 +4392,7 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3725,7 +4433,7 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3766,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3807,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3848,7 +4556,7 @@
         <v>-1</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3889,7 +4597,7 @@
         <v>-3</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3930,7 +4638,7 @@
         <v>-8</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3971,7 +4679,7 @@
         <v>-34</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4012,7 +4720,7 @@
         <v>-43</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4053,303 +4761,7 @@
         <v>-47</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>-25</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>-43</v>
-      </c>
-      <c r="F3">
-        <v>-8</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-35</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
-      </c>
-      <c r="F5">
-        <v>-34</v>
-      </c>
-      <c r="G5">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>-7</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-29</v>
-      </c>
-      <c r="G7">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="135">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -295,15 +295,12 @@
     <t>10.8-3.2</t>
   </si>
   <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
     <t>7.8-6.2</t>
   </si>
   <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
     <t>5.8-8.1</t>
   </si>
   <si>
@@ -313,13 +310,10 @@
     <t>5.3-8.7</t>
   </si>
   <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
     <t>4.1-9.9</t>
   </si>
   <si>
-    <t>3.8-10.1</t>
+    <t>3.9-10.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -1342,25 +1336,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2108,22 +2102,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>20.7</v>
+        <v>22.8</v>
       </c>
       <c r="C2">
-        <v>63.1</v>
+        <v>60.2</v>
       </c>
       <c r="D2">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2152,25 +2146,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
-        <v>39.5</v>
+        <v>37.4</v>
       </c>
       <c r="E3">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="F3">
-        <v>18.4</v>
+        <v>20.9</v>
       </c>
       <c r="G3">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2196,13 +2190,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>77.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C4">
-        <v>18.4</v>
+        <v>20.3</v>
       </c>
       <c r="D4">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2240,31 +2234,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="D5">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="E5">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="F5">
-        <v>19.9</v>
+        <v>21.4</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>21.4</v>
       </c>
       <c r="H5">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2276,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2284,31 +2278,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>25.1</v>
+        <v>22.9</v>
       </c>
       <c r="F6">
-        <v>24.9</v>
+        <v>22.4</v>
       </c>
       <c r="G6">
-        <v>22.6</v>
+        <v>26.9</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2320,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2328,28 +2322,28 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>23.1</v>
+        <v>24.2</v>
       </c>
       <c r="F7">
-        <v>30.3</v>
+        <v>28.4</v>
       </c>
       <c r="G7">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="H7">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="I7">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2364,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2384,31 +2378,31 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G8">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="H8">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="I8">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="J8">
-        <v>17.3</v>
+        <v>15.1</v>
       </c>
       <c r="K8">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="L8">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>44.2</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2422,37 +2416,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9">
-        <v>25.9</v>
+        <v>24.7</v>
       </c>
       <c r="I9">
-        <v>30.9</v>
+        <v>28.2</v>
       </c>
       <c r="J9">
-        <v>17.5</v>
+        <v>18.8</v>
       </c>
       <c r="K9">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L9">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2472,31 +2466,31 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>24.2</v>
       </c>
       <c r="J10">
-        <v>27.2</v>
+        <v>24.5</v>
       </c>
       <c r="K10">
-        <v>26.1</v>
+        <v>24.1</v>
       </c>
       <c r="L10">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2519,28 +2513,28 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="J11">
-        <v>25.1</v>
+        <v>27.9</v>
       </c>
       <c r="K11">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="L11">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="M11">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="N11">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2566,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J12">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K12">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="L12">
-        <v>33.3</v>
+        <v>32.8</v>
       </c>
       <c r="M12">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="N12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2613,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="J13">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="K13">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>31.9</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2687,34 +2681,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>93.10000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>83.89999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="F2">
-        <v>95.39999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="G2">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H2">
-        <v>96.5</v>
+        <v>94.8</v>
       </c>
       <c r="I2">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J2">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2731,28 +2725,28 @@
         <v>100</v>
       </c>
       <c r="C3">
+        <v>99.5</v>
+      </c>
+      <c r="D3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>98.5</v>
+      </c>
+      <c r="G3">
+        <v>95.3</v>
+      </c>
+      <c r="H3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I3">
         <v>99.8</v>
       </c>
-      <c r="D3">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>98.7</v>
-      </c>
-      <c r="G3">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="H3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I3">
-        <v>99.3</v>
-      </c>
       <c r="J3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2769,37 +2763,37 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>56.89999999999999</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>26.3</v>
       </c>
       <c r="D4">
-        <v>38.6</v>
+        <v>35.7</v>
       </c>
       <c r="E4">
-        <v>73.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F4">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="G4">
-        <v>96.89999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="H4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>96.8</v>
+      </c>
+      <c r="J4">
+        <v>94.5</v>
+      </c>
+      <c r="K4">
         <v>98.8</v>
       </c>
-      <c r="I4">
-        <v>96.2</v>
-      </c>
-      <c r="J4">
-        <v>93.7</v>
-      </c>
-      <c r="K4">
-        <v>98.5</v>
-      </c>
       <c r="L4">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="M4">
         <v>99.90000000000001</v>
@@ -2810,37 +2804,37 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C5">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D5">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E5">
-        <v>70.89999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F5">
         <v>54.7</v>
       </c>
       <c r="G5">
-        <v>68.8</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="H5">
-        <v>76.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I5">
         <v>49</v>
       </c>
       <c r="J5">
-        <v>64.90000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="K5">
-        <v>90.5</v>
+        <v>89.3</v>
       </c>
       <c r="L5">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M5">
         <v>99.59999999999999</v>
@@ -2848,84 +2842,84 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="C6">
-        <v>15.6</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>78.2</v>
       </c>
       <c r="E6">
-        <v>25.7</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="F6">
-        <v>51.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G6">
-        <v>43.7</v>
+        <v>88.7</v>
       </c>
       <c r="H6">
-        <v>56.00000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="I6">
-        <v>77.60000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J6">
-        <v>88.8</v>
+        <v>87.2</v>
       </c>
       <c r="K6">
-        <v>85</v>
+        <v>83.8</v>
       </c>
       <c r="L6">
-        <v>96.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="M6">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>96.2</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>11.8</v>
       </c>
       <c r="D7">
-        <v>76.7</v>
+        <v>51.9</v>
       </c>
       <c r="E7">
-        <v>94</v>
+        <v>23.6</v>
       </c>
       <c r="F7">
-        <v>95.89999999999999</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="G7">
-        <v>89.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>93.60000000000001</v>
+        <v>53.7</v>
       </c>
       <c r="I7">
-        <v>76.5</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="J7">
-        <v>87.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K7">
-        <v>84.2</v>
+        <v>84.5</v>
       </c>
       <c r="L7">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2933,40 +2927,40 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>67.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C8">
-        <v>81.3</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>53.8</v>
+        <v>48.4</v>
       </c>
       <c r="E8">
-        <v>41</v>
+        <v>42.1</v>
       </c>
       <c r="F8">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="G8">
-        <v>34.9</v>
+        <v>32.4</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>36.6</v>
       </c>
       <c r="I8">
-        <v>45.5</v>
+        <v>43.9</v>
       </c>
       <c r="J8">
-        <v>63.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="K8">
-        <v>50.2</v>
+        <v>49.1</v>
       </c>
       <c r="L8">
-        <v>39.7</v>
+        <v>44.1</v>
       </c>
       <c r="M8">
-        <v>45.3</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2974,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2983,31 +2977,31 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <v>87.8</v>
+        <v>85.3</v>
       </c>
       <c r="G9">
-        <v>70.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="H9">
-        <v>61.5</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="I9">
-        <v>76.90000000000001</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>51.8</v>
+        <v>54.7</v>
       </c>
       <c r="L9">
-        <v>38.9</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>36.3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3015,40 +3009,40 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>74.8</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="D10">
-        <v>67.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E10">
-        <v>73.5</v>
+        <v>71.7</v>
       </c>
       <c r="F10">
-        <v>73.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G10">
-        <v>79</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="H10">
-        <v>73.40000000000001</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="I10">
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="J10">
-        <v>34.5</v>
+        <v>31.7</v>
       </c>
       <c r="K10">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>23.1</v>
       </c>
       <c r="M10">
-        <v>16.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3056,40 +3050,40 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>42.1</v>
+        <v>38.8</v>
       </c>
       <c r="C11">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F11">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="G11">
-        <v>8.200000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="J11">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K11">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L11">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3097,40 +3091,40 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>6.1</v>
+      </c>
+      <c r="E12">
+        <v>1.9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
         <v>5.899999999999999</v>
       </c>
-      <c r="E12">
-        <v>1.7</v>
-      </c>
-      <c r="F12">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="G12">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="H12">
-        <v>2.6</v>
-      </c>
-      <c r="I12">
-        <v>14.6</v>
-      </c>
-      <c r="J12">
-        <v>5.4</v>
-      </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>0.8999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3141,37 +3135,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D13">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E13">
-        <v>30.1</v>
+        <v>27.1</v>
       </c>
       <c r="F13">
-        <v>14.6</v>
+        <v>12.1</v>
       </c>
       <c r="G13">
         <v>7.399999999999999</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="J13">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K13">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3226,8 +3220,8 @@
       <c r="D2">
         <v>98.40000000000001</v>
       </c>
-      <c r="E2">
-        <v>0.273</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2">
         <v>121.23</v>
@@ -3255,8 +3249,8 @@
       <c r="D3">
         <v>128.64</v>
       </c>
-      <c r="E3">
-        <v>0.545</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
         <v>116.04</v>
@@ -3284,8 +3278,8 @@
       <c r="D4">
         <v>106.27</v>
       </c>
-      <c r="E4">
-        <v>0.364</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>114.3</v>
@@ -3313,8 +3307,8 @@
       <c r="D5">
         <v>104.66</v>
       </c>
-      <c r="E5">
-        <v>0.455</v>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
       <c r="F5">
         <v>113.98</v>
@@ -3342,8 +3336,8 @@
       <c r="D6">
         <v>128.01</v>
       </c>
-      <c r="E6">
-        <v>0.8179999999999999</v>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6">
         <v>116.22</v>
@@ -3371,8 +3365,8 @@
       <c r="D7">
         <v>106.04</v>
       </c>
-      <c r="E7">
-        <v>0.636</v>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>117.28</v>
@@ -3400,8 +3394,8 @@
       <c r="D8">
         <v>121.62</v>
       </c>
-      <c r="E8">
-        <v>0.545</v>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="F8">
         <v>110.36</v>
@@ -3429,8 +3423,8 @@
       <c r="D9">
         <v>97.73</v>
       </c>
-      <c r="E9">
-        <v>0.273</v>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
       <c r="F9">
         <v>112.43</v>
@@ -3458,8 +3452,8 @@
       <c r="D10">
         <v>99.04000000000001</v>
       </c>
-      <c r="E10">
-        <v>0.364</v>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
       <c r="F10">
         <v>105.94</v>
@@ -3487,8 +3481,8 @@
       <c r="D11">
         <v>114.06</v>
       </c>
-      <c r="E11">
-        <v>0.364</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11">
         <v>102.89</v>
@@ -3516,8 +3510,8 @@
       <c r="D12">
         <v>124.18</v>
       </c>
-      <c r="E12">
-        <v>0.727</v>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
       <c r="F12">
         <v>103.35</v>
@@ -3545,8 +3539,8 @@
       <c r="D13">
         <v>114.05</v>
       </c>
-      <c r="E13">
-        <v>0.636</v>
+      <c r="E13" t="s">
+        <v>19</v>
       </c>
       <c r="F13">
         <v>108.69</v>
@@ -3629,7 +3623,7 @@
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3658,7 +3652,7 @@
         <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3687,7 +3681,7 @@
         <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3707,7 +3701,7 @@
         <v>1415.02</v>
       </c>
       <c r="F5">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3716,7 +3710,7 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3736,7 +3730,7 @@
         <v>1166.48</v>
       </c>
       <c r="F6">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3745,7 +3739,7 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3765,16 +3759,16 @@
         <v>1337.84</v>
       </c>
       <c r="F7">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3794,16 +3788,16 @@
         <v>1254.66</v>
       </c>
       <c r="F8">
-        <v>44.2</v>
+        <v>44.9</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3823,16 +3817,16 @@
         <v>1151.3</v>
       </c>
       <c r="F9">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3852,16 +3846,16 @@
         <v>1168.94</v>
       </c>
       <c r="F10">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3881,16 +3875,16 @@
         <v>1089.42</v>
       </c>
       <c r="F11">
-        <v>4.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>7.399999999999999</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3910,16 +3904,16 @@
         <v>1075.08</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
-        <v>39.90000000000001</v>
+        <v>40.9</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3942,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3969,16 +3963,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3998,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4018,7 +4012,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4038,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4058,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4078,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4098,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4118,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4138,7 +4132,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4158,7 +4152,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4178,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4198,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4218,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4236,40 +4230,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4310,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4351,7 +4345,7 @@
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4392,7 +4386,7 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4433,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4474,7 +4468,7 @@
         <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4515,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4556,7 +4550,7 @@
         <v>-1</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4597,7 +4591,7 @@
         <v>-3</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4638,7 +4632,7 @@
         <v>-8</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4679,7 +4673,7 @@
         <v>-34</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4720,7 +4714,7 @@
         <v>-43</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4761,7 +4755,7 @@
         <v>-47</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="140">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,34 +61,37 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -184,6 +187,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -211,10 +217,19 @@
     <t>Zach Wallach</t>
   </si>
   <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Noah Wallach</t>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Jordan Wallach</t>
@@ -223,24 +238,15 @@
     <t>Gabe Musty</t>
   </si>
   <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
     <t>Michael Dickert</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -265,58 +271,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>5.8-8.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>11.3-2.7</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>4.8-9.1</t>
+  </si>
+  <si>
+    <t>3.5-10.5</t>
   </si>
   <si>
     <t>9-5</t>
@@ -331,10 +340,13 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -346,36 +358,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -407,6 +419,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -840,34 +855,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -878,16 +893,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -899,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -908,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -949,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -960,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -987,10 +1002,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -998,40 +1013,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1039,40 +1054,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1080,28 +1095,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1124,37 +1139,37 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1165,16 +1180,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1183,19 +1198,19 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1209,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1221,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1233,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1244,40 +1259,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1288,37 +1303,37 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
         <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,25 +1351,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1466,25 +1481,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1492,25 +1507,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="G7">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1518,25 +1533,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>-29</v>
       </c>
       <c r="G8">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1544,22 +1559,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -1573,48 +1588,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1632,13 +1621,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1646,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1663,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1674,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.75</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1688,13 +1677,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1705,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1719,10 +1708,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1730,10 +1719,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1744,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1761,10 +1750,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1772,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6.166666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1786,10 +1775,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1803,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6.916666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1824,16 +1813,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1844,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>8.583333333333334</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D2">
         <v>-0.4166666666666661</v>
@@ -1861,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>7.583333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D3">
-        <v>1.583333333333333</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1878,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1895,13 +1884,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.916666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D5">
-        <v>0.916666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1909,16 +1898,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>6.083333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D6">
-        <v>-0.916666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1926,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D7">
-        <v>1.916666666666667</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1943,16 +1932,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.916666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-2.083333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1963,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1977,16 +1966,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1997,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3.083333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D11">
-        <v>0.08333333333333348</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2011,16 +2000,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2028,16 +2017,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-1.083333333333333</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2055,46 +2044,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2102,22 +2091,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>22.8</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>60.2</v>
+        <v>61.7</v>
       </c>
       <c r="D2">
-        <v>11.8</v>
+        <v>26.2</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2146,25 +2135,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>17.8</v>
       </c>
       <c r="D3">
-        <v>37.4</v>
+        <v>41.4</v>
       </c>
       <c r="E3">
-        <v>25.1</v>
+        <v>26.6</v>
       </c>
       <c r="F3">
-        <v>20.9</v>
+        <v>12.3</v>
       </c>
       <c r="G3">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H3">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2190,16 +2179,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>75.8</v>
+        <v>99.8</v>
       </c>
       <c r="C4">
-        <v>20.3</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2234,31 +2223,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>21.8</v>
+        <v>23.2</v>
       </c>
       <c r="E5">
-        <v>22.8</v>
+        <v>33.8</v>
       </c>
       <c r="F5">
-        <v>21.4</v>
+        <v>13.9</v>
       </c>
       <c r="G5">
-        <v>21.4</v>
+        <v>9.1</v>
       </c>
       <c r="H5">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2270,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2278,31 +2267,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="E6">
-        <v>22.9</v>
+        <v>14.1</v>
       </c>
       <c r="F6">
-        <v>22.4</v>
+        <v>30.8</v>
       </c>
       <c r="G6">
-        <v>26.9</v>
+        <v>29.6</v>
       </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2314,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2322,29 +2311,29 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2.7</v>
+      </c>
+      <c r="E7">
+        <v>19.3</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>7.9</v>
+      </c>
+      <c r="I7">
         <v>2.1</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>24.2</v>
-      </c>
-      <c r="F7">
-        <v>28.4</v>
-      </c>
-      <c r="G7">
-        <v>23.5</v>
-      </c>
-      <c r="H7">
-        <v>6.9</v>
-      </c>
-      <c r="I7">
-        <v>1.7</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -2358,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2375,39 +2364,39 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F8">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="G8">
-        <v>7.6</v>
+        <v>12.2</v>
       </c>
       <c r="H8">
-        <v>36.4</v>
+        <v>45.8</v>
       </c>
       <c r="I8">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="J8">
-        <v>15.1</v>
+        <v>8.5</v>
       </c>
       <c r="K8">
-        <v>9.6</v>
+        <v>3.8</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>44.9</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2416,42 +2405,42 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G9">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H9">
-        <v>24.7</v>
+        <v>20.6</v>
       </c>
       <c r="I9">
-        <v>28.2</v>
+        <v>37.4</v>
       </c>
       <c r="J9">
-        <v>18.8</v>
+        <v>23.4</v>
       </c>
       <c r="K9">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>38.8</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2466,36 +2455,36 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H10">
-        <v>13.2</v>
+        <v>8.1</v>
       </c>
       <c r="I10">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="J10">
-        <v>24.5</v>
+        <v>44.5</v>
       </c>
       <c r="K10">
-        <v>24.1</v>
+        <v>13.9</v>
       </c>
       <c r="L10">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
-        <v>15.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2513,33 +2502,33 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>27.9</v>
+        <v>10.2</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="L11">
-        <v>18.8</v>
+        <v>43.1</v>
       </c>
       <c r="M11">
-        <v>6.8</v>
+        <v>11.4</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2560,25 +2549,25 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="J12">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>15.5</v>
+        <v>40.5</v>
       </c>
       <c r="L12">
-        <v>32.8</v>
+        <v>40.9</v>
       </c>
       <c r="M12">
-        <v>40.9</v>
+        <v>4.9</v>
       </c>
       <c r="N12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2607,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>31.9</v>
+        <v>12.4</v>
       </c>
       <c r="M13">
-        <v>49.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2632,83 +2621,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>93.60000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E2">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="F2">
-        <v>96.2</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G2">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I2">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J2">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2716,131 +2708,143 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="C3">
-        <v>99.5</v>
+        <v>25.6</v>
       </c>
       <c r="D3">
-        <v>99.90000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="E3">
-        <v>98.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F3">
-        <v>98.5</v>
+        <v>87.8</v>
       </c>
       <c r="G3">
-        <v>95.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H3">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I3">
-        <v>99.8</v>
+        <v>97.2</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>26.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D4">
-        <v>35.7</v>
+        <v>99.8</v>
       </c>
       <c r="E4">
-        <v>73.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F4">
-        <v>87.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G4">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="H4">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="I4">
-        <v>96.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J4">
-        <v>94.5</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>74.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="C5">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D5">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E5">
-        <v>76.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F5">
-        <v>54.7</v>
+        <v>56.2</v>
       </c>
       <c r="G5">
-        <v>70.39999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="H5">
-        <v>75.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5">
-        <v>65.2</v>
+        <v>65</v>
       </c>
       <c r="K5">
-        <v>89.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="L5">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="M5">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2848,286 +2852,307 @@
         <v>96.89999999999999</v>
       </c>
       <c r="C6">
+        <v>96.5</v>
+      </c>
+      <c r="D6">
+        <v>78.3</v>
+      </c>
+      <c r="E6">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="F6">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="G6">
+        <v>89.8</v>
+      </c>
+      <c r="H6">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="I6">
+        <v>78.2</v>
+      </c>
+      <c r="J6">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K6">
+        <v>81.8</v>
+      </c>
+      <c r="L6">
         <v>97.09999999999999</v>
       </c>
-      <c r="D6">
-        <v>78.2</v>
-      </c>
-      <c r="E6">
-        <v>94.39999999999999</v>
-      </c>
-      <c r="F6">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="G6">
-        <v>88.7</v>
-      </c>
-      <c r="H6">
-        <v>94.3</v>
-      </c>
-      <c r="I6">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J6">
-        <v>87.2</v>
-      </c>
-      <c r="K6">
-        <v>83.8</v>
-      </c>
-      <c r="L6">
-        <v>97.59999999999999</v>
-      </c>
       <c r="M6">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>90.8</v>
+      </c>
+      <c r="N6">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="C7">
-        <v>11.8</v>
+        <v>14.7</v>
       </c>
       <c r="D7">
-        <v>51.9</v>
+        <v>49.6</v>
       </c>
       <c r="E7">
-        <v>23.6</v>
+        <v>26.9</v>
       </c>
       <c r="F7">
-        <v>54.90000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="G7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>53.7</v>
       </c>
       <c r="I7">
-        <v>79.80000000000001</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="J7">
-        <v>88.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K7">
-        <v>84.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="L7">
-        <v>97.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M7">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>94.5</v>
+      </c>
+      <c r="N7">
+        <v>97.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>69.59999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D8">
-        <v>48.4</v>
+        <v>53.2</v>
       </c>
       <c r="E8">
+        <v>40.8</v>
+      </c>
+      <c r="F8">
+        <v>24.8</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>35.5</v>
+      </c>
+      <c r="I8">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>66.2</v>
+      </c>
+      <c r="K8">
+        <v>46.6</v>
+      </c>
+      <c r="L8">
         <v>42.1</v>
       </c>
-      <c r="F8">
-        <v>22.6</v>
-      </c>
-      <c r="G8">
-        <v>32.4</v>
-      </c>
-      <c r="H8">
-        <v>36.6</v>
-      </c>
-      <c r="I8">
-        <v>43.9</v>
-      </c>
-      <c r="J8">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K8">
-        <v>49.1</v>
-      </c>
-      <c r="L8">
-        <v>44.1</v>
-      </c>
       <c r="M8">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>62.4</v>
+      </c>
+      <c r="N8">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>4.8</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="E9">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F9">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="G9">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>71.2</v>
+      </c>
+      <c r="I9">
+        <v>63.7</v>
+      </c>
+      <c r="J9">
+        <v>33.1</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="L9">
+        <v>21.2</v>
+      </c>
+      <c r="M9">
+        <v>29.2</v>
+      </c>
+      <c r="N9">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>99.7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>97</v>
-      </c>
-      <c r="F9">
-        <v>85.3</v>
-      </c>
-      <c r="G9">
-        <v>70.7</v>
-      </c>
-      <c r="H9">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="I9">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="J9">
-        <v>64</v>
-      </c>
-      <c r="K9">
-        <v>54.7</v>
-      </c>
-      <c r="L9">
-        <v>32</v>
-      </c>
-      <c r="M9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>77.10000000000001</v>
-      </c>
-      <c r="D10">
-        <v>71.59999999999999</v>
-      </c>
       <c r="E10">
-        <v>71.7</v>
+        <v>96.8</v>
       </c>
       <c r="F10">
-        <v>74.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="G10">
-        <v>80.60000000000001</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="H10">
-        <v>71.39999999999999</v>
+        <v>65</v>
       </c>
       <c r="I10">
-        <v>64.5</v>
+        <v>76.8</v>
       </c>
       <c r="J10">
-        <v>31.7</v>
+        <v>61.2</v>
       </c>
       <c r="K10">
-        <v>30.6</v>
+        <v>54.3</v>
       </c>
       <c r="L10">
-        <v>23.1</v>
+        <v>35.7</v>
       </c>
       <c r="M10">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.2</v>
+      </c>
+      <c r="N10">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2.7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7.3</v>
+      </c>
+      <c r="E11">
+        <v>1.7</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11">
+        <v>7.1</v>
+      </c>
+      <c r="H11">
+        <v>2.6</v>
+      </c>
+      <c r="I11">
+        <v>13.2</v>
+      </c>
+      <c r="J11">
+        <v>5.1</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>1.1</v>
+      </c>
+      <c r="M11">
+        <v>2.1</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>38.8</v>
-      </c>
-      <c r="C11">
-        <v>4.8</v>
-      </c>
-      <c r="D11">
-        <v>4.2</v>
-      </c>
-      <c r="E11">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F11">
-        <v>17.4</v>
-      </c>
-      <c r="G11">
-        <v>7.9</v>
-      </c>
-      <c r="H11">
-        <v>6.2</v>
-      </c>
-      <c r="I11">
-        <v>1.7</v>
-      </c>
-      <c r="J11">
-        <v>1.1</v>
-      </c>
-      <c r="K11">
-        <v>3.9</v>
-      </c>
-      <c r="L11">
-        <v>6.2</v>
-      </c>
-      <c r="M11">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B12">
-        <v>3</v>
+        <v>40.8</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="D12">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="E12">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F12">
+        <v>15.1</v>
+      </c>
+      <c r="G12">
+        <v>8.6</v>
+      </c>
+      <c r="H12">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I12">
         <v>1.9</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="H12">
-        <v>2.5</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
       <c r="J12">
-        <v>5.899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L12">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.9</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3135,37 +3160,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D13">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="E13">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
       <c r="F13">
-        <v>12.1</v>
+        <v>13.9</v>
       </c>
       <c r="G13">
         <v>7.399999999999999</v>
       </c>
       <c r="H13">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L13">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3211,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3215,25 +3243,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>98.40000000000001</v>
+        <v>96.09</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>121.23</v>
+        <v>127.07</v>
       </c>
       <c r="G2">
         <v>0.667</v>
       </c>
       <c r="H2">
-        <v>23.3</v>
+        <v>43.5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3244,25 +3272,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>128.64</v>
+        <v>128.21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>116.04</v>
+        <v>121.67</v>
       </c>
       <c r="G3">
-        <v>0.697</v>
+        <v>0.75</v>
       </c>
       <c r="H3">
-        <v>13.7</v>
+        <v>23.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3270,28 +3298,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>106.27</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>114.3</v>
+        <v>119.26</v>
       </c>
       <c r="G4">
-        <v>0.515</v>
+        <v>0.542</v>
       </c>
       <c r="H4">
-        <v>9.699999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3302,25 +3330,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>104.66</v>
+        <v>105.55</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>113.98</v>
+        <v>116.93</v>
       </c>
       <c r="G5">
-        <v>0.424</v>
+        <v>0.458</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3328,28 +3356,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>128.01</v>
+        <v>110.44</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>116.22</v>
+        <v>111.53</v>
       </c>
       <c r="G6">
-        <v>0.455</v>
+        <v>0.417</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3357,28 +3385,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>106.04</v>
+        <v>112.61</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>117.28</v>
+        <v>113.97</v>
       </c>
       <c r="G7">
-        <v>0.545</v>
+        <v>0.458</v>
       </c>
       <c r="H7">
-        <v>4.3</v>
+        <v>-6</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3386,28 +3414,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>121.62</v>
+        <v>99.73</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>110.36</v>
+        <v>107.69</v>
       </c>
       <c r="G8">
-        <v>0.515</v>
+        <v>0.625</v>
       </c>
       <c r="H8">
-        <v>-0.7</v>
+        <v>-8</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3415,28 +3443,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>97.73</v>
+        <v>130.73</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>112.43</v>
+        <v>112.15</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.417</v>
       </c>
       <c r="H9">
-        <v>-4.7</v>
+        <v>-11.5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3444,28 +3472,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>99.04000000000001</v>
+        <v>102.77</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>105.94</v>
+        <v>110.37</v>
       </c>
       <c r="G10">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>-12.7</v>
+        <v>-12</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3476,25 +3504,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>114.06</v>
+        <v>117.51</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>102.89</v>
+        <v>105.22</v>
       </c>
       <c r="G11">
-        <v>0.364</v>
+        <v>0.375</v>
       </c>
       <c r="H11">
-        <v>-14</v>
+        <v>-19.5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3505,25 +3533,25 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>124.18</v>
+        <v>121.02</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>103.35</v>
+        <v>101.38</v>
       </c>
       <c r="G12">
-        <v>0.424</v>
+        <v>0.458</v>
       </c>
       <c r="H12">
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3531,28 +3559,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>114.05</v>
+        <v>123.42</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>108.69</v>
+        <v>100.82</v>
       </c>
       <c r="G13">
-        <v>0.394</v>
+        <v>0.333</v>
       </c>
       <c r="H13">
-        <v>-18</v>
+        <v>-26.5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3570,31 +3598,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3602,16 +3630,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>124.1781818181818</v>
+        <v>121.015</v>
       </c>
       <c r="E2">
-        <v>1365.96</v>
+        <v>1452.18</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3620,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3631,16 +3659,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>114.0490909090909</v>
+        <v>112.6083333333333</v>
       </c>
       <c r="E3">
-        <v>1254.54</v>
+        <v>1351.3</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3649,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3660,16 +3688,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
-        <v>128.0145454545455</v>
+        <v>130.7316666666667</v>
       </c>
       <c r="E4">
-        <v>1408.16</v>
+        <v>1568.78</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3678,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3689,28 +3717,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>128.6381818181818</v>
+        <v>128.2083333333333</v>
       </c>
       <c r="E5">
-        <v>1415.02</v>
+        <v>1538.5</v>
       </c>
       <c r="F5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3718,28 +3746,28 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>106.0436363636364</v>
+        <v>102.77</v>
       </c>
       <c r="E6">
-        <v>1166.48</v>
+        <v>1233.24</v>
       </c>
       <c r="F6">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3747,28 +3775,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>121.6218181818182</v>
+        <v>123.4166666666667</v>
       </c>
       <c r="E7">
-        <v>1337.84</v>
+        <v>1481</v>
       </c>
       <c r="F7">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3776,144 +3804,144 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>114.06</v>
+        <v>117.515</v>
       </c>
       <c r="E8">
-        <v>1254.66</v>
+        <v>1410.18</v>
       </c>
       <c r="F8">
-        <v>44.9</v>
+        <v>59.9</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>104.6636363636364</v>
+        <v>110.4416666666667</v>
       </c>
       <c r="E9">
-        <v>1151.3</v>
+        <v>1325.3</v>
       </c>
       <c r="F9">
-        <v>38.8</v>
+        <v>31.3</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>106.2672727272727</v>
+        <v>105.5516666666667</v>
       </c>
       <c r="E10">
-        <v>1168.94</v>
+        <v>1266.62</v>
       </c>
       <c r="F10">
-        <v>15.7</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>99.0381818181818</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>1089.42</v>
+        <v>1200</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>6.800000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>97.73454545454547</v>
+        <v>99.73333333333331</v>
       </c>
       <c r="E12">
-        <v>1075.08</v>
+        <v>1196.8</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>40.9</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3921,28 +3949,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>98.40363636363637</v>
+        <v>96.09166666666668</v>
       </c>
       <c r="E13">
-        <v>1082.44</v>
+        <v>1153.1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3960,19 +3988,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3983,16 +4011,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4000,19 +4028,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4020,19 +4048,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4043,16 +4071,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4063,16 +4091,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4083,16 +4111,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4100,19 +4128,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4120,19 +4148,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4140,19 +4168,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4163,16 +4191,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4186,13 +4214,13 @@
         <v>68</v>
       </c>
       <c r="D12">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4203,16 +4231,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4222,51 +4250,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4303,93 +4334,102 @@
       <c r="L2">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>15</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4426,11 +4466,14 @@
       <c r="L5">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4467,11 +4510,14 @@
       <c r="L6">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4508,134 +4554,146 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
         <v>-6</v>
       </c>
-      <c r="C8">
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
         <v>-3</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-11</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-11</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-8</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-7</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-5</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-6</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>-5</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-3</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-1</v>
       </c>
-      <c r="M8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="M9">
+        <v>-7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-3</v>
       </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>-7</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>-8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4672,11 +4730,14 @@
       <c r="L11">
         <v>-34</v>
       </c>
-      <c r="M11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4713,11 +4774,14 @@
       <c r="L12">
         <v>-43</v>
       </c>
-      <c r="M12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4754,8 +4818,11 @@
       <c r="L13">
         <v>-47</v>
       </c>
-      <c r="M13" t="s">
-        <v>116</v>
+      <c r="M13">
+        <v>-55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="142">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,37 +61,40 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,6 +193,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -211,39 +217,39 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Zach Wallach</t>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
   </si>
   <si>
     <t>Matt Wallach</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
+    <t>Ted Wallach</t>
   </si>
   <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
     <t>Michael Dickert</t>
   </si>
   <si>
@@ -271,84 +277,84 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>11.3-2.7</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
   </si>
   <si>
     <t>7.4-6.6</t>
   </si>
   <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
-  </si>
-  <si>
-    <t>3.5-10.5</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>11.5-2.5</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>3.2-10.8</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -358,36 +364,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↓4</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -852,37 +858,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -893,37 +899,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -934,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -943,10 +949,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -972,40 +978,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1016,37 +1022,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1054,40 +1060,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1095,31 +1101,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1136,28 +1142,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1166,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -1180,37 +1186,37 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,40 +1224,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1262,37 +1268,37 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1300,40 +1306,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1351,25 +1357,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1377,25 +1383,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="F2">
-        <v>-25</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1403,25 +1409,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-43</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="G3">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1429,22 +1435,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="F4">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>1</v>
@@ -1455,25 +1461,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1481,25 +1487,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>-42</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1507,22 +1513,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -1533,77 +1539,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
       <c r="F8">
-        <v>-29</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1575,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1635,13 +1589,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1649,13 +1603,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1666,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1677,13 +1631,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1691,13 +1645,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>5.666666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1708,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1722,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1736,10 +1690,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1750,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1761,13 +1715,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.916666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1775,13 +1729,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1792,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7.666666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1813,16 +1767,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1833,13 +1787,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>9.583333333333334</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.4166666666666661</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1850,13 +1804,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.166666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D3">
-        <v>1.166666666666666</v>
+        <v>1.666666666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1864,16 +1818,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7.666666666666667</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D4">
-        <v>-0.333333333333333</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1881,13 +1835,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7.583333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D5">
-        <v>1.583333333333333</v>
+        <v>-0.8333333333333339</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1898,16 +1852,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1915,16 +1869,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D7">
-        <v>-1.583333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1935,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5.666666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.666666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1952,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>0.166666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1969,13 +1923,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.916666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-2.083333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1983,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2000,16 +1954,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3.25</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.75</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2020,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.083333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333348</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -2044,69 +1998,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>61.7</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.9</v>
+        <v>59.5</v>
       </c>
       <c r="F2">
-        <v>4.5</v>
+        <v>33.7</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2132,25 +2086,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>17.8</v>
+        <v>75.2</v>
       </c>
       <c r="D3">
-        <v>41.4</v>
+        <v>24.8</v>
       </c>
       <c r="E3">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2176,28 +2130,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2220,28 +2174,28 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>24.8</v>
       </c>
       <c r="D5">
-        <v>23.2</v>
+        <v>75.2</v>
       </c>
       <c r="E5">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2264,31 +2218,31 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2303,12 +2257,12 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2317,22 +2271,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>19.3</v>
+        <v>36.1</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>45.5</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18.4</v>
       </c>
       <c r="H7">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2347,12 +2301,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2364,39 +2318,39 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>12.2</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>45.8</v>
+        <v>29.4</v>
       </c>
       <c r="I8">
-        <v>27.3</v>
+        <v>23.8</v>
       </c>
       <c r="J8">
-        <v>8.5</v>
+        <v>14.8</v>
       </c>
       <c r="K8">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2411,31 +2365,31 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>20.6</v>
+        <v>30.2</v>
       </c>
       <c r="I9">
-        <v>37.4</v>
+        <v>44.9</v>
       </c>
       <c r="J9">
-        <v>23.4</v>
+        <v>18.7</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2455,36 +2409,36 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I10">
-        <v>27.3</v>
+        <v>24.4</v>
       </c>
       <c r="J10">
-        <v>44.5</v>
+        <v>45.9</v>
       </c>
       <c r="K10">
-        <v>13.9</v>
+        <v>19.8</v>
       </c>
       <c r="L10">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2508,19 +2462,19 @@
         <v>0.1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>10.2</v>
+        <v>20.1</v>
       </c>
       <c r="K11">
-        <v>31.2</v>
+        <v>64.3</v>
       </c>
       <c r="L11">
-        <v>43.1</v>
+        <v>8.6</v>
       </c>
       <c r="M11">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0.1</v>
@@ -2528,7 +2482,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2552,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>40.9</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>4.9</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2572,7 +2526,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2599,16 +2553,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L13">
-        <v>12.4</v>
+        <v>81.8</v>
       </c>
       <c r="M13">
-        <v>83.59999999999999</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2621,133 +2575,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>92.90000000000001</v>
+        <v>59.8</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>99.8</v>
+        <v>52.8</v>
       </c>
       <c r="E2">
-        <v>84.2</v>
+        <v>24.6</v>
       </c>
       <c r="F2">
-        <v>94.19999999999999</v>
+        <v>54.6</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>46.9</v>
       </c>
       <c r="H2">
-        <v>95.59999999999999</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="I2">
-        <v>98.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J2">
-        <v>96.59999999999999</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>57.09999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="C3">
-        <v>25.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D3">
-        <v>35.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E3">
-        <v>75.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="F3">
-        <v>87.8</v>
+        <v>94.3</v>
       </c>
       <c r="G3">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="H3">
-        <v>98.7</v>
+        <v>95</v>
       </c>
       <c r="I3">
-        <v>97.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J3">
-        <v>92.80000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K3">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L3">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2755,272 +2715,293 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>97.5</v>
+      </c>
+      <c r="C4">
+        <v>97.3</v>
+      </c>
+      <c r="D4">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E4">
+        <v>92.7</v>
+      </c>
+      <c r="F4">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H4">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="I4">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="J4">
+        <v>86.7</v>
+      </c>
+      <c r="K4">
+        <v>84.7</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>87.8</v>
+      </c>
+      <c r="N4">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D4">
-        <v>99.8</v>
-      </c>
-      <c r="E4">
-        <v>99.5</v>
-      </c>
-      <c r="F4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>95.5</v>
-      </c>
-      <c r="H4">
-        <v>98.3</v>
-      </c>
-      <c r="I4">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="C5">
+        <v>26.8</v>
+      </c>
+      <c r="D5">
+        <v>36.1</v>
+      </c>
+      <c r="E5">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F5">
+        <v>86.8</v>
+      </c>
+      <c r="G5">
+        <v>97</v>
+      </c>
+      <c r="H5">
+        <v>98.5</v>
+      </c>
+      <c r="I5">
+        <v>97.7</v>
+      </c>
+      <c r="J5">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="K5">
         <v>99.40000000000001</v>
       </c>
-      <c r="J4">
+      <c r="L5">
+        <v>99.2</v>
+      </c>
+      <c r="M5">
         <v>100</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>75.2</v>
-      </c>
-      <c r="C5">
-        <v>99.5</v>
-      </c>
-      <c r="D5">
-        <v>96.8</v>
-      </c>
-      <c r="E5">
-        <v>72.2</v>
-      </c>
-      <c r="F5">
-        <v>56.2</v>
-      </c>
-      <c r="G5">
-        <v>68.10000000000001</v>
-      </c>
-      <c r="H5">
-        <v>76</v>
-      </c>
-      <c r="I5">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>65</v>
-      </c>
-      <c r="K5">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="L5">
-        <v>98.7</v>
-      </c>
-      <c r="M5">
-        <v>99.90000000000001</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>96.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>96.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D6">
-        <v>78.3</v>
+        <v>99.7</v>
       </c>
       <c r="E6">
-        <v>93.30000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F6">
-        <v>96.39999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="G6">
-        <v>89.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H6">
-        <v>94.19999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I6">
-        <v>78.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J6">
-        <v>89.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>81.8</v>
+        <v>100</v>
       </c>
       <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="C7">
+        <v>99.2</v>
+      </c>
+      <c r="D7">
         <v>97.09999999999999</v>
       </c>
-      <c r="M6">
-        <v>90.8</v>
-      </c>
-      <c r="N6">
+      <c r="E7">
+        <v>75.2</v>
+      </c>
+      <c r="F7">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="G7">
+        <v>67.2</v>
+      </c>
+      <c r="H7">
+        <v>77.7</v>
+      </c>
+      <c r="I7">
+        <v>51.7</v>
+      </c>
+      <c r="J7">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="K7">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="L7">
         <v>98.90000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="C7">
-        <v>14.7</v>
-      </c>
-      <c r="D7">
-        <v>49.6</v>
-      </c>
-      <c r="E7">
-        <v>26.9</v>
-      </c>
-      <c r="F7">
-        <v>53.5</v>
-      </c>
-      <c r="G7">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>53.7</v>
-      </c>
-      <c r="I7">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="J7">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="K7">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="L7">
-        <v>97.89999999999999</v>
-      </c>
       <c r="M7">
-        <v>94.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N7">
-        <v>97.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="C8">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D8">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G8">
+        <v>83.7</v>
+      </c>
+      <c r="H8">
+        <v>74.3</v>
+      </c>
+      <c r="I8">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>32.1</v>
+      </c>
+      <c r="K8">
+        <v>30.3</v>
+      </c>
+      <c r="L8">
+        <v>18.9</v>
+      </c>
+      <c r="M8">
+        <v>32.6</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>69.8</v>
-      </c>
-      <c r="C8">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="D8">
-        <v>53.2</v>
-      </c>
-      <c r="E8">
-        <v>40.8</v>
-      </c>
-      <c r="F8">
-        <v>24.8</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>35.5</v>
-      </c>
-      <c r="I8">
-        <v>46</v>
-      </c>
-      <c r="J8">
-        <v>66.2</v>
-      </c>
-      <c r="K8">
-        <v>46.6</v>
-      </c>
-      <c r="L8">
-        <v>42.1</v>
-      </c>
-      <c r="M8">
-        <v>62.4</v>
-      </c>
-      <c r="N8">
-        <v>59.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B9">
-        <v>4.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D9">
-        <v>68.40000000000001</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>74.90000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="F9">
-        <v>73.09999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="G9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>71.2</v>
+        <v>33.1</v>
       </c>
       <c r="I9">
-        <v>63.7</v>
+        <v>44.6</v>
       </c>
       <c r="J9">
-        <v>33.1</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="K9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L9">
-        <v>21.2</v>
+        <v>40.7</v>
       </c>
       <c r="M9">
-        <v>29.2</v>
+        <v>62.1</v>
       </c>
       <c r="N9">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>36.5</v>
+      </c>
+      <c r="O9">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,165 +3015,177 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="F10">
-        <v>85.8</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G10">
-        <v>71.89999999999999</v>
+        <v>71</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>61.5</v>
       </c>
       <c r="I10">
-        <v>76.8</v>
+        <v>78.5</v>
       </c>
       <c r="J10">
-        <v>61.2</v>
+        <v>62.6</v>
       </c>
       <c r="K10">
-        <v>54.3</v>
+        <v>52.3</v>
       </c>
       <c r="L10">
-        <v>35.7</v>
+        <v>38.9</v>
       </c>
       <c r="M10">
-        <v>19.2</v>
+        <v>18.6</v>
       </c>
       <c r="N10">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>10.6</v>
+      </c>
+      <c r="O10">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2.7</v>
+        <v>38.7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="D11">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>14.9</v>
       </c>
       <c r="G11">
         <v>7.1</v>
       </c>
       <c r="H11">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="I11">
-        <v>13.2</v>
+        <v>1.4</v>
       </c>
       <c r="J11">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
         <v>3.5</v>
       </c>
       <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+      <c r="N11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>3.4</v>
+      </c>
+      <c r="D12">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="E12">
+        <v>28.7</v>
+      </c>
+      <c r="F12">
+        <v>14.7</v>
+      </c>
+      <c r="G12">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>1.1</v>
       </c>
-      <c r="M11">
+      <c r="J12">
+        <v>1.7</v>
+      </c>
+      <c r="K12">
         <v>2.1</v>
       </c>
-      <c r="N11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>40.8</v>
-      </c>
-      <c r="C12">
-        <v>7.6</v>
-      </c>
-      <c r="D12">
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>3.1</v>
       </c>
-      <c r="E12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F12">
-        <v>15.1</v>
-      </c>
-      <c r="G12">
-        <v>8.6</v>
-      </c>
-      <c r="H12">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="I12">
-        <v>1.9</v>
-      </c>
-      <c r="J12">
-        <v>0.6</v>
-      </c>
-      <c r="K12">
-        <v>4.6</v>
-      </c>
-      <c r="L12">
-        <v>6.9</v>
-      </c>
-      <c r="M12">
-        <v>1.9</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>4.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="E13">
-        <v>25.4</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
-        <v>13.9</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
-        <v>7.399999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I13">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="K13">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3211,28 +3204,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3240,28 +3233,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>96.09</v>
+        <v>126.4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>127.07</v>
+        <v>129.61</v>
       </c>
       <c r="G2">
-        <v>0.667</v>
+        <v>0.846</v>
       </c>
       <c r="H2">
-        <v>43.5</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3269,28 +3262,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>128.21</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>121.67</v>
+        <v>126.49</v>
       </c>
       <c r="G3">
-        <v>0.75</v>
+        <v>0.538</v>
       </c>
       <c r="H3">
-        <v>23.5</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3298,28 +3291,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>129.61</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>119.26</v>
+        <v>126.4</v>
       </c>
       <c r="G4">
-        <v>0.542</v>
+        <v>0.538</v>
       </c>
       <c r="H4">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3327,28 +3320,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>105.55</v>
+        <v>101.38</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>116.93</v>
+        <v>119.67</v>
       </c>
       <c r="G5">
-        <v>0.458</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H5">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3359,25 +3352,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>110.44</v>
+        <v>108.88</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>111.53</v>
+        <v>106.24</v>
       </c>
       <c r="G6">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3385,28 +3378,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>112.61</v>
+        <v>98.66</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>113.97</v>
+        <v>113.4</v>
       </c>
       <c r="G7">
-        <v>0.458</v>
+        <v>0.385</v>
       </c>
       <c r="H7">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3417,25 +3410,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>99.73</v>
+        <v>101.78</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>107.69</v>
+        <v>112.08</v>
       </c>
       <c r="G8">
-        <v>0.625</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H8">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3443,28 +3436,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>130.73</v>
+        <v>119.67</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>112.15</v>
+        <v>101.38</v>
       </c>
       <c r="G9">
-        <v>0.417</v>
+        <v>0.538</v>
       </c>
       <c r="H9">
-        <v>-11.5</v>
+        <v>-9</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3472,28 +3465,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>102.77</v>
+        <v>106.24</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>110.37</v>
+        <v>108.88</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H10">
         <v>-12</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3504,25 +3497,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>117.51</v>
+        <v>113.4</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>105.22</v>
+        <v>98.66</v>
       </c>
       <c r="G11">
-        <v>0.375</v>
+        <v>0.308</v>
       </c>
       <c r="H11">
-        <v>-19.5</v>
+        <v>-39</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3530,28 +3523,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>121.02</v>
+        <v>112.08</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>101.38</v>
+        <v>101.78</v>
       </c>
       <c r="G12">
-        <v>0.458</v>
+        <v>0.385</v>
       </c>
       <c r="H12">
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3562,25 +3555,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>123.42</v>
+        <v>126.49</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>100.82</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="G13">
-        <v>0.333</v>
+        <v>0.231</v>
       </c>
       <c r="H13">
-        <v>-26.5</v>
+        <v>-55</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3598,48 +3591,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
-        <v>121.015</v>
+        <v>126.4907692307692</v>
       </c>
       <c r="E2">
-        <v>1452.18</v>
+        <v>1644.38</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3648,27 +3641,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D3">
-        <v>112.6083333333333</v>
+        <v>119.6692307692308</v>
       </c>
       <c r="E3">
-        <v>1351.3</v>
+        <v>1555.7</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3677,27 +3670,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D4">
-        <v>130.7316666666667</v>
+        <v>101.3846153846154</v>
       </c>
       <c r="E4">
-        <v>1568.78</v>
+        <v>1318</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3706,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D5">
-        <v>128.2083333333333</v>
+        <v>112.0846153846154</v>
       </c>
       <c r="E5">
-        <v>1538.5</v>
+        <v>1457.1</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3743,86 +3736,86 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6">
-        <v>102.77</v>
+        <v>129.6092307692308</v>
       </c>
       <c r="E6">
-        <v>1233.24</v>
+        <v>1684.92</v>
       </c>
       <c r="F6">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>123.4166666666667</v>
+        <v>126.4030769230769</v>
       </c>
       <c r="E7">
-        <v>1481</v>
+        <v>1643.24</v>
       </c>
       <c r="F7">
-        <v>97.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>117.515</v>
+        <v>108.8769230769231</v>
       </c>
       <c r="E8">
-        <v>1410.18</v>
+        <v>1415.4</v>
       </c>
       <c r="F8">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -3830,31 +3823,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D9">
-        <v>110.4416666666667</v>
+        <v>113.4</v>
       </c>
       <c r="E9">
-        <v>1325.3</v>
+        <v>1474.2</v>
       </c>
       <c r="F9">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3862,115 +3855,115 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D10">
-        <v>105.5516666666667</v>
+        <v>106.2353846153846</v>
       </c>
       <c r="E10">
-        <v>1266.62</v>
+        <v>1381.06</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>101.78</v>
       </c>
       <c r="E11">
-        <v>1200</v>
+        <v>1323.14</v>
       </c>
       <c r="F11">
         <v>0.1</v>
       </c>
       <c r="G11">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D12">
-        <v>99.73333333333331</v>
+        <v>95.5723076923077</v>
       </c>
       <c r="E12">
-        <v>1196.8</v>
+        <v>1242.44</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.9</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>96.09166666666668</v>
+        <v>98.66461538461542</v>
       </c>
       <c r="E13">
-        <v>1153.1</v>
+        <v>1282.64</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.59999999999999</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3988,19 +3981,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4011,16 +4004,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4031,16 +4024,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4051,16 +4044,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4071,16 +4064,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4088,19 +4081,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4108,19 +4101,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4128,19 +4121,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4148,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4168,19 +4161,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4191,16 +4184,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4211,16 +4204,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4231,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>-55</v>
@@ -4250,54 +4243,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4337,11 +4333,14 @@
       <c r="M2">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4381,11 +4380,14 @@
       <c r="M3">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4425,11 +4427,14 @@
       <c r="M4">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4469,231 +4474,249 @@
       <c r="M5">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
       <c r="F6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-11</v>
+      </c>
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-3</v>
+      </c>
+      <c r="L8">
         <v>-1</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="M8">
+        <v>-7</v>
+      </c>
+      <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9">
+        <v>-9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>-3</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>-7</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>-8</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>-6</v>
       </c>
-      <c r="N8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-11</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>-7</v>
-      </c>
-      <c r="H9">
-        <v>-5</v>
-      </c>
-      <c r="I9">
-        <v>-6</v>
-      </c>
-      <c r="J9">
-        <v>-5</v>
-      </c>
-      <c r="K9">
-        <v>-3</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>-7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>-3</v>
-      </c>
-      <c r="M10">
-        <v>-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4733,11 +4756,14 @@
       <c r="M11">
         <v>-33</v>
       </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4777,11 +4803,14 @@
       <c r="M12">
         <v>-44</v>
       </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4821,7 +4850,10 @@
       <c r="M13">
         <v>-55</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>-55</v>
+      </c>
+      <c r="O13" t="s">
         <v>120</v>
       </c>
     </row>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,40 +61,37 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -196,6 +193,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -217,42 +217,42 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -277,70 +277,16 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>11.5-2.5</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>3.2-10.8</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>12-2</t>
+    <t>11-3</t>
   </si>
   <si>
     <t>6-8</t>
@@ -355,6 +301,30 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -364,33 +334,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑9</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -428,6 +392,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -861,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -876,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -899,34 +866,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -940,34 +907,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -990,28 +957,28 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1019,40 +986,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1060,40 +1027,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1101,19 +1068,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1122,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -1145,34 +1112,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -1186,19 +1153,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1207,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1227,34 +1194,34 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1268,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1292,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -1309,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1321,22 +1288,22 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -1349,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1357,25 +1324,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1506,58 +1473,6 @@
       </c>
       <c r="H6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-34</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1575,13 +1490,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1589,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1603,13 +1518,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.083333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1620,10 +1535,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1634,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1648,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5.916666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1662,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1676,10 +1591,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1690,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1704,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1715,13 +1630,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>7.416666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1729,13 +1644,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>7.666666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1746,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7.916666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1767,16 +1682,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1793,7 +1708,7 @@
         <v>-0.5833333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1804,10 +1719,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.666666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D3">
-        <v>1.666666666666666</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1821,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8.583333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D4">
-        <v>1.583333333333334</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -1838,13 +1753,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8.166666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D5">
-        <v>-0.8333333333333339</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1855,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7.083333333333333</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>-1.916666666666667</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1872,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1886,16 +1801,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333304</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1903,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9">
-        <v>0.833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1923,10 +1838,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.083333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.916666666666667</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1940,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4.166666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.833333333333333</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1957,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.1666666666666665</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1974,13 +1889,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D13">
-        <v>0.3333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1998,46 +1913,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2054,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>59.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>33.7</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2092,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>24.8</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2142,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.8</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2180,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>24.8</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2262,7 +2177,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2274,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2306,7 +2221,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2318,25 +2233,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>29.4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2345,12 +2260,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>60.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2371,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>44.9</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2389,12 +2304,12 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>30.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2415,30 +2330,30 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>45.9</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.8</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2459,30 +2374,30 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>64.3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2509,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2553,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>81.8</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2575,95 +2490,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>59.8</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="D2">
-        <v>52.8</v>
+        <v>51.1</v>
       </c>
       <c r="E2">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="F2">
-        <v>54.6</v>
+        <v>52.6</v>
       </c>
       <c r="G2">
-        <v>46.9</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>55.40000000000001</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="I2">
-        <v>76.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="J2">
-        <v>90.10000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="K2">
-        <v>84.89999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="L2">
-        <v>96.39999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="M2">
-        <v>95.09999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2671,40 +2589,43 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93.30000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="C3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="E3">
-        <v>83.8</v>
+        <v>84.5</v>
       </c>
       <c r="F3">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G3">
         <v>97.8</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="I3">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J3">
-        <v>98.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K3">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2718,90 +2639,96 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C4">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D4">
-        <v>77.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E4">
-        <v>92.7</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G4">
-        <v>89.09999999999999</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="H4">
-        <v>94.69999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I4">
-        <v>78.10000000000001</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="J4">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>84.7</v>
+        <v>86</v>
       </c>
       <c r="L4">
-        <v>97</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="M4">
-        <v>87.8</v>
+        <v>89.7</v>
       </c>
       <c r="N4">
-        <v>84.59999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>56.99999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="C5">
-        <v>26.8</v>
+        <v>24.2</v>
       </c>
       <c r="D5">
-        <v>36.1</v>
+        <v>38.6</v>
       </c>
       <c r="E5">
-        <v>74.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F5">
-        <v>86.8</v>
+        <v>88.2</v>
       </c>
       <c r="G5">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H5">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="I5">
-        <v>97.7</v>
+        <v>96.8</v>
       </c>
       <c r="J5">
-        <v>92.80000000000001</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="K5">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L5">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2812,8 +2739,11 @@
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2821,29 +2751,29 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="E6">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F6">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="G6">
-        <v>96.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H6">
         <v>98.7</v>
       </c>
       <c r="I6">
+        <v>99</v>
+      </c>
+      <c r="J6">
         <v>99.90000000000001</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
       <c r="K6">
         <v>100</v>
       </c>
@@ -2859,333 +2789,357 @@
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="D7">
+        <v>51.4</v>
+      </c>
+      <c r="E7">
+        <v>43.9</v>
+      </c>
+      <c r="F7">
+        <v>23.2</v>
+      </c>
+      <c r="G7">
+        <v>31.1</v>
+      </c>
+      <c r="H7">
+        <v>36.7</v>
+      </c>
+      <c r="I7">
+        <v>46.7</v>
+      </c>
+      <c r="J7">
+        <v>63.3</v>
+      </c>
+      <c r="K7">
+        <v>46.1</v>
+      </c>
+      <c r="L7">
+        <v>41.5</v>
+      </c>
+      <c r="M7">
+        <v>64.3</v>
+      </c>
+      <c r="N7">
+        <v>36.6</v>
+      </c>
+      <c r="O7">
+        <v>60.8</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="C7">
-        <v>99.2</v>
-      </c>
-      <c r="D7">
+      <c r="B8">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C8">
+        <v>99.5</v>
+      </c>
+      <c r="D8">
         <v>97.09999999999999</v>
       </c>
-      <c r="E7">
-        <v>75.2</v>
-      </c>
-      <c r="F7">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="G7">
-        <v>67.2</v>
-      </c>
-      <c r="H7">
-        <v>77.7</v>
-      </c>
-      <c r="I7">
-        <v>51.7</v>
-      </c>
-      <c r="J7">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="K7">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="L7">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="M7">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="G8">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="H8">
+        <v>76.5</v>
+      </c>
+      <c r="I8">
+        <v>48.3</v>
+      </c>
+      <c r="J8">
+        <v>63.4</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+      <c r="L8">
+        <v>98.5</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>99.5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F9">
+        <v>85.7</v>
+      </c>
+      <c r="G9">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>60.7</v>
+      </c>
+      <c r="I9">
+        <v>76.7</v>
+      </c>
+      <c r="J9">
+        <v>63.5</v>
+      </c>
+      <c r="K9">
+        <v>53.8</v>
+      </c>
+      <c r="L9">
+        <v>37.6</v>
+      </c>
+      <c r="M9">
+        <v>18.8</v>
+      </c>
+      <c r="N9">
+        <v>10.7</v>
+      </c>
+      <c r="O9">
+        <v>22.2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>40.2</v>
+      </c>
+      <c r="C10">
+        <v>6.3</v>
+      </c>
+      <c r="D10">
+        <v>3.8</v>
+      </c>
+      <c r="E10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="F10">
+        <v>16.1</v>
+      </c>
+      <c r="G10">
+        <v>8.6</v>
+      </c>
+      <c r="H10">
+        <v>5.2</v>
+      </c>
+      <c r="I10">
+        <v>2.4</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
+        <v>7.8</v>
+      </c>
+      <c r="M10">
+        <v>1.3</v>
+      </c>
+      <c r="N10">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="D11">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>27.3</v>
+      </c>
+      <c r="F11">
+        <v>13.7</v>
+      </c>
+      <c r="G11">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.2</v>
+      </c>
+      <c r="I11">
+        <v>1.2</v>
+      </c>
+      <c r="J11">
+        <v>1.7</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1.1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="C8">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="D8">
-        <v>68.60000000000001</v>
-      </c>
-      <c r="E8">
+      <c r="B12">
+        <v>5.2</v>
+      </c>
+      <c r="C12">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D12">
         <v>72</v>
       </c>
-      <c r="F8">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="G8">
-        <v>83.7</v>
-      </c>
-      <c r="H8">
-        <v>74.3</v>
-      </c>
-      <c r="I8">
-        <v>61</v>
-      </c>
-      <c r="J8">
-        <v>32.1</v>
-      </c>
-      <c r="K8">
-        <v>30.3</v>
-      </c>
-      <c r="L8">
-        <v>18.9</v>
-      </c>
-      <c r="M8">
+      <c r="E12">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="F12">
+        <v>75.3</v>
+      </c>
+      <c r="G12">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="H12">
+        <v>72.89999999999999</v>
+      </c>
+      <c r="I12">
+        <v>62.3</v>
+      </c>
+      <c r="J12">
+        <v>31.2</v>
+      </c>
+      <c r="K12">
         <v>32.6</v>
       </c>
-      <c r="N8">
-        <v>60</v>
-      </c>
-      <c r="O8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C9">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>41.5</v>
-      </c>
-      <c r="F9">
-        <v>23.2</v>
-      </c>
-      <c r="G9">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>33.1</v>
-      </c>
-      <c r="I9">
-        <v>44.6</v>
-      </c>
-      <c r="J9">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="K9">
-        <v>52</v>
-      </c>
-      <c r="L9">
-        <v>40.7</v>
-      </c>
-      <c r="M9">
-        <v>62.1</v>
-      </c>
-      <c r="N9">
-        <v>36.5</v>
-      </c>
-      <c r="O9">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>99.7</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>97</v>
-      </c>
-      <c r="F10">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="G10">
-        <v>71</v>
-      </c>
-      <c r="H10">
-        <v>61.5</v>
-      </c>
-      <c r="I10">
-        <v>78.5</v>
-      </c>
-      <c r="J10">
-        <v>62.6</v>
-      </c>
-      <c r="K10">
-        <v>52.3</v>
-      </c>
-      <c r="L10">
-        <v>38.9</v>
-      </c>
-      <c r="M10">
-        <v>18.6</v>
-      </c>
-      <c r="N10">
-        <v>10.6</v>
-      </c>
-      <c r="O10">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>38.7</v>
-      </c>
-      <c r="C11">
-        <v>6.1</v>
-      </c>
-      <c r="D11">
-        <v>5.1</v>
-      </c>
-      <c r="E11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F11">
-        <v>14.9</v>
-      </c>
-      <c r="G11">
-        <v>7.1</v>
-      </c>
-      <c r="H11">
-        <v>5.3</v>
-      </c>
-      <c r="I11">
-        <v>1.4</v>
-      </c>
-      <c r="J11">
-        <v>0.6</v>
-      </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>1.8</v>
-      </c>
-      <c r="N11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
-        <v>3.4</v>
-      </c>
-      <c r="D12">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="E12">
-        <v>28.7</v>
-      </c>
-      <c r="F12">
-        <v>14.7</v>
-      </c>
-      <c r="G12">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1.1</v>
-      </c>
-      <c r="J12">
-        <v>1.7</v>
-      </c>
-      <c r="K12">
-        <v>2.1</v>
-      </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5.1</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>8.1</v>
+      </c>
+      <c r="H13">
         <v>3.1</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="I13">
+        <v>11.8</v>
+      </c>
+      <c r="J13">
         <v>5.2</v>
       </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-      <c r="F13">
-        <v>0.8</v>
-      </c>
-      <c r="G13">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.8</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>4.8</v>
-      </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -3204,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>
@@ -3233,28 +3187,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2">
-        <v>126.4</v>
+        <v>108.91</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>129.61</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3262,28 +3216,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3">
-        <v>95.56999999999999</v>
+        <v>101.23</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>126.49</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3291,28 +3245,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4">
-        <v>129.61</v>
+        <v>95.3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>126.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3320,28 +3274,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="D5">
-        <v>101.38</v>
+        <v>124.77</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>119.67</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3355,22 +3309,22 @@
         <v>68</v>
       </c>
       <c r="D6">
-        <v>108.88</v>
+        <v>107.39</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>106.24</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3378,28 +3332,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7">
-        <v>98.66</v>
+        <v>119.77</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7">
-        <v>113.4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3407,28 +3361,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8">
-        <v>101.78</v>
+        <v>103.57</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>112.08</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3436,28 +3390,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
       </c>
       <c r="D9">
-        <v>119.67</v>
+        <v>98.55</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>101.38</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3465,28 +3419,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10">
-        <v>106.24</v>
+        <v>113.59</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>108.88</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3494,28 +3448,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
       </c>
       <c r="D11">
-        <v>113.4</v>
+        <v>125.96</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>98.66</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3523,28 +3477,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12">
-        <v>112.08</v>
+        <v>114.24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>101.78</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3552,28 +3506,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
       </c>
       <c r="D13">
-        <v>126.49</v>
+        <v>126.26</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13">
-        <v>95.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -3626,13 +3580,13 @@
         <v>84</v>
       </c>
       <c r="C2">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2">
-        <v>126.4907692307692</v>
+        <v>124.7742857142857</v>
       </c>
       <c r="E2">
-        <v>1644.38</v>
+        <v>1746.84</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3641,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3655,13 +3609,13 @@
         <v>85</v>
       </c>
       <c r="C3">
-        <v>0.6923076923076923</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D3">
-        <v>119.6692307692308</v>
+        <v>119.7742857142857</v>
       </c>
       <c r="E3">
-        <v>1555.7</v>
+        <v>1676.84</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3670,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3684,13 +3638,13 @@
         <v>84</v>
       </c>
       <c r="C4">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>101.3846153846154</v>
+        <v>103.5742857142857</v>
       </c>
       <c r="E4">
-        <v>1318</v>
+        <v>1450.04</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3699,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3710,16 +3664,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>112.0846153846154</v>
+        <v>113.5885714285714</v>
       </c>
       <c r="E5">
-        <v>1457.1</v>
+        <v>1590.24</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3728,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3739,16 +3693,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>0.8461538461538461</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D6">
-        <v>129.6092307692308</v>
+        <v>125.9571428571429</v>
       </c>
       <c r="E6">
-        <v>1684.92</v>
+        <v>1763.4</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -3757,27 +3711,27 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>126.4030769230769</v>
+        <v>114.24</v>
       </c>
       <c r="E7">
-        <v>1643.24</v>
+        <v>1599.36</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -3786,155 +3740,155 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8">
-        <v>108.8769230769231</v>
+        <v>126.2585714285714</v>
       </c>
       <c r="E8">
-        <v>1415.4</v>
+        <v>1767.62</v>
       </c>
       <c r="F8">
-        <v>60.4</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>113.4</v>
+        <v>108.9085714285714</v>
       </c>
       <c r="E9">
-        <v>1474.2</v>
+        <v>1524.72</v>
       </c>
       <c r="F9">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D10">
-        <v>106.2353846153846</v>
+        <v>101.2314285714285</v>
       </c>
       <c r="E10">
-        <v>1381.06</v>
+        <v>1417.24</v>
       </c>
       <c r="F10">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>0.3846153846153846</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D11">
-        <v>101.78</v>
+        <v>95.3</v>
       </c>
       <c r="E11">
-        <v>1323.14</v>
+        <v>1334.2</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>0.2307692307692308</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D12">
-        <v>95.5723076923077</v>
+        <v>107.3857142857143</v>
       </c>
       <c r="E12">
-        <v>1242.44</v>
+        <v>1503.4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3942,28 +3896,28 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>98.66461538461542</v>
+        <v>98.55285714285716</v>
       </c>
       <c r="E13">
-        <v>1282.64</v>
+        <v>1379.74</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3981,19 +3935,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4004,16 +3958,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4024,16 +3978,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4044,16 +3998,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4064,16 +4018,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4084,16 +4038,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4104,16 +4058,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4124,16 +4078,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4144,16 +4098,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4170,10 +4124,10 @@
         <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4184,16 +4138,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-39</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4204,16 +4158,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4224,16 +4178,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4243,57 +4197,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4336,11 +4293,14 @@
       <c r="N2">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4383,11 +4343,14 @@
       <c r="N3">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4430,11 +4393,14 @@
       <c r="N4">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4477,11 +4443,14 @@
       <c r="N5">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4524,11 +4493,14 @@
       <c r="N6">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4571,11 +4543,14 @@
       <c r="N7">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4618,11 +4593,14 @@
       <c r="N8">
         <v>-4</v>
       </c>
-      <c r="O8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4665,11 +4643,14 @@
       <c r="N9">
         <v>-9</v>
       </c>
-      <c r="O9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4712,11 +4693,14 @@
       <c r="N10">
         <v>-12</v>
       </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4759,11 +4743,14 @@
       <c r="N11">
         <v>-39</v>
       </c>
-      <c r="O11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4806,11 +4793,14 @@
       <c r="N12">
         <v>-42</v>
       </c>
-      <c r="O12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4853,8 +4843,11 @@
       <c r="N13">
         <v>-55</v>
       </c>
-      <c r="O13" t="s">
-        <v>120</v>
+      <c r="O13">
+        <v>-60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="145">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,198 +61,231 @@
     <t>Oh My Josh</t>
   </si>
   <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>3-11-1</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
     <t>6-8-0</t>
   </si>
   <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
     <t>4-10-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
     <t>10-4-0</t>
   </si>
   <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
     <t>11-3-0</t>
   </si>
   <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Zach Wallach</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -337,22 +370,28 @@
     <t>↓5</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -395,6 +434,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -825,37 +867,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -866,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -875,28 +917,28 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -907,22 +949,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -934,10 +976,10 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -948,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -975,10 +1017,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -986,40 +1028,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1027,40 +1069,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1068,37 +1110,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
@@ -1109,10 +1151,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1121,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1133,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -1153,34 +1195,34 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1191,40 +1233,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1235,13 +1277,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1250,16 +1292,16 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -1273,40 +1315,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
         <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1324,25 +1366,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1490,13 +1532,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1507,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1518,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5.916666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1532,13 +1574,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1546,13 +1588,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1560,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1574,13 +1616,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6.916666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1591,10 +1633,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1605,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>7.166666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1616,10 +1658,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7.416666666666667</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1630,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>7.833333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1647,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>8.083333333333334</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1661,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>8.5</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1682,16 +1724,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1702,13 +1744,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10.41666666666667</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.5833333333333339</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1719,13 +1761,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>9.333333333333334</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D3">
-        <v>1.333333333333334</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1736,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.083333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D4">
-        <v>1.083333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1753,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8.666666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D5">
-        <v>-0.3333333333333339</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1770,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1787,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -1804,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D8">
-        <v>0.833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1818,16 +1860,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0.166666666666667</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1835,16 +1877,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.916666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>-2.083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1852,16 +1894,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.583333333333333</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1869,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>4.166666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D12">
-        <v>0.166666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1895,7 +1937,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1913,46 +1955,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2498,49 +2540,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2548,40 +2590,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="C2">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="D2">
         <v>51.1</v>
       </c>
       <c r="E2">
-        <v>23.7</v>
+        <v>27.8</v>
       </c>
       <c r="F2">
-        <v>52.6</v>
+        <v>55.7</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="H2">
-        <v>55.90000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="I2">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="J2">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K2">
-        <v>85.2</v>
+        <v>83.3</v>
       </c>
       <c r="L2">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="M2">
-        <v>93.60000000000001</v>
+        <v>95</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2598,34 +2640,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93.5</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <v>94.09999999999999</v>
       </c>
       <c r="G3">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H3">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>98.3</v>
       </c>
       <c r="J3">
-        <v>97.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="K3">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2648,43 +2690,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97.59999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C4">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D4">
-        <v>75.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E4">
-        <v>93.10000000000001</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="F4">
-        <v>95.19999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G4">
-        <v>89.60000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H4">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="I4">
         <v>79.60000000000001</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K4">
-        <v>86</v>
+        <v>84.8</v>
       </c>
       <c r="L4">
-        <v>96.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="M4">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="N4">
-        <v>86.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2698,37 +2740,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
       <c r="C5">
-        <v>24.2</v>
+        <v>25.5</v>
       </c>
       <c r="D5">
-        <v>38.6</v>
+        <v>37.7</v>
       </c>
       <c r="E5">
-        <v>74.7</v>
+        <v>73.2</v>
       </c>
       <c r="F5">
-        <v>88.2</v>
+        <v>87.7</v>
       </c>
       <c r="G5">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="H5">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="I5">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="J5">
-        <v>95.39999999999999</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L5">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2751,25 +2793,25 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D6">
+        <v>99.7</v>
+      </c>
+      <c r="E6">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F6">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H6">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I6">
         <v>99.3</v>
-      </c>
-      <c r="E6">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F6">
-        <v>99.3</v>
-      </c>
-      <c r="G6">
-        <v>95.3</v>
-      </c>
-      <c r="H6">
-        <v>98.7</v>
-      </c>
-      <c r="I6">
-        <v>99</v>
       </c>
       <c r="J6">
         <v>99.90000000000001</v>
@@ -2798,46 +2840,46 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="C7">
-        <v>79.60000000000001</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D7">
-        <v>51.4</v>
+        <v>52.6</v>
       </c>
       <c r="E7">
-        <v>43.9</v>
+        <v>39.6</v>
       </c>
       <c r="F7">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>31.1</v>
+        <v>33.2</v>
       </c>
       <c r="H7">
-        <v>36.7</v>
+        <v>38.4</v>
       </c>
       <c r="I7">
-        <v>46.7</v>
+        <v>45.7</v>
       </c>
       <c r="J7">
-        <v>63.3</v>
+        <v>61.7</v>
       </c>
       <c r="K7">
-        <v>46.1</v>
+        <v>47.4</v>
       </c>
       <c r="L7">
-        <v>41.5</v>
+        <v>42.8</v>
       </c>
       <c r="M7">
-        <v>64.3</v>
+        <v>63.1</v>
       </c>
       <c r="N7">
-        <v>36.6</v>
+        <v>37.7</v>
       </c>
       <c r="O7">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2848,43 +2890,43 @@
         <v>11</v>
       </c>
       <c r="B8">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C8">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>95.7</v>
+      </c>
+      <c r="E8">
+        <v>73.7</v>
+      </c>
+      <c r="F8">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="G8">
+        <v>67.7</v>
+      </c>
+      <c r="H8">
         <v>75.59999999999999</v>
       </c>
-      <c r="C8">
-        <v>99.5</v>
-      </c>
-      <c r="D8">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>56.39999999999999</v>
-      </c>
-      <c r="G8">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="H8">
-        <v>76.5</v>
-      </c>
       <c r="I8">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="J8">
-        <v>63.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K8">
-        <v>88</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="L8">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2898,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2907,37 +2949,37 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F9">
         <v>85.7</v>
       </c>
       <c r="G9">
-        <v>73.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H9">
-        <v>60.7</v>
+        <v>62.3</v>
       </c>
       <c r="I9">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="J9">
-        <v>63.5</v>
+        <v>62.7</v>
       </c>
       <c r="K9">
-        <v>53.8</v>
+        <v>51.7</v>
       </c>
       <c r="L9">
-        <v>37.6</v>
+        <v>33.8</v>
       </c>
       <c r="M9">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="N9">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="O9">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2948,43 +2990,43 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>40.2</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C10">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="E10">
-        <v>7.399999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F10">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="I10">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="N10">
-        <v>6.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2998,37 +3040,37 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.399999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>7.000000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="E11">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="F11">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="G11">
-        <v>6.600000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3048,46 +3090,46 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="C12">
-        <v>75.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E12">
-        <v>72.39999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="F12">
-        <v>75.3</v>
+        <v>70.3</v>
       </c>
       <c r="G12">
-        <v>80.80000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H12">
-        <v>72.89999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="I12">
-        <v>62.3</v>
+        <v>62.4</v>
       </c>
       <c r="J12">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="K12">
-        <v>32.6</v>
+        <v>33.5</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>21.7</v>
       </c>
       <c r="M12">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="N12">
-        <v>59.8</v>
+        <v>58.8</v>
       </c>
       <c r="O12">
-        <v>17</v>
+        <v>18.2</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3098,40 +3140,40 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="E13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="G13">
-        <v>8.1</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>11.8</v>
+        <v>14.2</v>
       </c>
       <c r="J13">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L13">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M13">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3158,28 +3200,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3190,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>108.91</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3219,13 +3261,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>101.23</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3248,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>95.3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3277,13 +3319,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>124.77</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3306,13 +3348,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>107.39</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3335,13 +3377,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>119.77</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3364,13 +3406,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>103.57</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3393,13 +3435,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>98.55</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3422,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>113.59</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3451,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>125.96</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3480,13 +3522,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>114.24</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3509,13 +3551,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>126.26</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3545,31 +3587,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3577,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3595,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3606,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3624,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3635,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -3653,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3664,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3682,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3693,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>0.7857142857142857</v>
@@ -3711,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3722,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3740,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3751,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3769,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3780,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3798,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3809,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3827,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3838,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3856,10 +3898,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3867,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>0.4285714285714285</v>
@@ -3885,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3896,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3914,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3935,19 +3977,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3958,16 +4000,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3978,16 +4020,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3998,16 +4040,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4018,16 +4060,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4035,19 +4077,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4055,19 +4097,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4075,19 +4117,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4098,16 +4140,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4118,16 +4160,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4138,16 +4180,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>-39</v>
+        <v>-37</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4158,16 +4200,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-41</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4178,16 +4220,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>-60</v>
+        <v>-71</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4197,60 +4239,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4296,11 +4341,14 @@
       <c r="O2">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4346,11 +4394,14 @@
       <c r="O3">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4396,11 +4447,14 @@
       <c r="O4">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4446,161 +4500,173 @@
       <c r="O5">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-3</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7">
+        <v>-3</v>
+      </c>
+      <c r="L7">
         <v>-1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7">
+        <v>-4</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <v>-11</v>
-      </c>
-      <c r="E8">
-        <v>-11</v>
-      </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8">
-        <v>-6</v>
-      </c>
-      <c r="J8">
-        <v>-5</v>
-      </c>
-      <c r="K8">
-        <v>-3</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>-7</v>
-      </c>
-      <c r="N8">
-        <v>-4</v>
-      </c>
-      <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4646,11 +4712,14 @@
       <c r="O9">
         <v>-4</v>
       </c>
-      <c r="P9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4696,11 +4765,14 @@
       <c r="O10">
         <v>-12</v>
       </c>
-      <c r="P10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4746,11 +4818,14 @@
       <c r="O11">
         <v>-39</v>
       </c>
-      <c r="P11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4796,11 +4871,14 @@
       <c r="O12">
         <v>-41</v>
       </c>
-      <c r="P12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4846,8 +4924,11 @@
       <c r="O13">
         <v>-60</v>
       </c>
-      <c r="P13" t="s">
-        <v>103</v>
+      <c r="P13">
+        <v>-71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="149">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,46 +61,55 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>3-11-1</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>11-3-1</t>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>5-10-1</t>
+  </si>
+  <si>
+    <t>4-11-1</t>
+  </si>
+  <si>
+    <t>14-2-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>8-7-1</t>
+  </si>
+  <si>
+    <t>12-3-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -367,31 +376,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -437,6 +446,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -867,19 +879,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -888,16 +900,16 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -908,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -923,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -932,13 +944,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -949,37 +961,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -990,16 +1002,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -1011,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -1020,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1031,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1072,37 +1084,37 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1113,37 +1125,37 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1151,40 +1163,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1195,16 +1207,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -1213,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1225,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1233,37 +1245,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
         <v>16</v>
@@ -1277,13 +1289,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1292,22 +1304,22 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1315,40 +1327,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1366,25 +1378,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1392,25 +1404,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-4</v>
+        <v>-27</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>-77</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1418,25 +1430,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>-25</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1444,25 +1456,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-43</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="G4">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1470,22 +1482,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="F5">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
@@ -1496,24 +1508,50 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-35</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>-9</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-42</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1532,13 +1570,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1549,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.166666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1563,10 +1601,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1574,13 +1612,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1588,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1602,10 +1640,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.083333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1616,13 +1654,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>7.333333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1633,10 +1671,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1644,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7.833333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1658,13 +1696,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1672,10 +1710,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>8.166666666666666</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1686,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>8.166666666666666</v>
+        <v>8.75</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1703,10 +1741,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9.416666666666666</v>
+        <v>10.25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1762,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1744,13 +1782,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10.66666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="D2">
         <v>-0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1761,13 +1799,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>10.08333333333333</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="D3">
-        <v>1.083333333333334</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1778,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.5</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1795,13 +1833,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>9.333333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D5">
-        <v>-0.6666666666666661</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1812,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.75</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D6">
-        <v>-1.25</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1829,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8.5</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1846,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1863,13 +1901,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>-1.583333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1880,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>6.25</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1894,16 +1932,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0.08333333333333304</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1911,16 +1949,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.416666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1931,13 +1969,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1955,46 +1993,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2540,49 +2578,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2590,40 +2628,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>59.3</v>
+        <v>58.5</v>
       </c>
       <c r="C2">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>51.1</v>
+        <v>53.2</v>
       </c>
       <c r="E2">
-        <v>27.8</v>
+        <v>24.7</v>
       </c>
       <c r="F2">
-        <v>55.7</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="G2">
-        <v>42.5</v>
+        <v>44.6</v>
       </c>
       <c r="H2">
-        <v>54.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="I2">
-        <v>77.3</v>
+        <v>76.2</v>
       </c>
       <c r="J2">
-        <v>89.09999999999999</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="K2">
-        <v>83.3</v>
+        <v>84.7</v>
       </c>
       <c r="L2">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="M2">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2640,34 +2678,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93.60000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="C3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E3">
-        <v>82</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="F3">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="G3">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>96.2</v>
       </c>
       <c r="I3">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>96.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="K3">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2690,43 +2728,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97.39999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C4">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E4">
-        <v>95.19999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F4">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>90.40000000000001</v>
       </c>
       <c r="H4">
-        <v>94.3</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I4">
-        <v>79.60000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="J4">
-        <v>88.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K4">
-        <v>84.8</v>
+        <v>84.2</v>
       </c>
       <c r="L4">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="M4">
-        <v>90.3</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>85.3</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2740,37 +2778,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>57.4</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="C5">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="D5">
-        <v>37.7</v>
+        <v>38.6</v>
       </c>
       <c r="E5">
-        <v>73.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F5">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G5">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="H5">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="I5">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>93.5</v>
       </c>
       <c r="K5">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="L5">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2793,28 +2831,28 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D6">
         <v>99.7</v>
       </c>
       <c r="E6">
+        <v>99.7</v>
+      </c>
+      <c r="F6">
+        <v>98.3</v>
+      </c>
+      <c r="G6">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="H6">
+        <v>98.2</v>
+      </c>
+      <c r="I6">
         <v>99.40000000000001</v>
       </c>
-      <c r="F6">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G6">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H6">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="I6">
-        <v>99.3</v>
-      </c>
       <c r="J6">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2840,46 +2878,46 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>71.39999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="C7">
-        <v>79.10000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="D7">
-        <v>52.6</v>
+        <v>51.8</v>
       </c>
       <c r="E7">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="G7">
-        <v>33.2</v>
+        <v>31.5</v>
       </c>
       <c r="H7">
+        <v>36.7</v>
+      </c>
+      <c r="I7">
+        <v>48.8</v>
+      </c>
+      <c r="J7">
+        <v>60.7</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <v>43.3</v>
+      </c>
+      <c r="M7">
+        <v>61.7</v>
+      </c>
+      <c r="N7">
         <v>38.4</v>
       </c>
-      <c r="I7">
-        <v>45.7</v>
-      </c>
-      <c r="J7">
-        <v>61.7</v>
-      </c>
-      <c r="K7">
-        <v>47.4</v>
-      </c>
-      <c r="L7">
-        <v>42.8</v>
-      </c>
-      <c r="M7">
-        <v>63.1</v>
-      </c>
-      <c r="N7">
-        <v>37.7</v>
-      </c>
       <c r="O7">
-        <v>60.3</v>
+        <v>63.6</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2890,43 +2928,43 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>74.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>95.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E8">
-        <v>73.7</v>
+        <v>76.3</v>
       </c>
       <c r="F8">
-        <v>56.49999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G8">
-        <v>67.7</v>
+        <v>66.5</v>
       </c>
       <c r="H8">
-        <v>75.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I8">
-        <v>46.3</v>
+        <v>49.8</v>
       </c>
       <c r="J8">
-        <v>67.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="K8">
-        <v>91.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="L8">
         <v>98.3</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="N8">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -2940,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2949,37 +2987,37 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>96.5</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F9">
-        <v>85.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G9">
-        <v>71.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="H9">
-        <v>62.3</v>
+        <v>61.9</v>
       </c>
       <c r="I9">
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="J9">
-        <v>62.7</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="K9">
-        <v>51.7</v>
+        <v>54.3</v>
       </c>
       <c r="L9">
-        <v>33.8</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="M9">
-        <v>17.6</v>
+        <v>20.3</v>
       </c>
       <c r="N9">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="O9">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2990,43 +3028,43 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>39.90000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="C10">
+        <v>6.1</v>
+      </c>
+      <c r="D10">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="E10">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
         <v>7.5</v>
       </c>
-      <c r="D10">
-        <v>4.2</v>
-      </c>
-      <c r="E10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>3.1</v>
+      </c>
+      <c r="L10">
         <v>8.5</v>
       </c>
-      <c r="H10">
-        <v>6.7</v>
-      </c>
-      <c r="I10">
-        <v>2.9</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>2.8</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
       <c r="M10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3043,34 +3081,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D11">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E11">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="F11">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="G11">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="H11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J11">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3090,46 +3128,46 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>4.3</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C12">
-        <v>74.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D12">
-        <v>70.09999999999999</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="E12">
-        <v>72.89999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F12">
-        <v>70.3</v>
+        <v>72.7</v>
       </c>
       <c r="G12">
-        <v>80.90000000000001</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="H12">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I12">
-        <v>62.4</v>
+        <v>62.2</v>
       </c>
       <c r="J12">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="K12">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="L12">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="M12">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="N12">
-        <v>58.8</v>
+        <v>60.3</v>
       </c>
       <c r="O12">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3140,40 +3178,40 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.9</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>6.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I13">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K13">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L13">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3200,28 +3238,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3232,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>108.91</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3261,13 +3299,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>101.23</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3290,13 +3328,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>95.3</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3319,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>124.77</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3348,13 +3386,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>107.39</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3377,13 +3415,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>119.77</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3406,13 +3444,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>103.57</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3435,13 +3473,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>98.55</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3464,13 +3502,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>113.59</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3493,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>125.96</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3522,13 +3560,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>114.24</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3551,13 +3589,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>126.26</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3587,31 +3625,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3619,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3637,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3648,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3666,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3677,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -3695,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3706,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3724,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3735,7 +3773,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>0.7857142857142857</v>
@@ -3753,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3764,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3782,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3793,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3811,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3822,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3840,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3851,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3869,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3880,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3898,10 +3936,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3909,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>0.4285714285714285</v>
@@ -3927,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3938,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3956,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3977,19 +4015,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4000,16 +4038,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4020,16 +4058,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4040,16 +4078,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4060,16 +4098,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4080,16 +4118,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4100,13 +4138,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>118</v>
@@ -4120,16 +4158,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4140,16 +4178,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4160,16 +4198,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-27</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4177,19 +4215,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4197,19 +4235,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4220,16 +4258,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>-71</v>
+        <v>-77</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4239,63 +4277,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>141</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4344,11 +4385,14 @@
       <c r="P2">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4397,11 +4441,14 @@
       <c r="P3">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4450,11 +4497,14 @@
       <c r="P4">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4503,11 +4553,14 @@
       <c r="P5">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4556,11 +4609,14 @@
       <c r="P6">
         <v>17</v>
       </c>
-      <c r="Q6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4609,11 +4665,14 @@
       <c r="P7">
         <v>7</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4662,11 +4721,14 @@
       <c r="P8">
         <v>6</v>
       </c>
-      <c r="Q8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4715,11 +4777,14 @@
       <c r="P9">
         <v>-3</v>
       </c>
-      <c r="Q9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4768,117 +4833,126 @@
       <c r="P10">
         <v>-19</v>
       </c>
-      <c r="Q10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11">
+        <v>-23</v>
+      </c>
+      <c r="E11">
+        <v>-23</v>
+      </c>
+      <c r="F11">
+        <v>-29</v>
+      </c>
+      <c r="G11">
+        <v>-31</v>
+      </c>
+      <c r="H11">
+        <v>-29</v>
+      </c>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11">
+        <v>-31</v>
+      </c>
+      <c r="K11">
+        <v>-35</v>
+      </c>
+      <c r="L11">
+        <v>-43</v>
+      </c>
+      <c r="M11">
+        <v>-44</v>
+      </c>
+      <c r="N11">
+        <v>-42</v>
+      </c>
+      <c r="O11">
+        <v>-41</v>
+      </c>
+      <c r="P11">
+        <v>-41</v>
+      </c>
+      <c r="Q11">
+        <v>-32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-12</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-13</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-24</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-31</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-25</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-30</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-29</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-28</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-37</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-34</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-33</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-39</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>-39</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>-37</v>
       </c>
-      <c r="Q11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-13</v>
-      </c>
-      <c r="D12">
-        <v>-23</v>
-      </c>
-      <c r="E12">
-        <v>-23</v>
-      </c>
-      <c r="F12">
-        <v>-29</v>
-      </c>
-      <c r="G12">
-        <v>-31</v>
-      </c>
-      <c r="H12">
-        <v>-29</v>
-      </c>
-      <c r="I12">
-        <v>-28</v>
-      </c>
-      <c r="J12">
-        <v>-31</v>
-      </c>
-      <c r="K12">
-        <v>-35</v>
-      </c>
-      <c r="L12">
-        <v>-43</v>
-      </c>
-      <c r="M12">
+      <c r="Q12">
         <v>-44</v>
       </c>
-      <c r="N12">
-        <v>-42</v>
-      </c>
-      <c r="O12">
-        <v>-41</v>
-      </c>
-      <c r="P12">
-        <v>-41</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4927,8 +5001,11 @@
       <c r="P13">
         <v>-71</v>
       </c>
-      <c r="Q13" t="s">
-        <v>122</v>
+      <c r="Q13">
+        <v>-77</v>
+      </c>
+      <c r="R13" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -2628,40 +2628,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>58.5</v>
+        <v>60.4</v>
       </c>
       <c r="C2">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="D2">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="E2">
-        <v>24.7</v>
+        <v>27.2</v>
       </c>
       <c r="F2">
-        <v>53.90000000000001</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>44.6</v>
+        <v>43.7</v>
       </c>
       <c r="H2">
-        <v>56.49999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="I2">
-        <v>76.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="J2">
-        <v>90.60000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K2">
-        <v>84.7</v>
+        <v>83.7</v>
       </c>
       <c r="L2">
-        <v>97</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M2">
-        <v>94.3</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2678,34 +2678,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93.30000000000001</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E3">
-        <v>82.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F3">
-        <v>94.5</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G3">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="H3">
-        <v>96.2</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J3">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="K3">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2728,43 +2728,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>96.2</v>
+        <v>97.2</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="D4">
-        <v>76.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E4">
-        <v>92.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="G4">
-        <v>90.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="H4">
-        <v>94.89999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="I4">
-        <v>76.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="J4">
         <v>89.09999999999999</v>
       </c>
       <c r="K4">
-        <v>84.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="L4">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N4">
-        <v>84.39999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2778,37 +2778,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>55.50000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="C5">
-        <v>26.1</v>
+        <v>23.4</v>
       </c>
       <c r="D5">
-        <v>38.6</v>
+        <v>39.6</v>
       </c>
       <c r="E5">
-        <v>74.90000000000001</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="F5">
-        <v>87.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="G5">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="H5">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="I5">
-        <v>96.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J5">
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="L5">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2831,28 +2831,28 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E6">
+        <v>99.2</v>
+      </c>
+      <c r="F6">
+        <v>99.3</v>
+      </c>
+      <c r="G6">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H6">
+        <v>98.7</v>
+      </c>
+      <c r="I6">
         <v>99.7</v>
       </c>
-      <c r="E6">
-        <v>99.7</v>
-      </c>
-      <c r="F6">
-        <v>98.3</v>
-      </c>
-      <c r="G6">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="H6">
-        <v>98.2</v>
-      </c>
-      <c r="I6">
-        <v>99.40000000000001</v>
-      </c>
       <c r="J6">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2878,46 +2878,46 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>69.89999999999999</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>80.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D7">
-        <v>51.8</v>
+        <v>48.9</v>
       </c>
       <c r="E7">
+        <v>38.9</v>
+      </c>
+      <c r="F7">
+        <v>21.9</v>
+      </c>
+      <c r="G7">
+        <v>33.5</v>
+      </c>
+      <c r="H7">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="I7">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="J7">
+        <v>63.3</v>
+      </c>
+      <c r="K7">
+        <v>48.2</v>
+      </c>
+      <c r="L7">
         <v>40</v>
       </c>
-      <c r="F7">
-        <v>22.8</v>
-      </c>
-      <c r="G7">
-        <v>31.5</v>
-      </c>
-      <c r="H7">
-        <v>36.7</v>
-      </c>
-      <c r="I7">
-        <v>48.8</v>
-      </c>
-      <c r="J7">
-        <v>60.7</v>
-      </c>
-      <c r="K7">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>43.3</v>
-      </c>
       <c r="M7">
-        <v>61.7</v>
+        <v>62.6</v>
       </c>
       <c r="N7">
-        <v>38.4</v>
+        <v>37.1</v>
       </c>
       <c r="O7">
-        <v>63.6</v>
+        <v>61.5</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2928,40 +2928,40 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>73.5</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="D8">
         <v>96.59999999999999</v>
       </c>
       <c r="E8">
-        <v>76.3</v>
+        <v>74.3</v>
       </c>
       <c r="F8">
-        <v>55.00000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="G8">
-        <v>66.5</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="H8">
-        <v>76.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="I8">
-        <v>49.8</v>
+        <v>49.2</v>
       </c>
       <c r="J8">
-        <v>63.3</v>
+        <v>64.3</v>
       </c>
       <c r="K8">
-        <v>89.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L8">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2987,37 +2987,37 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>97.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F9">
-        <v>88.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G9">
-        <v>70</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="H9">
-        <v>61.9</v>
+        <v>63.8</v>
       </c>
       <c r="I9">
-        <v>76.5</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="J9">
-        <v>66.10000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="K9">
-        <v>54.3</v>
+        <v>52.1</v>
       </c>
       <c r="L9">
-        <v>33.90000000000001</v>
+        <v>38.7</v>
       </c>
       <c r="M9">
-        <v>20.3</v>
+        <v>17.8</v>
       </c>
       <c r="N9">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="O9">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3028,43 +3028,43 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>41.5</v>
+        <v>38.9</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="D10">
-        <v>4.100000000000001</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>9.700000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="G10">
         <v>7.5</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J10">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3078,37 +3078,37 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="D11">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="E11">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="F11">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="I11">
-        <v>0.7000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K11">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3128,46 +3128,46 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>5.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C12">
-        <v>74.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D12">
-        <v>67.60000000000001</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="E12">
-        <v>74.5</v>
+        <v>71.8</v>
       </c>
       <c r="F12">
+        <v>70.5</v>
+      </c>
+      <c r="G12">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="H12">
         <v>72.7</v>
       </c>
-      <c r="G12">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="H12">
-        <v>71.09999999999999</v>
-      </c>
       <c r="I12">
-        <v>62.2</v>
+        <v>61.8</v>
       </c>
       <c r="J12">
-        <v>32.6</v>
+        <v>33.5</v>
       </c>
       <c r="K12">
-        <v>33</v>
+        <v>31.6</v>
       </c>
       <c r="L12">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="M12">
-        <v>31.6</v>
+        <v>31.2</v>
       </c>
       <c r="N12">
-        <v>60.3</v>
+        <v>59.5</v>
       </c>
       <c r="O12">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3178,40 +3178,40 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.800000000000001</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G13">
         <v>7.9</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>11.4</v>
+        <v>10.1</v>
       </c>
       <c r="J13">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="L13">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="M13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -61,55 +61,61 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>5-10-1</t>
-  </si>
-  <si>
-    <t>4-11-1</t>
-  </si>
-  <si>
-    <t>14-2-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>8-7-1</t>
-  </si>
-  <si>
-    <t>12-3-1</t>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>6-10-1</t>
+  </si>
+  <si>
+    <t>4-12-1</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>8-8-1</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>13-3-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -367,88 +373,88 @@
     <t>4.0-10.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑9</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week</t>
@@ -879,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -906,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -920,25 +926,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -961,25 +967,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -1005,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1014,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1023,16 +1029,16 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1052,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -1067,13 +1073,13 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1087,34 +1093,34 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1125,13 +1131,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1140,19 +1146,19 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -1169,22 +1175,22 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1196,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1228,13 +1234,13 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1251,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1272,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
@@ -1295,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1310,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1348,16 +1354,16 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -1370,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1378,25 +1384,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1526,32 +1532,6 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>-42</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1570,13 +1550,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1587,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1598,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1612,10 +1592,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1629,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1640,13 +1620,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7.666666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1654,10 +1634,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.833333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1671,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.916666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1682,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>8.083333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1696,13 +1676,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>8.416666666666666</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1713,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>8.583333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1727,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>8.75</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1741,10 +1721,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>10.25</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1762,16 +1742,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1782,13 +1762,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>11.66666666666667</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="D2">
         <v>-0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1799,10 +1779,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>10.58333333333333</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="D3">
-        <v>1.583333333333334</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1816,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10.33333333333333</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="D4">
-        <v>1.333333333333334</v>
+        <v>0.9166666666666661</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1830,16 +1810,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1847,16 +1827,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>9.416666666666666</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333339</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1867,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9.166666666666666</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D7">
-        <v>1.166666666666666</v>
+        <v>1.916666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1884,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="D8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1901,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1924,7 +1904,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1935,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5.416666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D11">
-        <v>0.416666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1952,13 +1932,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333304</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1969,13 +1949,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666665</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1993,46 +1973,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2578,49 +2558,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2628,40 +2608,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>60.4</v>
+        <v>62.4</v>
       </c>
       <c r="C2">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D2">
-        <v>52.8</v>
+        <v>51.7</v>
       </c>
       <c r="E2">
-        <v>27.2</v>
+        <v>25.1</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>52.5</v>
       </c>
       <c r="G2">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="H2">
-        <v>57.3</v>
+        <v>54.8</v>
       </c>
       <c r="I2">
-        <v>76.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="J2">
-        <v>87.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K2">
-        <v>83.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="L2">
-        <v>96.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M2">
-        <v>94.19999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2678,34 +2658,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>94.3</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E3">
-        <v>81.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="F3">
-        <v>95.39999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G3">
-        <v>98.7</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="H3">
-        <v>94.69999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="I3">
+        <v>98.8</v>
+      </c>
+      <c r="J3">
+        <v>97</v>
+      </c>
+      <c r="K3">
         <v>99.59999999999999</v>
-      </c>
-      <c r="J3">
-        <v>96.5</v>
-      </c>
-      <c r="K3">
-        <v>99.2</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2728,43 +2708,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97.2</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C4">
-        <v>96.5</v>
+        <v>97.3</v>
       </c>
       <c r="D4">
-        <v>77.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="E4">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F4">
-        <v>95.8</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="G4">
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
       <c r="H4">
-        <v>93.30000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="I4">
-        <v>78.3</v>
+        <v>77.5</v>
       </c>
       <c r="J4">
-        <v>89.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K4">
-        <v>86.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="L4">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M4">
-        <v>90.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="N4">
-        <v>85.8</v>
+        <v>83.5</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2778,37 +2758,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>59.7</v>
+        <v>57.3</v>
       </c>
       <c r="C5">
-        <v>23.4</v>
+        <v>21.1</v>
       </c>
       <c r="D5">
-        <v>39.6</v>
+        <v>36.1</v>
       </c>
       <c r="E5">
-        <v>77.60000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="F5">
-        <v>89.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G5">
-        <v>97</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H5">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="I5">
-        <v>96.89999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="K5">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="L5">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2831,10 +2811,10 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D6">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>99.2</v>
@@ -2843,16 +2823,16 @@
         <v>99.3</v>
       </c>
       <c r="G6">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="H6">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="I6">
         <v>99.7</v>
       </c>
       <c r="J6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2878,46 +2858,46 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="C7">
-        <v>79.40000000000001</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="D7">
-        <v>48.9</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="E7">
-        <v>38.9</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="F7">
-        <v>21.9</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>33.5</v>
+        <v>31.5</v>
       </c>
       <c r="H7">
-        <v>34.59999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="I7">
-        <v>46.40000000000001</v>
+        <v>46.5</v>
       </c>
       <c r="J7">
-        <v>63.3</v>
+        <v>62.7</v>
       </c>
       <c r="K7">
-        <v>48.2</v>
+        <v>52.3</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>41.3</v>
       </c>
       <c r="M7">
-        <v>62.6</v>
+        <v>62</v>
       </c>
       <c r="N7">
-        <v>37.1</v>
+        <v>35.9</v>
       </c>
       <c r="O7">
-        <v>61.5</v>
+        <v>64.3</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2928,40 +2908,40 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="C8">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D8">
         <v>96.59999999999999</v>
       </c>
       <c r="E8">
-        <v>74.3</v>
+        <v>73.3</v>
       </c>
       <c r="F8">
         <v>55.2</v>
       </c>
       <c r="G8">
-        <v>67.80000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="H8">
-        <v>75.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I8">
-        <v>49.2</v>
+        <v>51.1</v>
       </c>
       <c r="J8">
-        <v>64.3</v>
+        <v>63.5</v>
       </c>
       <c r="K8">
-        <v>89.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -2978,46 +2958,46 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <v>87.09999999999999</v>
       </c>
       <c r="G9">
-        <v>71.89999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H9">
-        <v>63.8</v>
+        <v>61.7</v>
       </c>
       <c r="I9">
-        <v>78.10000000000001</v>
+        <v>76</v>
       </c>
       <c r="J9">
-        <v>63.5</v>
+        <v>63.6</v>
       </c>
       <c r="K9">
-        <v>52.1</v>
+        <v>52.6</v>
       </c>
       <c r="L9">
-        <v>38.7</v>
+        <v>36.8</v>
       </c>
       <c r="M9">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
       <c r="O9">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3031,40 +3011,40 @@
         <v>38.9</v>
       </c>
       <c r="C10">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E10">
-        <v>8.699999999999999</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="F10">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="H10">
-        <v>5.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I10">
         <v>2.2</v>
       </c>
       <c r="J10">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3078,37 +3058,37 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="E11">
-        <v>27.4</v>
+        <v>25.7</v>
       </c>
       <c r="F11">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>5.600000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="I11">
-        <v>1.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K11">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3128,46 +3108,46 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C12">
-        <v>76.90000000000001</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D12">
-        <v>68.60000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E12">
-        <v>71.8</v>
+        <v>75.8</v>
       </c>
       <c r="F12">
-        <v>70.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G12">
-        <v>81.10000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="H12">
-        <v>72.7</v>
+        <v>74.5</v>
       </c>
       <c r="I12">
-        <v>61.8</v>
+        <v>59.8</v>
       </c>
       <c r="J12">
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="L12">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="M12">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="N12">
-        <v>59.5</v>
+        <v>62.7</v>
       </c>
       <c r="O12">
-        <v>18.9</v>
+        <v>16.6</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3178,40 +3158,40 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="E13">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="F13">
         <v>0.7000000000000001</v>
       </c>
       <c r="G13">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="I13">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3238,28 +3218,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3270,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>108.91</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3299,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>101.23</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3328,13 +3308,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>95.3</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3357,13 +3337,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>124.77</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3386,13 +3366,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>107.39</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3415,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>119.77</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3444,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>103.57</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3473,13 +3453,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>98.55</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3502,13 +3482,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>113.59</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3531,13 +3511,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>125.96</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3560,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>114.24</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3589,13 +3569,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>126.26</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3625,31 +3605,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3657,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3675,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3686,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3704,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3715,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -3733,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3744,7 +3724,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3762,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3773,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>0.7857142857142857</v>
@@ -3791,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3802,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3820,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3831,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -3849,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3860,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3878,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3889,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3907,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3918,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3936,10 +3916,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3947,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12">
         <v>0.4285714285714285</v>
@@ -3965,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3976,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -3994,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4006,276 +3986,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>-27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11">
-        <v>-32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12">
-        <v>-44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13">
-        <v>-77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -4285,55 +3995,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4388,8 +4098,8 @@
       <c r="Q2">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
-        <v>117</v>
+      <c r="R2">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4444,8 +4154,8 @@
       <c r="Q3">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
-        <v>117</v>
+      <c r="R3">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4500,120 +4210,120 @@
       <c r="Q4">
         <v>38</v>
       </c>
-      <c r="R4" t="s">
-        <v>118</v>
+      <c r="R4">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
       <c r="E5">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
         <v>17</v>
       </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
+      <c r="Q5">
         <v>16</v>
       </c>
-      <c r="O5">
-        <v>19</v>
-      </c>
-      <c r="P5">
-        <v>22</v>
-      </c>
-      <c r="Q5">
-        <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>119</v>
+      <c r="R5">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
       <c r="K6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q6">
-        <v>16</v>
-      </c>
-      <c r="R6" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4668,8 +4378,8 @@
       <c r="Q7">
         <v>12</v>
       </c>
-      <c r="R7" t="s">
-        <v>118</v>
+      <c r="R7">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4724,8 +4434,8 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
-        <v>121</v>
+      <c r="R8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4780,8 +4490,8 @@
       <c r="Q9">
         <v>-6</v>
       </c>
-      <c r="R9" t="s">
-        <v>119</v>
+      <c r="R9">
+        <v>-9</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4836,8 +4546,8 @@
       <c r="Q10">
         <v>-27</v>
       </c>
-      <c r="R10" t="s">
-        <v>122</v>
+      <c r="R10">
+        <v>-38</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4892,8 +4602,8 @@
       <c r="Q11">
         <v>-32</v>
       </c>
-      <c r="R11" t="s">
-        <v>123</v>
+      <c r="R11">
+        <v>-39</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4948,8 +4658,8 @@
       <c r="Q12">
         <v>-44</v>
       </c>
-      <c r="R12" t="s">
-        <v>124</v>
+      <c r="R12">
+        <v>-53</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5004,8 +4714,785 @@
       <c r="Q13">
         <v>-77</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>54</v>
+      </c>
+      <c r="N2">
+        <v>56</v>
+      </c>
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2">
+        <v>46</v>
+      </c>
+      <c r="Q2">
+        <v>53</v>
+      </c>
+      <c r="R2">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <v>22</v>
+      </c>
+      <c r="Q6">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-3</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7">
+        <v>-3</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7">
+        <v>-4</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9">
+        <v>-9</v>
+      </c>
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="P9">
+        <v>-3</v>
+      </c>
+      <c r="Q9">
+        <v>-6</v>
+      </c>
+      <c r="R9">
+        <v>-9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>-7</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>-8</v>
+      </c>
+      <c r="M10">
+        <v>-6</v>
+      </c>
+      <c r="N10">
+        <v>-12</v>
+      </c>
+      <c r="O10">
+        <v>-12</v>
+      </c>
+      <c r="P10">
+        <v>-19</v>
+      </c>
+      <c r="Q10">
+        <v>-27</v>
+      </c>
+      <c r="R10">
+        <v>-38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11">
+        <v>-23</v>
+      </c>
+      <c r="E11">
+        <v>-23</v>
+      </c>
+      <c r="F11">
+        <v>-29</v>
+      </c>
+      <c r="G11">
+        <v>-31</v>
+      </c>
+      <c r="H11">
+        <v>-29</v>
+      </c>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11">
+        <v>-31</v>
+      </c>
+      <c r="K11">
+        <v>-35</v>
+      </c>
+      <c r="L11">
+        <v>-43</v>
+      </c>
+      <c r="M11">
+        <v>-44</v>
+      </c>
+      <c r="N11">
+        <v>-42</v>
+      </c>
+      <c r="O11">
+        <v>-41</v>
+      </c>
+      <c r="P11">
+        <v>-41</v>
+      </c>
+      <c r="Q11">
+        <v>-32</v>
+      </c>
+      <c r="R11">
+        <v>-39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <v>-24</v>
+      </c>
+      <c r="F12">
+        <v>-31</v>
+      </c>
+      <c r="G12">
+        <v>-25</v>
+      </c>
+      <c r="H12">
+        <v>-30</v>
+      </c>
+      <c r="I12">
+        <v>-29</v>
+      </c>
+      <c r="J12">
+        <v>-28</v>
+      </c>
+      <c r="K12">
+        <v>-37</v>
+      </c>
+      <c r="L12">
+        <v>-34</v>
+      </c>
+      <c r="M12">
+        <v>-33</v>
+      </c>
+      <c r="N12">
+        <v>-39</v>
+      </c>
+      <c r="O12">
+        <v>-39</v>
+      </c>
+      <c r="P12">
+        <v>-37</v>
+      </c>
+      <c r="Q12">
+        <v>-44</v>
+      </c>
+      <c r="R12">
+        <v>-53</v>
+      </c>
+      <c r="S12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <v>-8</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="F13">
+        <v>-15</v>
+      </c>
+      <c r="G13">
+        <v>-15</v>
+      </c>
+      <c r="H13">
+        <v>-25</v>
+      </c>
+      <c r="I13">
+        <v>-28</v>
+      </c>
+      <c r="J13">
+        <v>-34</v>
+      </c>
+      <c r="K13">
+        <v>-41</v>
+      </c>
+      <c r="L13">
+        <v>-47</v>
+      </c>
+      <c r="M13">
+        <v>-55</v>
+      </c>
+      <c r="N13">
+        <v>-55</v>
+      </c>
+      <c r="O13">
+        <v>-60</v>
+      </c>
+      <c r="P13">
+        <v>-71</v>
+      </c>
+      <c r="Q13">
+        <v>-77</v>
+      </c>
+      <c r="R13">
+        <v>-80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Family Fantasy 2025.xlsx
+++ b/leagues/Family Fantasy 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -132,6 +136,243 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -139,42 +380,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Zach Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
-    <t>Noah Wallach</t>
-  </si>
-  <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
   </si>
   <si>
     <t>↑10</t>
@@ -1175,6 +1380,172 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-27</v>
+      </c>
+      <c r="F2">
+        <v>-77</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>-25</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>-43</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-35</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1600,6 +1971,2028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>58.9</v>
+      </c>
+      <c r="C2">
+        <v>14.1</v>
+      </c>
+      <c r="D2">
+        <v>50.6</v>
+      </c>
+      <c r="E2">
+        <v>23.9</v>
+      </c>
+      <c r="F2">
+        <v>50.2</v>
+      </c>
+      <c r="G2">
+        <v>41.8</v>
+      </c>
+      <c r="H2">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="I2">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="J2">
+        <v>91.2</v>
+      </c>
+      <c r="K2">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="L2">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="M2">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>92.7</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="F3">
+        <v>94.3</v>
+      </c>
+      <c r="G3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>95.3</v>
+      </c>
+      <c r="I3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="J3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.3</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>96.8</v>
+      </c>
+      <c r="C4">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="F4">
+        <v>96.7</v>
+      </c>
+      <c r="G4">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>93.7</v>
+      </c>
+      <c r="I4">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="J4">
+        <v>87.5</v>
+      </c>
+      <c r="K4">
+        <v>83.8</v>
+      </c>
+      <c r="L4">
+        <v>96.8</v>
+      </c>
+      <c r="M4">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="N4">
+        <v>85.3</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>57.3</v>
+      </c>
+      <c r="C5">
+        <v>22.4</v>
+      </c>
+      <c r="D5">
+        <v>35.5</v>
+      </c>
+      <c r="E5">
+        <v>74.7</v>
+      </c>
+      <c r="F5">
+        <v>88.3</v>
+      </c>
+      <c r="G5">
+        <v>97.2</v>
+      </c>
+      <c r="H5">
+        <v>98.8</v>
+      </c>
+      <c r="I5">
+        <v>96.7</v>
+      </c>
+      <c r="J5">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="K5">
+        <v>99.8</v>
+      </c>
+      <c r="L5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C6">
+        <v>99.8</v>
+      </c>
+      <c r="D6">
+        <v>99.8</v>
+      </c>
+      <c r="E6">
+        <v>99.2</v>
+      </c>
+      <c r="F6">
+        <v>98.5</v>
+      </c>
+      <c r="G6">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="H6">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I6">
+        <v>99.3</v>
+      </c>
+      <c r="J6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C7">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="D7">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>44.4</v>
+      </c>
+      <c r="F7">
+        <v>21.9</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>32.6</v>
+      </c>
+      <c r="I7">
+        <v>43.3</v>
+      </c>
+      <c r="J7">
+        <v>62.4</v>
+      </c>
+      <c r="K7">
+        <v>48.8</v>
+      </c>
+      <c r="L7">
+        <v>41.2</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <v>38.1</v>
+      </c>
+      <c r="O7">
+        <v>59.7</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>74.3</v>
+      </c>
+      <c r="C8">
+        <v>99.8</v>
+      </c>
+      <c r="D8">
+        <v>97.2</v>
+      </c>
+      <c r="E8">
+        <v>72.89999999999999</v>
+      </c>
+      <c r="F8">
+        <v>57.9</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="I8">
+        <v>48.5</v>
+      </c>
+      <c r="J8">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="K8">
+        <v>89.5</v>
+      </c>
+      <c r="L8">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>99.7</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>87.2</v>
+      </c>
+      <c r="G9">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>65.5</v>
+      </c>
+      <c r="I9">
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <v>61.4</v>
+      </c>
+      <c r="K9">
+        <v>54.2</v>
+      </c>
+      <c r="L9">
+        <v>36.8</v>
+      </c>
+      <c r="M9">
+        <v>20.7</v>
+      </c>
+      <c r="N9">
+        <v>6.4</v>
+      </c>
+      <c r="O9">
+        <v>20.2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>40.6</v>
+      </c>
+      <c r="C10">
+        <v>6.5</v>
+      </c>
+      <c r="D10">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>10.2</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>8.5</v>
+      </c>
+      <c r="H10">
+        <v>4.9</v>
+      </c>
+      <c r="I10">
+        <v>2.3</v>
+      </c>
+      <c r="J10">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K10">
+        <v>3.8</v>
+      </c>
+      <c r="L10">
+        <v>8.4</v>
+      </c>
+      <c r="M10">
+        <v>1.7</v>
+      </c>
+      <c r="N10">
+        <v>8.9</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.9</v>
+      </c>
+      <c r="D11">
+        <v>6.9</v>
+      </c>
+      <c r="E11">
+        <v>26.2</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>6.9</v>
+      </c>
+      <c r="H11">
+        <v>2.7</v>
+      </c>
+      <c r="I11">
+        <v>1.7</v>
+      </c>
+      <c r="J11">
+        <v>1.1</v>
+      </c>
+      <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>0.6</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5.2</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>68.5</v>
+      </c>
+      <c r="E12">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="F12">
+        <v>75.2</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>73.8</v>
+      </c>
+      <c r="I12">
+        <v>63.4</v>
+      </c>
+      <c r="J12">
+        <v>32.7</v>
+      </c>
+      <c r="K12">
+        <v>32.8</v>
+      </c>
+      <c r="L12">
+        <v>20.7</v>
+      </c>
+      <c r="M12">
+        <v>32.6</v>
+      </c>
+      <c r="N12">
+        <v>61.3</v>
+      </c>
+      <c r="O12">
+        <v>20.1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.3</v>
+      </c>
+      <c r="E13">
+        <v>2.6</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>12.5</v>
+      </c>
+      <c r="J13">
+        <v>6.7</v>
+      </c>
+      <c r="K13">
+        <v>2.5</v>
+      </c>
+      <c r="L13">
+        <v>0.6</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>108.91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>101.23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>95.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>124.77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>107.39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>119.77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>103.57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>98.55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>113.59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>125.96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>114.24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>126.26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D2">
+        <v>124.7742857142857</v>
+      </c>
+      <c r="E2">
+        <v>1746.84</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D3">
+        <v>119.7742857142857</v>
+      </c>
+      <c r="E3">
+        <v>1676.84</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D4">
+        <v>103.5742857142857</v>
+      </c>
+      <c r="E4">
+        <v>1450.04</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D5">
+        <v>113.5885714285714</v>
+      </c>
+      <c r="E5">
+        <v>1590.24</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D6">
+        <v>125.9571428571429</v>
+      </c>
+      <c r="E6">
+        <v>1763.4</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D7">
+        <v>114.24</v>
+      </c>
+      <c r="E7">
+        <v>1599.36</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>126.2585714285714</v>
+      </c>
+      <c r="E8">
+        <v>1767.62</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D9">
+        <v>108.9085714285714</v>
+      </c>
+      <c r="E9">
+        <v>1524.72</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D10">
+        <v>101.2314285714285</v>
+      </c>
+      <c r="E10">
+        <v>1417.24</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D11">
+        <v>95.3</v>
+      </c>
+      <c r="E11">
+        <v>1334.2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D12">
+        <v>107.3857142857143</v>
+      </c>
+      <c r="E12">
+        <v>1503.4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D13">
+        <v>98.55285714285716</v>
+      </c>
+      <c r="E13">
+        <v>1379.74</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1611,16 +4004,16 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1631,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>63</v>
@@ -1640,7 +4033,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1651,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>46</v>
@@ -1660,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1671,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>43</v>
@@ -1680,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1691,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -1700,7 +4093,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1711,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -1720,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1731,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -1740,7 +4133,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1751,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1760,7 +4153,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1771,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -1780,7 +4173,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1791,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-38</v>
@@ -1800,7 +4193,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1811,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>-39</v>
@@ -1820,7 +4213,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1831,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>-53</v>
@@ -1840,7 +4233,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1851,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>-80</v>
@@ -1860,7 +4253,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -1878,58 +4271,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1988,7 +4381,7 @@
         <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2047,7 +4440,7 @@
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2106,7 +4499,7 @@
         <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2165,7 +4558,7 @@
         <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2224,7 +4617,7 @@
         <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2283,7 +4676,7 @@
         <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2342,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2401,7 +4794,7 @@
         <v>-9</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2460,7 +4853,7 @@
         <v>-38</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2519,7 +4912,7 @@
         <v>-39</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2578,7 +4971,7 @@
         <v>-53</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2637,173 +5030,7 @@
         <v>-80</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>-27</v>
-      </c>
-      <c r="F2">
-        <v>-77</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>33</v>
-      </c>
-      <c r="G3">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>-25</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-43</v>
-      </c>
-      <c r="F5">
-        <v>-8</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-35</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
